--- a/Visualization/src/temp_processed_Day3_transients.xlsx
+++ b/Visualization/src/temp_processed_Day3_transients.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,19 +542,19 @@
         <v>269</v>
       </c>
       <c r="G2" t="n">
-        <v>2.391051573478634</v>
+        <v>2.391051573478866</v>
       </c>
       <c r="H2" t="n">
-        <v>1.212384229119414</v>
+        <v>1.212384229119532</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.091813104691093</v>
+        <v>-1.0918131046912</v>
       </c>
       <c r="J2" t="n">
         <v>241</v>
       </c>
       <c r="K2" t="n">
-        <v>35.54504791915511</v>
+        <v>35.54504791915514</v>
       </c>
       <c r="L2" t="n">
         <v>138</v>
@@ -563,10 +563,10 @@
         <v>105</v>
       </c>
       <c r="N2" t="n">
-        <v>83.97777411767657</v>
+        <v>83.97777411768479</v>
       </c>
       <c r="O2" t="n">
-        <v>6.067776221469794</v>
+        <v>6.067776221469793</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -599,13 +599,13 @@
         <v>707</v>
       </c>
       <c r="G3" t="n">
-        <v>1.47037699070003</v>
+        <v>1.470376990700172</v>
       </c>
       <c r="H3" t="n">
-        <v>1.446617363400118</v>
+        <v>1.446617363400259</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.091813104691093</v>
+        <v>-1.0918131046912</v>
       </c>
       <c r="J3" t="n">
         <v>438</v>
@@ -620,10 +620,10 @@
         <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>374.3438508754428</v>
+        <v>374.3438508754793</v>
       </c>
       <c r="O3" t="n">
-        <v>3.731378544790589</v>
+        <v>3.731378544790588</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         <v>1375</v>
       </c>
       <c r="G4" t="n">
-        <v>1.009363728036468</v>
+        <v>1.009363728036566</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05003759673080797</v>
+        <v>0.05003759673081242</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.091813104691093</v>
+        <v>-1.0918131046912</v>
       </c>
       <c r="J4" t="n">
         <v>184</v>
@@ -677,10 +677,10 @@
         <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>104.9365913027592</v>
+        <v>104.9365913027694</v>
       </c>
       <c r="O4" t="n">
-        <v>2.561464292835553</v>
+        <v>2.561464292835551</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -713,13 +713,13 @@
         <v>1556</v>
       </c>
       <c r="G5" t="n">
-        <v>1.343946876799943</v>
+        <v>1.343946876800072</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6934904553884773</v>
+        <v>0.6934904553885446</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.091813104691093</v>
+        <v>-1.0918131046912</v>
       </c>
       <c r="J5" t="n">
         <v>365</v>
@@ -734,10 +734,10 @@
         <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>303.0735241216928</v>
+        <v>303.0735241217224</v>
       </c>
       <c r="O5" t="n">
-        <v>3.410536599217422</v>
+        <v>3.41053659921742</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -770,13 +770,13 @@
         <v>1969</v>
       </c>
       <c r="G6" t="n">
-        <v>1.143025197806006</v>
+        <v>1.143025197806117</v>
       </c>
       <c r="H6" t="n">
-        <v>1.285907705299849</v>
+        <v>1.285907705299974</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.091813104691093</v>
+        <v>-1.0918131046912</v>
       </c>
       <c r="J6" t="n">
         <v>289</v>
@@ -791,10 +791,10 @@
         <v>136</v>
       </c>
       <c r="N6" t="n">
-        <v>416.9901537724305</v>
+        <v>416.9901537724712</v>
       </c>
       <c r="O6" t="n">
-        <v>2.900657264242012</v>
+        <v>2.900657264242011</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -827,13 +827,13 @@
         <v>2101</v>
       </c>
       <c r="G7" t="n">
-        <v>2.038258551894194</v>
+        <v>2.038258551894391</v>
       </c>
       <c r="H7" t="n">
-        <v>1.465336561269598</v>
+        <v>1.46533656126974</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.091813104691093</v>
+        <v>-1.0918131046912</v>
       </c>
       <c r="J7" t="n">
         <v>132</v>
@@ -848,10 +848,10 @@
         <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>154.5929316319433</v>
+        <v>154.5929316319584</v>
       </c>
       <c r="O7" t="n">
-        <v>5.17249268546635</v>
+        <v>5.172492685466349</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -884,13 +884,13 @@
         <v>2554</v>
       </c>
       <c r="G8" t="n">
-        <v>3.053082838980916</v>
+        <v>3.053082838981213</v>
       </c>
       <c r="H8" t="n">
-        <v>1.700040200928453</v>
+        <v>1.700040200928618</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.091813104691093</v>
+        <v>-1.0918131046912</v>
       </c>
       <c r="J8" t="n">
         <v>585</v>
@@ -905,10 +905,10 @@
         <v>291</v>
       </c>
       <c r="N8" t="n">
-        <v>682.7547153893393</v>
+        <v>682.7547153894059</v>
       </c>
       <c r="O8" t="n">
-        <v>7.747814249608209</v>
+        <v>7.747814249608211</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
         <v>2554</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9509023073217059</v>
+        <v>0.9509023073217976</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.08977779014917778</v>
+        <v>-0.08977779014918708</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.091813104691093</v>
+        <v>-1.0918131046912</v>
       </c>
       <c r="J9" t="n">
         <v>188</v>
@@ -962,10 +962,10 @@
         <v>139</v>
       </c>
       <c r="N9" t="n">
-        <v>32.81023890074798</v>
+        <v>32.8102389007512</v>
       </c>
       <c r="O9" t="n">
-        <v>2.413106631954866</v>
+        <v>2.413106631954864</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -998,13 +998,13 @@
         <v>2650</v>
       </c>
       <c r="G10" t="n">
-        <v>1.513302377657606</v>
+        <v>1.513302377657752</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1218954901067871</v>
+        <v>-0.1218954901067994</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.091813104691093</v>
+        <v>-1.0918131046912</v>
       </c>
       <c r="J10" t="n">
         <v>96</v>
@@ -1019,10 +1019,10 @@
         <v>54</v>
       </c>
       <c r="N10" t="n">
-        <v>21.42923648466018</v>
+        <v>21.42923648466228</v>
       </c>
       <c r="O10" t="n">
-        <v>3.840310382634485</v>
+        <v>3.840310382634484</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1055,13 +1055,13 @@
         <v>2854</v>
       </c>
       <c r="G11" t="n">
-        <v>1.783649174454418</v>
+        <v>1.783649174454591</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2980061002757282</v>
+        <v>0.2980061002757564</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.091813104691093</v>
+        <v>-1.0918131046912</v>
       </c>
       <c r="J11" t="n">
         <v>300</v>
@@ -1076,10 +1076,10 @@
         <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>80.74005554549014</v>
+        <v>80.74005554549802</v>
       </c>
       <c r="O11" t="n">
-        <v>4.52636997388273</v>
+        <v>4.526369973882729</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1112,13 +1112,13 @@
         <v>982</v>
       </c>
       <c r="G12" t="n">
-        <v>2.213667504429882</v>
+        <v>2.213667504430097</v>
       </c>
       <c r="H12" t="n">
-        <v>2.108598040536467</v>
+        <v>2.108598040536672</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.188900041518833</v>
+        <v>-1.188900041518949</v>
       </c>
       <c r="J12" t="n">
         <v>593</v>
@@ -1133,10 +1133,10 @@
         <v>451</v>
       </c>
       <c r="N12" t="n">
-        <v>758.9295278268734</v>
+        <v>758.9295278269473</v>
       </c>
       <c r="O12" t="n">
-        <v>5.751652979176828</v>
+        <v>5.751652979176874</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
         <v>1199</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9305497676569324</v>
+        <v>0.9305497676570224</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.03371118184343413</v>
+        <v>-0.03371118184343767</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.188900041518833</v>
+        <v>-1.188900041518949</v>
       </c>
       <c r="J13" t="n">
         <v>217</v>
@@ -1190,10 +1190,10 @@
         <v>57</v>
       </c>
       <c r="N13" t="n">
-        <v>122.7134322181406</v>
+        <v>122.7134322181525</v>
       </c>
       <c r="O13" t="n">
-        <v>2.417797312697478</v>
+        <v>2.417797312697496</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1226,13 +1226,13 @@
         <v>2648</v>
       </c>
       <c r="G14" t="n">
-        <v>1.586326043195364</v>
+        <v>1.586326043195518</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8058826231002286</v>
+        <v>0.8058826231003069</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.188900041518833</v>
+        <v>-1.188900041518949</v>
       </c>
       <c r="J14" t="n">
         <v>320</v>
@@ -1247,10 +1247,10 @@
         <v>77</v>
       </c>
       <c r="N14" t="n">
-        <v>319.5897854666737</v>
+        <v>319.5897854667048</v>
       </c>
       <c r="O14" t="n">
-        <v>4.121665468744477</v>
+        <v>4.12166546874451</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1283,13 +1283,13 @@
         <v>124</v>
       </c>
       <c r="G15" t="n">
-        <v>1.003267716886706</v>
+        <v>1.003267716886803</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4498091221629604</v>
+        <v>0.4498091221630039</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J15" t="n">
         <v>87</v>
@@ -1304,10 +1304,10 @@
         <v>56</v>
       </c>
       <c r="N15" t="n">
-        <v>93.89068417634813</v>
+        <v>93.8906841763573</v>
       </c>
       <c r="O15" t="n">
-        <v>2.570833069555348</v>
+        <v>2.570833069555346</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1340,19 +1340,19 @@
         <v>271</v>
       </c>
       <c r="G16" t="n">
-        <v>1.590799619194509</v>
+        <v>1.590799619194663</v>
       </c>
       <c r="H16" t="n">
-        <v>0.844616133959311</v>
+        <v>0.8446161339593929</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J16" t="n">
         <v>234</v>
       </c>
       <c r="K16" t="n">
-        <v>46.04222301400597</v>
+        <v>46.042223014006</v>
       </c>
       <c r="L16" t="n">
         <v>126</v>
@@ -1361,10 +1361,10 @@
         <v>110</v>
       </c>
       <c r="N16" t="n">
-        <v>224.548066289934</v>
+        <v>224.5480662899559</v>
       </c>
       <c r="O16" t="n">
-        <v>4.076359878051499</v>
+        <v>4.076359878051497</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1397,13 +1397,13 @@
         <v>612</v>
       </c>
       <c r="G17" t="n">
-        <v>1.306401568591202</v>
+        <v>1.306401568591329</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7637009348020508</v>
+        <v>0.7637009348021248</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J17" t="n">
         <v>341</v>
@@ -1418,10 +1418,10 @@
         <v>53</v>
       </c>
       <c r="N17" t="n">
-        <v>183.6829534993984</v>
+        <v>183.6829534994164</v>
       </c>
       <c r="O17" t="n">
-        <v>3.347601341220575</v>
+        <v>3.347601341220574</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1454,13 +1454,13 @@
         <v>722</v>
       </c>
       <c r="G18" t="n">
-        <v>1.668907136214275</v>
+        <v>1.668907136214437</v>
       </c>
       <c r="H18" t="n">
-        <v>1.932810673824428</v>
+        <v>1.932810673824616</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J18" t="n">
         <v>451</v>
@@ -1475,10 +1475,10 @@
         <v>58</v>
       </c>
       <c r="N18" t="n">
-        <v>390.6139992846901</v>
+        <v>390.6139992847284</v>
       </c>
       <c r="O18" t="n">
-        <v>4.276507240869461</v>
+        <v>4.276507240869459</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1511,13 +1511,13 @@
         <v>1261</v>
       </c>
       <c r="G19" t="n">
-        <v>1.408598355517833</v>
+        <v>1.408598355517969</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2933680130316657</v>
+        <v>0.2933680130316937</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J19" t="n">
         <v>274</v>
@@ -1532,10 +1532,10 @@
         <v>245</v>
       </c>
       <c r="N19" t="n">
-        <v>51.97684307374022</v>
+        <v>51.97684307374536</v>
       </c>
       <c r="O19" t="n">
-        <v>3.609476486818382</v>
+        <v>3.609476486818378</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1568,13 +1568,13 @@
         <v>1382</v>
       </c>
       <c r="G20" t="n">
-        <v>1.092415617394936</v>
+        <v>1.092415617395041</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09821137279686673</v>
+        <v>0.09821137279687575</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J20" t="n">
         <v>121</v>
@@ -1589,10 +1589,10 @@
         <v>36</v>
       </c>
       <c r="N20" t="n">
-        <v>52.92548201286322</v>
+        <v>52.92548201286841</v>
       </c>
       <c r="O20" t="n">
-        <v>2.799270969878884</v>
+        <v>2.799270969878882</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1625,13 +1625,13 @@
         <v>1518</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9893323317428837</v>
+        <v>0.9893323317429797</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1414725592777875</v>
+        <v>0.1414725592778011</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J21" t="n">
         <v>257</v>
@@ -1646,10 +1646,10 @@
         <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>143.3584479609847</v>
+        <v>143.3584479609987</v>
       </c>
       <c r="O21" t="n">
-        <v>2.535124207043654</v>
+        <v>2.535124207043653</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1682,13 +1682,13 @@
         <v>1797</v>
       </c>
       <c r="G22" t="n">
-        <v>0.958580172757136</v>
+        <v>0.9585801727572287</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5675553972093013</v>
+        <v>0.5675553972093561</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J22" t="n">
         <v>536</v>
@@ -1703,10 +1703,10 @@
         <v>42</v>
       </c>
       <c r="N22" t="n">
-        <v>375.4589666357347</v>
+        <v>375.4589666357715</v>
       </c>
       <c r="O22" t="n">
-        <v>2.456323039668195</v>
+        <v>2.456323039668193</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -1739,13 +1739,13 @@
         <v>2444</v>
       </c>
       <c r="G23" t="n">
-        <v>1.914276107591026</v>
+        <v>1.914276107591212</v>
       </c>
       <c r="H23" t="n">
-        <v>1.732458067735201</v>
+        <v>1.732458067735369</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J23" t="n">
         <v>313</v>
@@ -1760,10 +1760,10 @@
         <v>182</v>
       </c>
       <c r="N23" t="n">
-        <v>494.0089285421063</v>
+        <v>494.0089285421545</v>
       </c>
       <c r="O23" t="n">
-        <v>4.905255335959782</v>
+        <v>4.90525533595978</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -1796,13 +1796,13 @@
         <v>2647</v>
       </c>
       <c r="G24" t="n">
-        <v>1.711635149429064</v>
+        <v>1.711635149429229</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1708340608221685</v>
+        <v>0.1708340608221846</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J24" t="n">
         <v>203</v>
@@ -1817,10 +1817,10 @@
         <v>38</v>
       </c>
       <c r="N24" t="n">
-        <v>57.75070138235967</v>
+        <v>57.75070138236536</v>
       </c>
       <c r="O24" t="n">
-        <v>4.385996051802048</v>
+        <v>4.385996051802045</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -1853,13 +1853,13 @@
         <v>2859</v>
       </c>
       <c r="G25" t="n">
-        <v>1.517589817454847</v>
+        <v>1.517589817454994</v>
       </c>
       <c r="H25" t="n">
-        <v>1.156123304950437</v>
+        <v>1.15612330495055</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J25" t="n">
         <v>415</v>
@@ -1874,10 +1874,10 @@
         <v>31</v>
       </c>
       <c r="N25" t="n">
-        <v>360.7602989684837</v>
+        <v>360.760298968519</v>
       </c>
       <c r="O25" t="n">
-        <v>3.888762713147242</v>
+        <v>3.88876271314724</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -1910,19 +1910,19 @@
         <v>2998</v>
       </c>
       <c r="G26" t="n">
-        <v>1.361831185511416</v>
+        <v>1.36183118551158</v>
       </c>
       <c r="H26" t="n">
-        <v>1.685371944347421</v>
+        <v>1.685371944347585</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.106119904383081</v>
+        <v>-1.106119904383189</v>
       </c>
       <c r="J26" t="n">
         <v>554</v>
       </c>
       <c r="K26" t="n">
-        <v>41.90066289260312</v>
+        <v>41.90066289260403</v>
       </c>
       <c r="L26" t="n">
         <v>504</v>
@@ -1931,10 +1931,10 @@
         <v>52</v>
       </c>
       <c r="N26" t="n">
-        <v>624.3870198722627</v>
+        <v>624.3870198723221</v>
       </c>
       <c r="O26" t="n">
-        <v>3.489637499478984</v>
+        <v>3.489637499479063</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -1967,13 +1967,13 @@
         <v>431</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8571506409925191</v>
+        <v>0.8571506409926026</v>
       </c>
       <c r="H27" t="n">
-        <v>1.912702523025756</v>
+        <v>1.912702523025943</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.9507820970630193</v>
+        <v>-0.950782097063112</v>
       </c>
       <c r="J27" t="n">
         <v>197</v>
@@ -1988,10 +1988,10 @@
         <v>167</v>
       </c>
       <c r="N27" t="n">
-        <v>355.3192748474171</v>
+        <v>355.3192748474518</v>
       </c>
       <c r="O27" t="n">
-        <v>3.831025771408901</v>
+        <v>3.831025771408946</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2024,19 +2024,19 @@
         <v>825</v>
       </c>
       <c r="G28" t="n">
-        <v>2.145077198816536</v>
+        <v>2.145077198816744</v>
       </c>
       <c r="H28" t="n">
-        <v>1.947637073701412</v>
+        <v>1.947637073701601</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.9507820970630193</v>
+        <v>-0.950782097063112</v>
       </c>
       <c r="J28" t="n">
         <v>394</v>
       </c>
       <c r="K28" t="n">
-        <v>60.05047609600962</v>
+        <v>60.05047609600967</v>
       </c>
       <c r="L28" t="n">
         <v>38</v>
@@ -2045,10 +2045,10 @@
         <v>358</v>
       </c>
       <c r="N28" t="n">
-        <v>370.9531382782039</v>
+        <v>370.9531382782402</v>
       </c>
       <c r="O28" t="n">
-        <v>9.587399970689034</v>
+        <v>9.587399970689141</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
         <v>1941</v>
       </c>
       <c r="G29" t="n">
-        <v>1.380502286561316</v>
+        <v>1.38050228656145</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5089900802791834</v>
+        <v>0.5089900802792325</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.9507820970630193</v>
+        <v>-0.950782097063112</v>
       </c>
       <c r="J29" t="n">
         <v>345</v>
@@ -2102,10 +2102,10 @@
         <v>165</v>
       </c>
       <c r="N29" t="n">
-        <v>151.6549850954738</v>
+        <v>151.6549850954885</v>
       </c>
       <c r="O29" t="n">
-        <v>6.17014044483632</v>
+        <v>6.170140444836389</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2138,13 +2138,13 @@
         <v>2336</v>
       </c>
       <c r="G30" t="n">
-        <v>1.128118285803646</v>
+        <v>1.128118285803755</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5875747861552255</v>
+        <v>0.5875747861552825</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.9507820970630193</v>
+        <v>-0.950782097063112</v>
       </c>
       <c r="J30" t="n">
         <v>242</v>
@@ -2159,10 +2159,10 @@
         <v>207</v>
       </c>
       <c r="N30" t="n">
-        <v>185.4904831679897</v>
+        <v>185.4904831680078</v>
       </c>
       <c r="O30" t="n">
-        <v>5.042112808907203</v>
+        <v>5.04211280890726</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2195,13 +2195,13 @@
         <v>2840</v>
       </c>
       <c r="G31" t="n">
-        <v>1.422900310618742</v>
+        <v>1.42290031061888</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5990305814580084</v>
+        <v>0.5990305814580663</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.9507820970630193</v>
+        <v>-0.950782097063112</v>
       </c>
       <c r="J31" t="n">
         <v>504</v>
@@ -2216,10 +2216,10 @@
         <v>469</v>
       </c>
       <c r="N31" t="n">
-        <v>138.4122961905681</v>
+        <v>138.4122961905816</v>
       </c>
       <c r="O31" t="n">
-        <v>6.359637967270337</v>
+        <v>6.35963796727041</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         <v>1500</v>
       </c>
       <c r="G32" t="n">
-        <v>1.079867506939306</v>
+        <v>1.07986750693941</v>
       </c>
       <c r="H32" t="n">
-        <v>1.270785179066114</v>
+        <v>1.270785179066237</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.9273926640353406</v>
+        <v>-0.927392664035431</v>
       </c>
       <c r="J32" t="n">
         <v>109</v>
@@ -2273,10 +2273,10 @@
         <v>75</v>
       </c>
       <c r="N32" t="n">
-        <v>179.8856428085398</v>
+        <v>179.8856428085573</v>
       </c>
       <c r="O32" t="n">
-        <v>4.152794942403215</v>
+        <v>4.152794942403204</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -2309,13 +2309,13 @@
         <v>2948</v>
       </c>
       <c r="G33" t="n">
-        <v>1.183073855316155</v>
+        <v>1.183073855316269</v>
       </c>
       <c r="H33" t="n">
-        <v>1.989468572658669</v>
+        <v>1.989468572658862</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.9273926640353406</v>
+        <v>-0.927392664035431</v>
       </c>
       <c r="J33" t="n">
         <v>193</v>
@@ -2330,10 +2330,10 @@
         <v>114</v>
       </c>
       <c r="N33" t="n">
-        <v>327.2902539493971</v>
+        <v>327.290253949429</v>
       </c>
       <c r="O33" t="n">
-        <v>4.5496906715636</v>
+        <v>4.549690671563589</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -2366,13 +2366,13 @@
         <v>898</v>
       </c>
       <c r="G34" t="n">
-        <v>1.714207333945986</v>
+        <v>1.714207333946151</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6600432923436444</v>
+        <v>0.6600432923437081</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.116327687482149</v>
+        <v>-1.116327687482258</v>
       </c>
       <c r="J34" t="n">
         <v>556</v>
@@ -2387,10 +2387,10 @@
         <v>520</v>
       </c>
       <c r="N34" t="n">
-        <v>231.2403438429536</v>
+        <v>231.2403438429761</v>
       </c>
       <c r="O34" t="n">
-        <v>4.248460593148174</v>
+        <v>4.248460593148176</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2423,13 +2423,13 @@
         <v>1109</v>
       </c>
       <c r="G35" t="n">
-        <v>1.045023230153867</v>
+        <v>1.045023230153968</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5811158914933889</v>
+        <v>0.5811158914934452</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.116327687482149</v>
+        <v>-1.116327687482258</v>
       </c>
       <c r="J35" t="n">
         <v>211</v>
@@ -2444,10 +2444,10 @@
         <v>54</v>
       </c>
       <c r="N35" t="n">
-        <v>110.0409994174147</v>
+        <v>110.0409994174254</v>
       </c>
       <c r="O35" t="n">
-        <v>2.589966758579399</v>
+        <v>2.589966758579402</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -2480,13 +2480,13 @@
         <v>1181</v>
       </c>
       <c r="G36" t="n">
-        <v>1.010489325751554</v>
+        <v>1.010489325751651</v>
       </c>
       <c r="H36" t="n">
-        <v>1.181969551108821</v>
+        <v>1.181969551108936</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.116327687482149</v>
+        <v>-1.116327687482258</v>
       </c>
       <c r="J36" t="n">
         <v>283</v>
@@ -2501,10 +2501,10 @@
         <v>37</v>
       </c>
       <c r="N36" t="n">
-        <v>228.243651564468</v>
+        <v>228.2436515644902</v>
       </c>
       <c r="O36" t="n">
-        <v>2.504378551671519</v>
+        <v>2.504378551671521</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -2537,13 +2537,13 @@
         <v>2763</v>
       </c>
       <c r="G37" t="n">
-        <v>2.789217535994267</v>
+        <v>2.789217535994537</v>
       </c>
       <c r="H37" t="n">
-        <v>3.267700830439435</v>
+        <v>3.267700830439753</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.116327687482149</v>
+        <v>-1.116327687482258</v>
       </c>
       <c r="J37" t="n">
         <v>544</v>
@@ -2558,10 +2558,10 @@
         <v>482</v>
       </c>
       <c r="N37" t="n">
-        <v>872.0343503663989</v>
+        <v>872.034350366484</v>
       </c>
       <c r="O37" t="n">
-        <v>6.912746522972743</v>
+        <v>6.912746522972751</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2594,13 +2594,13 @@
         <v>2763</v>
       </c>
       <c r="G38" t="n">
-        <v>2.0929871261812</v>
+        <v>2.092987126181404</v>
       </c>
       <c r="H38" t="n">
-        <v>1.38731751007011</v>
+        <v>1.387317510070245</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.116327687482149</v>
+        <v>-1.116327687482258</v>
       </c>
       <c r="J38" t="n">
         <v>220</v>
@@ -2615,10 +2615,10 @@
         <v>120</v>
       </c>
       <c r="N38" t="n">
-        <v>232.9717304996225</v>
+        <v>232.9717304996452</v>
       </c>
       <c r="O38" t="n">
-        <v>5.187221610514621</v>
+        <v>5.187221610514629</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         <v>2824</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9924492814498775</v>
+        <v>0.9924492814499726</v>
       </c>
       <c r="H39" t="n">
-        <v>0.666438282885444</v>
+        <v>0.6664382828855082</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.116327687482149</v>
+        <v>-1.116327687482258</v>
       </c>
       <c r="J39" t="n">
         <v>61</v>
@@ -2672,7 +2672,7 @@
         <v>26</v>
       </c>
       <c r="N39" t="n">
-        <v>59.82310263078774</v>
+        <v>59.82310263079355</v>
       </c>
       <c r="O39" t="n">
         <v>2.459668430674724</v>
@@ -2708,13 +2708,13 @@
         <v>2980</v>
       </c>
       <c r="G40" t="n">
-        <v>1.709046913882787</v>
+        <v>1.70904691388293</v>
       </c>
       <c r="H40" t="n">
-        <v>1.443439328596503</v>
+        <v>1.443439328596643</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.116327687482149</v>
+        <v>-1.116327687482258</v>
       </c>
       <c r="J40" t="n">
         <v>217</v>
@@ -2729,10 +2729,10 @@
         <v>122</v>
       </c>
       <c r="N40" t="n">
-        <v>350.8422980642082</v>
+        <v>350.8422980642425</v>
       </c>
       <c r="O40" t="n">
-        <v>4.235671100973897</v>
+        <v>4.235671100973844</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         <v>905</v>
       </c>
       <c r="G41" t="n">
-        <v>3.080317890177617</v>
+        <v>3.080317890177916</v>
       </c>
       <c r="H41" t="n">
-        <v>2.33992458940996</v>
+        <v>2.339924589410188</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.059203798449994</v>
+        <v>-1.059203798450097</v>
       </c>
       <c r="J41" t="n">
         <v>354</v>
@@ -2786,10 +2786,10 @@
         <v>266</v>
       </c>
       <c r="N41" t="n">
-        <v>382.9407406376534</v>
+        <v>382.9407406376907</v>
       </c>
       <c r="O41" t="n">
-        <v>4.098028201954619</v>
+        <v>4.098028201954618</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -2822,13 +2822,13 @@
         <v>719</v>
       </c>
       <c r="G42" t="n">
-        <v>2.320929868593387</v>
+        <v>2.320929868593613</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8916854476315775</v>
+        <v>0.8916854476316639</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.113963813903372</v>
+        <v>-1.11396381390348</v>
       </c>
       <c r="J42" t="n">
         <v>514</v>
@@ -2843,10 +2843,10 @@
         <v>375</v>
       </c>
       <c r="N42" t="n">
-        <v>152.2557148916307</v>
+        <v>152.2557148916454</v>
       </c>
       <c r="O42" t="n">
-        <v>6.998543573649959</v>
+        <v>6.998543573649975</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -2879,13 +2879,13 @@
         <v>719</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7967995347927792</v>
+        <v>0.7967995347928563</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.2321669123626202</v>
+        <v>-0.2321669123626431</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.113963813903372</v>
+        <v>-1.11396381390348</v>
       </c>
       <c r="J43" t="n">
         <v>280</v>
@@ -2900,10 +2900,10 @@
         <v>242</v>
       </c>
       <c r="N43" t="n">
-        <v>61.40489078759137</v>
+        <v>61.40489078759729</v>
       </c>
       <c r="O43" t="n">
-        <v>2.402673316057978</v>
+        <v>2.402673316057982</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -2936,13 +2936,13 @@
         <v>1001</v>
       </c>
       <c r="G44" t="n">
-        <v>1.378593633617671</v>
+        <v>1.378593633617804</v>
       </c>
       <c r="H44" t="n">
-        <v>0.217096819463383</v>
+        <v>0.2170968194634039</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.113963813903372</v>
+        <v>-1.11396381390348</v>
       </c>
       <c r="J44" t="n">
         <v>282</v>
@@ -2957,10 +2957,10 @@
         <v>174</v>
       </c>
       <c r="N44" t="n">
-        <v>119.5859854807142</v>
+        <v>119.5859854807258</v>
       </c>
       <c r="O44" t="n">
-        <v>4.157018161465175</v>
+        <v>4.157018161465183</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         <v>1359</v>
       </c>
       <c r="G45" t="n">
-        <v>0.897769339035872</v>
+        <v>0.8977693390359591</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9285704025265062</v>
+        <v>0.9285704025265965</v>
       </c>
       <c r="I45" t="n">
-        <v>-1.113963813903372</v>
+        <v>-1.11396381390348</v>
       </c>
       <c r="J45" t="n">
         <v>115</v>
@@ -3014,10 +3014,10 @@
         <v>84</v>
       </c>
       <c r="N45" t="n">
-        <v>163.0277627504938</v>
+        <v>163.0277627505097</v>
       </c>
       <c r="O45" t="n">
-        <v>2.707138170502914</v>
+        <v>2.70713817050292</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -3050,13 +3050,13 @@
         <v>2350</v>
       </c>
       <c r="G46" t="n">
-        <v>1.572391263692949</v>
+        <v>1.572391263693102</v>
       </c>
       <c r="H46" t="n">
-        <v>1.820021806005192</v>
+        <v>1.820021806005369</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.113963813903372</v>
+        <v>-1.11396381390348</v>
       </c>
       <c r="J46" t="n">
         <v>249</v>
@@ -3071,10 +3071,10 @@
         <v>168</v>
       </c>
       <c r="N46" t="n">
-        <v>385.0851062580807</v>
+        <v>385.0851062581182</v>
       </c>
       <c r="O46" t="n">
-        <v>4.741396507793204</v>
+        <v>4.741396507793213</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -3107,13 +3107,13 @@
         <v>2752</v>
       </c>
       <c r="G47" t="n">
-        <v>2.828093345442751</v>
+        <v>2.828093345443025</v>
       </c>
       <c r="H47" t="n">
-        <v>1.867633801624389</v>
+        <v>1.86763380162457</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.113963813903372</v>
+        <v>-1.11396381390348</v>
       </c>
       <c r="J47" t="n">
         <v>402</v>
@@ -3128,10 +3128,10 @@
         <v>301</v>
       </c>
       <c r="N47" t="n">
-        <v>579.7162922688551</v>
+        <v>579.7162922689116</v>
       </c>
       <c r="O47" t="n">
-        <v>8.527846867008503</v>
+        <v>8.52784686700852</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -3164,13 +3164,13 @@
         <v>2752</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9054172875332765</v>
+        <v>0.9054172875333647</v>
       </c>
       <c r="H48" t="n">
-        <v>1.643846235662425</v>
+        <v>1.643846235662585</v>
       </c>
       <c r="I48" t="n">
-        <v>-1.113963813903372</v>
+        <v>-1.11396381390348</v>
       </c>
       <c r="J48" t="n">
         <v>270</v>
@@ -3185,10 +3185,10 @@
         <v>215</v>
       </c>
       <c r="N48" t="n">
-        <v>391.9959958945851</v>
+        <v>391.9959958946234</v>
       </c>
       <c r="O48" t="n">
-        <v>2.730199832784229</v>
+        <v>2.730199832784236</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -3221,13 +3221,13 @@
         <v>2856</v>
       </c>
       <c r="G49" t="n">
-        <v>1.148829071525589</v>
+        <v>1.1488290715257</v>
       </c>
       <c r="H49" t="n">
-        <v>2.023978430980737</v>
+        <v>2.023978430980934</v>
       </c>
       <c r="I49" t="n">
-        <v>-1.113963813903372</v>
+        <v>-1.11396381390348</v>
       </c>
       <c r="J49" t="n">
         <v>104</v>
@@ -3242,10 +3242,10 @@
         <v>30</v>
       </c>
       <c r="N49" t="n">
-        <v>144.053956074264</v>
+        <v>144.053956074278</v>
       </c>
       <c r="O49" t="n">
-        <v>3.464184947828873</v>
+        <v>3.464184947828878</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -3278,19 +3278,19 @@
         <v>2998</v>
       </c>
       <c r="G50" t="n">
-        <v>2.156680980644873</v>
+        <v>2.1566809806451</v>
       </c>
       <c r="H50" t="n">
-        <v>2.33461632891483</v>
+        <v>2.334616328915057</v>
       </c>
       <c r="I50" t="n">
-        <v>-1.113963813903372</v>
+        <v>-1.11396381390348</v>
       </c>
       <c r="J50" t="n">
         <v>246</v>
       </c>
       <c r="K50" t="n">
-        <v>72.28276237669161</v>
+        <v>72.28276237669206</v>
       </c>
       <c r="L50" t="n">
         <v>152</v>
@@ -3299,10 +3299,10 @@
         <v>96</v>
       </c>
       <c r="N50" t="n">
-        <v>488.2342305195864</v>
+        <v>488.2342305196331</v>
       </c>
       <c r="O50" t="n">
-        <v>6.503266652625243</v>
+        <v>6.50326665262531</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -3335,13 +3335,13 @@
         <v>407</v>
       </c>
       <c r="G51" t="n">
-        <v>2.11291482680191</v>
+        <v>2.112914826802115</v>
       </c>
       <c r="H51" t="n">
-        <v>1.321934002169545</v>
+        <v>1.321934002169674</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.009808389080593</v>
+        <v>-1.009808389080692</v>
       </c>
       <c r="J51" t="n">
         <v>377</v>
@@ -3356,10 +3356,10 @@
         <v>320</v>
       </c>
       <c r="N51" t="n">
-        <v>274.4352169058707</v>
+        <v>274.4352169058975</v>
       </c>
       <c r="O51" t="n">
-        <v>6.260064615171484</v>
+        <v>6.260064615171552</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -3392,13 +3392,13 @@
         <v>584</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9075714697291558</v>
+        <v>0.9075714697292434</v>
       </c>
       <c r="H52" t="n">
-        <v>0.285218212573695</v>
+        <v>0.2852182125737224</v>
       </c>
       <c r="I52" t="n">
-        <v>-1.009808389080593</v>
+        <v>-1.009808389080692</v>
       </c>
       <c r="J52" t="n">
         <v>177</v>
@@ -3413,10 +3413,10 @@
         <v>47</v>
       </c>
       <c r="N52" t="n">
-        <v>40.54015696100109</v>
+        <v>40.54015696100507</v>
       </c>
       <c r="O52" t="n">
-        <v>2.68891863094646</v>
+        <v>2.688918630946486</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -3449,13 +3449,13 @@
         <v>781</v>
       </c>
       <c r="G53" t="n">
-        <v>2.355856268483489</v>
+        <v>2.355856268483717</v>
       </c>
       <c r="H53" t="n">
-        <v>1.575094136986664</v>
+        <v>1.575094136986817</v>
       </c>
       <c r="I53" t="n">
-        <v>-1.009808389080593</v>
+        <v>-1.009808389080692</v>
       </c>
       <c r="J53" t="n">
         <v>374</v>
@@ -3470,10 +3470,10 @@
         <v>118</v>
       </c>
       <c r="N53" t="n">
-        <v>235.0311159578865</v>
+        <v>235.0311159579094</v>
       </c>
       <c r="O53" t="n">
-        <v>6.979842385358044</v>
+        <v>6.979842385358118</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -3506,13 +3506,13 @@
         <v>1263</v>
       </c>
       <c r="G54" t="n">
-        <v>2.533115893029099</v>
+        <v>2.533115893029345</v>
       </c>
       <c r="H54" t="n">
-        <v>1.606943149368453</v>
+        <v>1.606943149368609</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.009808389080593</v>
+        <v>-1.009808389080692</v>
       </c>
       <c r="J54" t="n">
         <v>174</v>
@@ -3527,10 +3527,10 @@
         <v>138</v>
       </c>
       <c r="N54" t="n">
-        <v>159.3700709694501</v>
+        <v>159.3700709694657</v>
       </c>
       <c r="O54" t="n">
-        <v>7.505020536999929</v>
+        <v>7.505020537000007</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -3563,19 +3563,19 @@
         <v>1584</v>
       </c>
       <c r="G55" t="n">
-        <v>1.359145240338736</v>
+        <v>1.359145240338868</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5083114917476909</v>
+        <v>0.5083114917477398</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.009808389080593</v>
+        <v>-1.009808389080692</v>
       </c>
       <c r="J55" t="n">
         <v>321</v>
       </c>
       <c r="K55" t="n">
-        <v>53.15903308448196</v>
+        <v>53.15903308448219</v>
       </c>
       <c r="L55" t="n">
         <v>129</v>
@@ -3584,10 +3584,10 @@
         <v>194</v>
       </c>
       <c r="N55" t="n">
-        <v>215.180577185954</v>
+        <v>215.180577185975</v>
       </c>
       <c r="O55" t="n">
-        <v>4.026824421882359</v>
+        <v>4.026824421882401</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -3620,13 +3620,13 @@
         <v>2199</v>
       </c>
       <c r="G56" t="n">
-        <v>1.043313386157708</v>
+        <v>1.043313386157809</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4458577187671141</v>
+        <v>0.4458577187671571</v>
       </c>
       <c r="I56" t="n">
-        <v>-1.009808389080593</v>
+        <v>-1.009808389080692</v>
       </c>
       <c r="J56" t="n">
         <v>248</v>
@@ -3641,10 +3641,10 @@
         <v>150</v>
       </c>
       <c r="N56" t="n">
-        <v>214.35610062957</v>
+        <v>214.3561006295909</v>
       </c>
       <c r="O56" t="n">
-        <v>3.091089677810722</v>
+        <v>3.091089677810754</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -3677,13 +3677,13 @@
         <v>2369</v>
       </c>
       <c r="G57" t="n">
-        <v>1.495133942358831</v>
+        <v>1.495133942358976</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8489402697406166</v>
+        <v>0.8489402697406991</v>
       </c>
       <c r="I57" t="n">
-        <v>-1.009808389080593</v>
+        <v>-1.009808389080692</v>
       </c>
       <c r="J57" t="n">
         <v>418</v>
@@ -3698,10 +3698,10 @@
         <v>135</v>
       </c>
       <c r="N57" t="n">
-        <v>351.8775405038969</v>
+        <v>351.8775405039312</v>
       </c>
       <c r="O57" t="n">
-        <v>4.429726635819498</v>
+        <v>4.429726635819545</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -3734,13 +3734,13 @@
         <v>2998</v>
       </c>
       <c r="G58" t="n">
-        <v>2.220247168470845</v>
+        <v>2.22024716847106</v>
       </c>
       <c r="H58" t="n">
-        <v>2.645849031516551</v>
+        <v>2.645849031516808</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.009808389080593</v>
+        <v>-1.009808389080692</v>
       </c>
       <c r="J58" t="n">
         <v>497</v>
@@ -3755,10 +3755,10 @@
         <v>464</v>
       </c>
       <c r="N58" t="n">
-        <v>466.5663103704827</v>
+        <v>466.5663103705315</v>
       </c>
       <c r="O58" t="n">
-        <v>6.57806484197769</v>
+        <v>6.578064841977757</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -3791,13 +3791,13 @@
         <v>553</v>
       </c>
       <c r="G59" t="n">
-        <v>1.164900696988285</v>
+        <v>1.164900696988398</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3318633765714463</v>
+        <v>0.3318633765714783</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.044004242364306</v>
+        <v>-1.044004242364408</v>
       </c>
       <c r="J59" t="n">
         <v>322</v>
@@ -3812,10 +3812,10 @@
         <v>84</v>
       </c>
       <c r="N59" t="n">
-        <v>125.2139937702388</v>
+        <v>125.213993770251</v>
       </c>
       <c r="O59" t="n">
-        <v>4.865083978392688</v>
+        <v>4.865083978392668</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -3848,13 +3848,13 @@
         <v>794</v>
       </c>
       <c r="G60" t="n">
-        <v>2.892344366815531</v>
+        <v>2.892344366815812</v>
       </c>
       <c r="H60" t="n">
-        <v>1.701295052777977</v>
+        <v>1.701295052778142</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.044004242364306</v>
+        <v>-1.044004242364408</v>
       </c>
       <c r="J60" t="n">
         <v>563</v>
@@ -3869,10 +3869,10 @@
         <v>167</v>
       </c>
       <c r="N60" t="n">
-        <v>377.120531497117</v>
+        <v>377.1205314971538</v>
       </c>
       <c r="O60" t="n">
-        <v>12.07956890691953</v>
+        <v>12.07956890691949</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -3905,13 +3905,13 @@
         <v>1398</v>
       </c>
       <c r="G61" t="n">
-        <v>1.010093564164161</v>
+        <v>1.010093564164259</v>
       </c>
       <c r="H61" t="n">
-        <v>1.064939408933701</v>
+        <v>1.064939408933805</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.044004242364306</v>
+        <v>-1.044004242364408</v>
       </c>
       <c r="J61" t="n">
         <v>62</v>
@@ -3926,10 +3926,10 @@
         <v>34</v>
       </c>
       <c r="N61" t="n">
-        <v>99.7078663429219</v>
+        <v>99.70786634293161</v>
       </c>
       <c r="O61" t="n">
-        <v>4.218548437989342</v>
+        <v>4.218548437989324</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -3962,13 +3962,13 @@
         <v>1815</v>
       </c>
       <c r="G62" t="n">
-        <v>1.337768837219023</v>
+        <v>1.337768837219153</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8853626051234931</v>
+        <v>0.885362605123579</v>
       </c>
       <c r="I62" t="n">
-        <v>-1.044004242364306</v>
+        <v>-1.044004242364408</v>
       </c>
       <c r="J62" t="n">
         <v>143</v>
@@ -3983,10 +3983,10 @@
         <v>110</v>
       </c>
       <c r="N62" t="n">
-        <v>137.371694158852</v>
+        <v>137.3716941588654</v>
       </c>
       <c r="O62" t="n">
-        <v>5.58704939706353</v>
+        <v>5.587049397063508</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -4019,13 +4019,13 @@
         <v>2406</v>
       </c>
       <c r="G63" t="n">
-        <v>2.702510040220389</v>
+        <v>2.702510040220653</v>
       </c>
       <c r="H63" t="n">
-        <v>1.522733916826919</v>
+        <v>1.522733916827067</v>
       </c>
       <c r="I63" t="n">
-        <v>-1.044004242364306</v>
+        <v>-1.044004242364408</v>
       </c>
       <c r="J63" t="n">
         <v>591</v>
@@ -4040,10 +4040,10 @@
         <v>450</v>
       </c>
       <c r="N63" t="n">
-        <v>424.4173055203657</v>
+        <v>424.4173055204071</v>
       </c>
       <c r="O63" t="n">
-        <v>11.28674601372808</v>
+        <v>11.28674601372805</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4076,13 +4076,13 @@
         <v>2708</v>
       </c>
       <c r="G64" t="n">
-        <v>1.579116471515159</v>
+        <v>1.579116471515312</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8581240449262716</v>
+        <v>0.8581240449263545</v>
       </c>
       <c r="I64" t="n">
-        <v>-1.044004242364306</v>
+        <v>-1.044004242364408</v>
       </c>
       <c r="J64" t="n">
         <v>302</v>
@@ -4097,10 +4097,10 @@
         <v>61</v>
       </c>
       <c r="N64" t="n">
-        <v>122.349166265663</v>
+        <v>122.349166265675</v>
       </c>
       <c r="O64" t="n">
-        <v>6.595012146053898</v>
+        <v>6.595012146053871</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -4133,13 +4133,13 @@
         <v>2854</v>
       </c>
       <c r="G65" t="n">
-        <v>2.633034439591496</v>
+        <v>2.633034439591752</v>
       </c>
       <c r="H65" t="n">
-        <v>1.756673922249969</v>
+        <v>1.75667392225014</v>
       </c>
       <c r="I65" t="n">
-        <v>-1.044004242364306</v>
+        <v>-1.044004242364408</v>
       </c>
       <c r="J65" t="n">
         <v>448</v>
@@ -4154,10 +4154,10 @@
         <v>74</v>
       </c>
       <c r="N65" t="n">
-        <v>374.9348404101777</v>
+        <v>374.9348404102142</v>
       </c>
       <c r="O65" t="n">
-        <v>10.9965885501926</v>
+        <v>10.99658855019256</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -4190,19 +4190,19 @@
         <v>179</v>
       </c>
       <c r="G66" t="n">
-        <v>1.365887305850362</v>
+        <v>1.365887305850494</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2815915808343903</v>
+        <v>0.2815915808344172</v>
       </c>
       <c r="I66" t="n">
-        <v>-1.009054484150573</v>
+        <v>-1.009054484150671</v>
       </c>
       <c r="J66" t="n">
         <v>149</v>
       </c>
       <c r="K66" t="n">
-        <v>47.34570754969311</v>
+        <v>47.34570754969312</v>
       </c>
       <c r="L66" t="n">
         <v>39</v>
@@ -4211,10 +4211,10 @@
         <v>112</v>
       </c>
       <c r="N66" t="n">
-        <v>69.18557928778006</v>
+        <v>69.18557928778678</v>
       </c>
       <c r="O66" t="n">
-        <v>4.799899133138922</v>
+        <v>4.799899133139006</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -4247,13 +4247,13 @@
         <v>334</v>
       </c>
       <c r="G67" t="n">
-        <v>1.59784705146613</v>
+        <v>1.597847051466285</v>
       </c>
       <c r="H67" t="n">
-        <v>1.024402479501821</v>
+        <v>1.02440247950192</v>
       </c>
       <c r="I67" t="n">
-        <v>-1.009054484150573</v>
+        <v>-1.009054484150671</v>
       </c>
       <c r="J67" t="n">
         <v>304</v>
@@ -4268,10 +4268,10 @@
         <v>75</v>
       </c>
       <c r="N67" t="n">
-        <v>217.0964586557519</v>
+        <v>217.096458655773</v>
       </c>
       <c r="O67" t="n">
-        <v>5.615034742889018</v>
+        <v>5.615034742889118</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -4304,13 +4304,13 @@
         <v>823</v>
       </c>
       <c r="G68" t="n">
-        <v>1.121329856435544</v>
+        <v>1.121329856435652</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9170479336097851</v>
+        <v>0.9170479336098741</v>
       </c>
       <c r="I68" t="n">
-        <v>-1.009054484150573</v>
+        <v>-1.009054484150671</v>
       </c>
       <c r="J68" t="n">
         <v>397</v>
@@ -4325,10 +4325,10 @@
         <v>362</v>
       </c>
       <c r="N68" t="n">
-        <v>280.1745316063698</v>
+        <v>280.1745316063971</v>
       </c>
       <c r="O68" t="n">
-        <v>3.940493613795548</v>
+        <v>3.940493613795617</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -4361,13 +4361,13 @@
         <v>823</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8642451877743051</v>
+        <v>0.8642451877743891</v>
       </c>
       <c r="H69" t="n">
-        <v>0.04027673239269389</v>
+        <v>0.04027673239269763</v>
       </c>
       <c r="I69" t="n">
-        <v>-1.009054484150573</v>
+        <v>-1.009054484150671</v>
       </c>
       <c r="J69" t="n">
         <v>192</v>
@@ -4382,10 +4382,10 @@
         <v>132</v>
       </c>
       <c r="N69" t="n">
-        <v>85.60629249879412</v>
+        <v>85.60629249880247</v>
       </c>
       <c r="O69" t="n">
-        <v>3.037065876408279</v>
+        <v>3.037065876408334</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
@@ -4418,13 +4418,13 @@
         <v>1199</v>
       </c>
       <c r="G70" t="n">
-        <v>3.445652258527447</v>
+        <v>3.445652258527783</v>
       </c>
       <c r="H70" t="n">
-        <v>2.174764498833366</v>
+        <v>2.174764498833578</v>
       </c>
       <c r="I70" t="n">
-        <v>-1.009054484150573</v>
+        <v>-1.009054484150671</v>
       </c>
       <c r="J70" t="n">
         <v>376</v>
@@ -4439,10 +4439,10 @@
         <v>325</v>
       </c>
       <c r="N70" t="n">
-        <v>540.1043959939298</v>
+        <v>540.1043959939824</v>
       </c>
       <c r="O70" t="n">
-        <v>12.10845376332676</v>
+        <v>12.10845376332698</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -4475,13 +4475,13 @@
         <v>1265</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7827990309155975</v>
+        <v>0.7827990309156734</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.3204281983476424</v>
+        <v>-0.3204281983476741</v>
       </c>
       <c r="I71" t="n">
-        <v>-1.009054484150573</v>
+        <v>-1.009054484150671</v>
       </c>
       <c r="J71" t="n">
         <v>66</v>
@@ -4496,10 +4496,10 @@
         <v>33</v>
       </c>
       <c r="N71" t="n">
-        <v>14.16170924347752</v>
+        <v>14.1617092434789</v>
       </c>
       <c r="O71" t="n">
-        <v>2.750853876319279</v>
+        <v>2.750853876319328</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -4532,13 +4532,13 @@
         <v>2212</v>
       </c>
       <c r="G72" t="n">
-        <v>0.868509601115966</v>
+        <v>0.8685096011160501</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.191986061099514</v>
+        <v>-0.1919860610995331</v>
       </c>
       <c r="I72" t="n">
-        <v>-1.009054484150573</v>
+        <v>-1.009054484150671</v>
       </c>
       <c r="J72" t="n">
         <v>399</v>
@@ -4553,10 +4553,10 @@
         <v>263</v>
       </c>
       <c r="N72" t="n">
-        <v>105.2952703502586</v>
+        <v>105.2952703502689</v>
       </c>
       <c r="O72" t="n">
-        <v>3.052051559205324</v>
+        <v>3.052051559205378</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -4589,13 +4589,13 @@
         <v>2212</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8889854953803875</v>
+        <v>0.8889854953804739</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.2882679183888147</v>
+        <v>-0.288267918388843</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.009054484150573</v>
+        <v>-1.009054484150671</v>
       </c>
       <c r="J73" t="n">
         <v>121</v>
@@ -4610,10 +4610,10 @@
         <v>42</v>
       </c>
       <c r="N73" t="n">
-        <v>49.85464221900236</v>
+        <v>49.85464221900722</v>
       </c>
       <c r="O73" t="n">
-        <v>3.12400641720062</v>
+        <v>3.124006417200677</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -4646,13 +4646,13 @@
         <v>2534</v>
       </c>
       <c r="G74" t="n">
-        <v>2.348553269239207</v>
+        <v>2.348553269239434</v>
       </c>
       <c r="H74" t="n">
-        <v>1.381312329156817</v>
+        <v>1.381312329156951</v>
       </c>
       <c r="I74" t="n">
-        <v>-1.009054484150573</v>
+        <v>-1.009054484150671</v>
       </c>
       <c r="J74" t="n">
         <v>322</v>
@@ -4667,10 +4667,10 @@
         <v>196</v>
       </c>
       <c r="N74" t="n">
-        <v>248.6024669567308</v>
+        <v>248.602466956755</v>
       </c>
       <c r="O74" t="n">
-        <v>8.25311045272049</v>
+        <v>8.253110452720636</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
@@ -4703,13 +4703,13 @@
         <v>2768</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7186250442856376</v>
+        <v>0.7186250442857065</v>
       </c>
       <c r="H75" t="n">
-        <v>1.526389161875862</v>
+        <v>1.52638916187601</v>
       </c>
       <c r="I75" t="n">
-        <v>-1.009054484150573</v>
+        <v>-1.009054484150671</v>
       </c>
       <c r="J75" t="n">
         <v>556</v>
@@ -4724,10 +4724,10 @@
         <v>73</v>
       </c>
       <c r="N75" t="n">
-        <v>589.8637515264611</v>
+        <v>589.8637515265186</v>
       </c>
       <c r="O75" t="n">
-        <v>2.525338446550025</v>
+        <v>2.525338446550067</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -4760,19 +4760,19 @@
         <v>2986</v>
       </c>
       <c r="G76" t="n">
-        <v>0.8238780824084612</v>
+        <v>0.823878082408617</v>
       </c>
       <c r="H76" t="n">
-        <v>1.530081950694067</v>
+        <v>1.530081950694216</v>
       </c>
       <c r="I76" t="n">
-        <v>-1.009054484150573</v>
+        <v>-1.009054484150671</v>
       </c>
       <c r="J76" t="n">
         <v>66</v>
       </c>
       <c r="K76" t="n">
-        <v>18.6628538391742</v>
+        <v>18.66285383917375</v>
       </c>
       <c r="L76" t="n">
         <v>49</v>
@@ -4781,10 +4781,10 @@
         <v>19</v>
       </c>
       <c r="N76" t="n">
-        <v>94.34333437723646</v>
+        <v>94.34333437724442</v>
       </c>
       <c r="O76" t="n">
-        <v>2.895210810310996</v>
+        <v>2.895210810311315</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -4817,13 +4817,13 @@
         <v>275</v>
       </c>
       <c r="G77" t="n">
-        <v>1.013572686251298</v>
+        <v>1.013572686251397</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4954109972679653</v>
+        <v>0.4954109972680133</v>
       </c>
       <c r="I77" t="n">
-        <v>-1.010782082707459</v>
+        <v>-1.010782082707558</v>
       </c>
       <c r="J77" t="n">
         <v>236</v>
@@ -4838,10 +4838,10 @@
         <v>96</v>
       </c>
       <c r="N77" t="n">
-        <v>192.2560454507766</v>
+        <v>192.2560454507953</v>
       </c>
       <c r="O77" t="n">
-        <v>3.220297345114311</v>
+        <v>3.220297345114308</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -4874,13 +4874,13 @@
         <v>384</v>
       </c>
       <c r="G78" t="n">
-        <v>0.8842645486716083</v>
+        <v>0.8842645486716934</v>
       </c>
       <c r="H78" t="n">
-        <v>2.583959954694468</v>
+        <v>2.58395995469472</v>
       </c>
       <c r="I78" t="n">
-        <v>-1.010782082707459</v>
+        <v>-1.010782082707558</v>
       </c>
       <c r="J78" t="n">
         <v>109</v>
@@ -4895,10 +4895,10 @@
         <v>39</v>
       </c>
       <c r="N78" t="n">
-        <v>185.6835550635032</v>
+        <v>185.6835550635213</v>
       </c>
       <c r="O78" t="n">
-        <v>2.809462821060937</v>
+        <v>2.809462821060932</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -4931,13 +4931,13 @@
         <v>2397</v>
       </c>
       <c r="G79" t="n">
-        <v>1.553910388762574</v>
+        <v>1.553910388762725</v>
       </c>
       <c r="H79" t="n">
-        <v>0.7388983173531957</v>
+        <v>0.7388983173532673</v>
       </c>
       <c r="I79" t="n">
-        <v>-1.010782082707459</v>
+        <v>-1.010782082707558</v>
       </c>
       <c r="J79" t="n">
         <v>423</v>
@@ -4952,10 +4952,10 @@
         <v>339</v>
       </c>
       <c r="N79" t="n">
-        <v>399.232331326489</v>
+        <v>399.2323313265279</v>
       </c>
       <c r="O79" t="n">
-        <v>4.937044542888355</v>
+        <v>4.937044542888352</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -4988,13 +4988,13 @@
         <v>2397</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7570791046476972</v>
+        <v>0.7570791046477707</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3684802129873946</v>
+        <v>0.3684802129874304</v>
       </c>
       <c r="I80" t="n">
-        <v>-1.010782082707459</v>
+        <v>-1.010782082707558</v>
       </c>
       <c r="J80" t="n">
         <v>267</v>
@@ -5009,10 +5009,10 @@
         <v>141</v>
       </c>
       <c r="N80" t="n">
-        <v>245.9401303792067</v>
+        <v>245.9401303792307</v>
       </c>
       <c r="O80" t="n">
-        <v>2.405372464954164</v>
+        <v>2.405372464954162</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -5045,13 +5045,13 @@
         <v>2850</v>
       </c>
       <c r="G81" t="n">
-        <v>2.38202421023421</v>
+        <v>2.38202421023444</v>
       </c>
       <c r="H81" t="n">
-        <v>2.256872332088448</v>
+        <v>2.256872332088667</v>
       </c>
       <c r="I81" t="n">
-        <v>-1.002392905945863</v>
+        <v>-1.002392905945961</v>
       </c>
       <c r="J81" t="n">
         <v>227</v>
@@ -5066,10 +5066,10 @@
         <v>191</v>
       </c>
       <c r="N81" t="n">
-        <v>350.7094448685983</v>
+        <v>350.7094448686325</v>
       </c>
       <c r="O81" t="n">
-        <v>5.662003989837839</v>
+        <v>5.662003989837835</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -5102,13 +5102,13 @@
         <v>1535</v>
       </c>
       <c r="G82" t="n">
-        <v>2.011919007951761</v>
+        <v>2.011919007951956</v>
       </c>
       <c r="H82" t="n">
-        <v>1.008746363550953</v>
+        <v>1.008746363551051</v>
       </c>
       <c r="I82" t="n">
-        <v>-1.492233108006843</v>
+        <v>-1.492233108006987</v>
       </c>
       <c r="J82" t="n">
         <v>597</v>
@@ -5123,10 +5123,10 @@
         <v>199</v>
       </c>
       <c r="N82" t="n">
-        <v>408.2952361560442</v>
+        <v>408.2952361560835</v>
       </c>
       <c r="O82" t="n">
-        <v>2.605140055741693</v>
+        <v>2.605140055741692</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -5159,13 +5159,13 @@
         <v>2296</v>
       </c>
       <c r="G83" t="n">
-        <v>2.680994429305903</v>
+        <v>2.680994429306162</v>
       </c>
       <c r="H83" t="n">
-        <v>1.18996308381782</v>
+        <v>1.189963083817935</v>
       </c>
       <c r="I83" t="n">
-        <v>-1.492233108006843</v>
+        <v>-1.492233108006987</v>
       </c>
       <c r="J83" t="n">
         <v>235</v>
@@ -5180,10 +5180,10 @@
         <v>199</v>
       </c>
       <c r="N83" t="n">
-        <v>245.8872622437941</v>
+        <v>245.8872622438179</v>
       </c>
       <c r="O83" t="n">
-        <v>3.471494602616037</v>
+        <v>3.471494602616034</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -5216,13 +5216,13 @@
         <v>2452</v>
       </c>
       <c r="G84" t="n">
-        <v>2.383081247527844</v>
+        <v>2.383081247528075</v>
       </c>
       <c r="H84" t="n">
-        <v>1.186102650506278</v>
+        <v>1.186102650506393</v>
       </c>
       <c r="I84" t="n">
-        <v>-1.492233108006843</v>
+        <v>-1.492233108006987</v>
       </c>
       <c r="J84" t="n">
         <v>156</v>
@@ -5237,10 +5237,10 @@
         <v>77</v>
       </c>
       <c r="N84" t="n">
-        <v>211.88959759707</v>
+        <v>211.8895975970906</v>
       </c>
       <c r="O84" t="n">
-        <v>3.085740722904153</v>
+        <v>3.085740722904151</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -5273,13 +5273,13 @@
         <v>861</v>
       </c>
       <c r="G85" t="n">
-        <v>2.626717275328607</v>
+        <v>2.626717275328863</v>
       </c>
       <c r="H85" t="n">
-        <v>1.843872689069677</v>
+        <v>1.843872689069857</v>
       </c>
       <c r="I85" t="n">
-        <v>-1.292797579322291</v>
+        <v>-1.292797579322418</v>
       </c>
       <c r="J85" t="n">
         <v>521</v>
@@ -5294,10 +5294,10 @@
         <v>352</v>
       </c>
       <c r="N85" t="n">
-        <v>666.1316787088896</v>
+        <v>666.1316787089547</v>
       </c>
       <c r="O85" t="n">
-        <v>3.823961085411789</v>
+        <v>3.823961085411788</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -5330,13 +5330,13 @@
         <v>1123</v>
       </c>
       <c r="G86" t="n">
-        <v>1.692709486139632</v>
+        <v>1.692709486139796</v>
       </c>
       <c r="H86" t="n">
-        <v>1.075201894509597</v>
+        <v>1.075201894509701</v>
       </c>
       <c r="I86" t="n">
-        <v>-1.292797579322291</v>
+        <v>-1.292797579322418</v>
       </c>
       <c r="J86" t="n">
         <v>262</v>
@@ -5351,10 +5351,10 @@
         <v>38</v>
       </c>
       <c r="N86" t="n">
-        <v>116.5829427913934</v>
+        <v>116.5829427914048</v>
       </c>
       <c r="O86" t="n">
-        <v>2.464237497008723</v>
+        <v>2.464237497008722</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -5387,13 +5387,13 @@
         <v>1357</v>
       </c>
       <c r="G87" t="n">
-        <v>1.954199794850453</v>
+        <v>1.954199794850642</v>
       </c>
       <c r="H87" t="n">
-        <v>1.283258965478203</v>
+        <v>1.283258965478328</v>
       </c>
       <c r="I87" t="n">
-        <v>-1.292797579322291</v>
+        <v>-1.292797579322418</v>
       </c>
       <c r="J87" t="n">
         <v>496</v>
@@ -5408,10 +5408,10 @@
         <v>72</v>
       </c>
       <c r="N87" t="n">
-        <v>452.2257526192963</v>
+        <v>452.2257526193405</v>
       </c>
       <c r="O87" t="n">
-        <v>2.84491370229138</v>
+        <v>2.844913702291378</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -5444,13 +5444,13 @@
         <v>2835</v>
       </c>
       <c r="G88" t="n">
-        <v>2.431131623590021</v>
+        <v>2.431131623590257</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7365757721295623</v>
+        <v>0.7365757721296338</v>
       </c>
       <c r="I88" t="n">
-        <v>-1.292797579322291</v>
+        <v>-1.292797579322418</v>
       </c>
       <c r="J88" t="n">
         <v>379</v>
@@ -5465,7 +5465,7 @@
         <v>189</v>
       </c>
       <c r="N88" t="n">
-        <v>259.5331180389463</v>
+        <v>259.5331180389717</v>
       </c>
       <c r="O88" t="n">
         <v>3.539228530394161</v>
@@ -5501,13 +5501,13 @@
         <v>989</v>
       </c>
       <c r="G89" t="n">
-        <v>1.69665243791758</v>
+        <v>1.696652437917745</v>
       </c>
       <c r="H89" t="n">
-        <v>1.854018154376421</v>
+        <v>1.854018154376601</v>
       </c>
       <c r="I89" t="n">
-        <v>-1.342918973551416</v>
+        <v>-1.342918973551547</v>
       </c>
       <c r="J89" t="n">
         <v>449</v>
@@ -5522,10 +5522,10 @@
         <v>413</v>
       </c>
       <c r="N89" t="n">
-        <v>578.0333137623519</v>
+        <v>578.0333137624083</v>
       </c>
       <c r="O89" t="n">
-        <v>3.547267302722922</v>
+        <v>3.547267302722931</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -5558,13 +5558,13 @@
         <v>989</v>
       </c>
       <c r="G90" t="n">
-        <v>1.683079770071076</v>
+        <v>1.683079770071239</v>
       </c>
       <c r="H90" t="n">
-        <v>1.455073794014746</v>
+        <v>1.455073794014888</v>
       </c>
       <c r="I90" t="n">
-        <v>-1.342918973551416</v>
+        <v>-1.342918973551547</v>
       </c>
       <c r="J90" t="n">
         <v>258</v>
@@ -5579,10 +5579,10 @@
         <v>225</v>
       </c>
       <c r="N90" t="n">
-        <v>157.875893079013</v>
+        <v>157.8758930790284</v>
       </c>
       <c r="O90" t="n">
-        <v>3.518890317674814</v>
+        <v>3.518890317674823</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -5615,13 +5615,13 @@
         <v>1973</v>
       </c>
       <c r="G91" t="n">
-        <v>1.497054451968988</v>
+        <v>1.497054451969134</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8063158712635818</v>
+        <v>0.80631587126366</v>
       </c>
       <c r="I91" t="n">
-        <v>-1.342918973551416</v>
+        <v>-1.342918973551547</v>
       </c>
       <c r="J91" t="n">
         <v>522</v>
@@ -5636,10 +5636,10 @@
         <v>464</v>
       </c>
       <c r="N91" t="n">
-        <v>660.8679226980336</v>
+        <v>660.8679226980979</v>
       </c>
       <c r="O91" t="n">
-        <v>3.129958846717753</v>
+        <v>3.129958846717762</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
@@ -5672,13 +5672,13 @@
         <v>2187</v>
       </c>
       <c r="G92" t="n">
-        <v>1.449522775203977</v>
+        <v>1.449522775204117</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8018749389666493</v>
+        <v>0.8018749389667268</v>
       </c>
       <c r="I92" t="n">
-        <v>-1.342918973551416</v>
+        <v>-1.342918973551547</v>
       </c>
       <c r="J92" t="n">
         <v>214</v>
@@ -5693,10 +5693,10 @@
         <v>100</v>
       </c>
       <c r="N92" t="n">
-        <v>230.0526761116092</v>
+        <v>230.0526761116316</v>
       </c>
       <c r="O92" t="n">
-        <v>3.030582239544712</v>
+        <v>3.03058223954472</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -5729,13 +5729,13 @@
         <v>2395</v>
       </c>
       <c r="G93" t="n">
-        <v>1.530836086114159</v>
+        <v>1.530836086114307</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9083214779693642</v>
+        <v>0.9083214779694521</v>
       </c>
       <c r="I93" t="n">
-        <v>-1.342918973551416</v>
+        <v>-1.342918973551547</v>
       </c>
       <c r="J93" t="n">
         <v>422</v>
@@ -5750,10 +5750,10 @@
         <v>68</v>
       </c>
       <c r="N93" t="n">
-        <v>501.5068885795515</v>
+        <v>501.5068885796004</v>
       </c>
       <c r="O93" t="n">
-        <v>3.200587623453425</v>
+        <v>3.200587623453433</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
@@ -5786,13 +5786,13 @@
         <v>2880</v>
       </c>
       <c r="G94" t="n">
-        <v>1.865479628728741</v>
+        <v>1.865479628728921</v>
       </c>
       <c r="H94" t="n">
-        <v>1.528597048162693</v>
+        <v>1.528597048162841</v>
       </c>
       <c r="I94" t="n">
-        <v>-1.342918973551416</v>
+        <v>-1.342918973551547</v>
       </c>
       <c r="J94" t="n">
         <v>292</v>
@@ -5807,10 +5807,10 @@
         <v>258</v>
       </c>
       <c r="N94" t="n">
-        <v>365.2443094989487</v>
+        <v>365.2443094989843</v>
       </c>
       <c r="O94" t="n">
-        <v>3.900241878063782</v>
+        <v>3.900241878063792</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -5843,13 +5843,13 @@
         <v>863</v>
       </c>
       <c r="G95" t="n">
-        <v>2.88047073219221</v>
+        <v>2.88047073219249</v>
       </c>
       <c r="H95" t="n">
-        <v>1.763083608031459</v>
+        <v>1.763083608031631</v>
       </c>
       <c r="I95" t="n">
-        <v>-1.285654631335308</v>
+        <v>-1.285654631335433</v>
       </c>
       <c r="J95" t="n">
         <v>522</v>
@@ -5864,10 +5864,10 @@
         <v>346</v>
       </c>
       <c r="N95" t="n">
-        <v>665.8265908648763</v>
+        <v>665.8265908649411</v>
       </c>
       <c r="O95" t="n">
-        <v>5.937029145610931</v>
+        <v>5.937029145610923</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -5900,13 +5900,13 @@
         <v>1971</v>
       </c>
       <c r="G96" t="n">
-        <v>1.295084360475319</v>
+        <v>1.295084360475444</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8368159261344343</v>
+        <v>0.8368159261345152</v>
       </c>
       <c r="I96" t="n">
-        <v>-1.285654631335308</v>
+        <v>-1.285654631335433</v>
       </c>
       <c r="J96" t="n">
         <v>505</v>
@@ -5921,10 +5921,10 @@
         <v>469</v>
       </c>
       <c r="N96" t="n">
-        <v>305.9090836036913</v>
+        <v>305.9090836037209</v>
       </c>
       <c r="O96" t="n">
-        <v>2.669339253558431</v>
+        <v>2.669339253558426</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
@@ -5957,13 +5957,13 @@
         <v>2453</v>
       </c>
       <c r="G97" t="n">
-        <v>3.648726527211157</v>
+        <v>3.648726527211512</v>
       </c>
       <c r="H97" t="n">
-        <v>1.676215769735437</v>
+        <v>1.6762157697356</v>
       </c>
       <c r="I97" t="n">
-        <v>-1.285654631335308</v>
+        <v>-1.285654631335433</v>
       </c>
       <c r="J97" t="n">
         <v>482</v>
@@ -5978,10 +5978,10 @@
         <v>362</v>
       </c>
       <c r="N97" t="n">
-        <v>548.4270810600412</v>
+        <v>548.4270810600947</v>
       </c>
       <c r="O97" t="n">
-        <v>7.520505414033445</v>
+        <v>7.520505414033436</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
@@ -6014,13 +6014,13 @@
         <v>2453</v>
       </c>
       <c r="G98" t="n">
-        <v>1.602104778528652</v>
+        <v>1.602104778528807</v>
       </c>
       <c r="H98" t="n">
-        <v>1.009284414487883</v>
+        <v>1.009284414487981</v>
       </c>
       <c r="I98" t="n">
-        <v>-1.285654631335308</v>
+        <v>-1.285654631335433</v>
       </c>
       <c r="J98" t="n">
         <v>250</v>
@@ -6035,10 +6035,10 @@
         <v>221</v>
       </c>
       <c r="N98" t="n">
-        <v>281.985843473462</v>
+        <v>281.9858434734894</v>
       </c>
       <c r="O98" t="n">
-        <v>3.302148728033821</v>
+        <v>3.302148728033815</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -6071,13 +6071,13 @@
         <v>2836</v>
       </c>
       <c r="G99" t="n">
-        <v>3.551517755655319</v>
+        <v>3.551517755655664</v>
       </c>
       <c r="H99" t="n">
-        <v>1.89124526687804</v>
+        <v>1.891245266878224</v>
       </c>
       <c r="I99" t="n">
-        <v>-1.285654631335308</v>
+        <v>-1.285654631335433</v>
       </c>
       <c r="J99" t="n">
         <v>383</v>
@@ -6092,10 +6092,10 @@
         <v>236</v>
       </c>
       <c r="N99" t="n">
-        <v>478.2047210061289</v>
+        <v>478.2047210061754</v>
       </c>
       <c r="O99" t="n">
-        <v>7.320145346671534</v>
+        <v>7.320145346671524</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -6128,13 +6128,13 @@
         <v>305</v>
       </c>
       <c r="G100" t="n">
-        <v>1.168959429959276</v>
+        <v>1.168959429959389</v>
       </c>
       <c r="H100" t="n">
-        <v>0.6761414412604401</v>
+        <v>0.6761414412605057</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.8711034991625316</v>
+        <v>-0.871103499162616</v>
       </c>
       <c r="J100" t="n">
         <v>265</v>
@@ -6149,10 +6149,10 @@
         <v>213</v>
       </c>
       <c r="N100" t="n">
-        <v>173.0147576973554</v>
+        <v>173.0147576973721</v>
       </c>
       <c r="O100" t="n">
-        <v>4.543865397196275</v>
+        <v>4.543865397196273</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -6185,19 +6185,19 @@
         <v>385</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9827133061834634</v>
+        <v>0.9827133061835582</v>
       </c>
       <c r="H101" t="n">
-        <v>2.047222042549475</v>
+        <v>2.047222042549674</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.8711034991625316</v>
+        <v>-0.871103499162616</v>
       </c>
       <c r="J101" t="n">
         <v>80</v>
       </c>
       <c r="K101" t="n">
-        <v>21.10727179658642</v>
+        <v>21.10727179658636</v>
       </c>
       <c r="L101" t="n">
         <v>39</v>
@@ -6206,10 +6206,10 @@
         <v>43</v>
       </c>
       <c r="N101" t="n">
-        <v>146.7559370601072</v>
+        <v>146.7559370601215</v>
       </c>
       <c r="O101" t="n">
-        <v>3.819907580100492</v>
+        <v>3.819907580100488</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -6242,13 +6242,13 @@
         <v>659</v>
       </c>
       <c r="G102" t="n">
-        <v>2.702352085243914</v>
+        <v>2.702352085244177</v>
       </c>
       <c r="H102" t="n">
-        <v>2.221040223640586</v>
+        <v>2.221040223640803</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.8711034991625316</v>
+        <v>-0.871103499162616</v>
       </c>
       <c r="J102" t="n">
         <v>354</v>
@@ -6263,7 +6263,7 @@
         <v>241</v>
       </c>
       <c r="N102" t="n">
-        <v>656.8151525338964</v>
+        <v>656.8151525339601</v>
       </c>
       <c r="O102" t="n">
         <v>10.50432018124769</v>
@@ -6299,13 +6299,13 @@
         <v>659</v>
       </c>
       <c r="G103" t="n">
-        <v>1.181888102013127</v>
+        <v>1.181888102013241</v>
       </c>
       <c r="H103" t="n">
-        <v>1.707814406788915</v>
+        <v>1.707814406789081</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.8711034991625316</v>
+        <v>-0.871103499162616</v>
       </c>
       <c r="J103" t="n">
         <v>145</v>
@@ -6320,10 +6320,10 @@
         <v>111</v>
       </c>
       <c r="N103" t="n">
-        <v>227.440084791013</v>
+        <v>227.4400847910351</v>
       </c>
       <c r="O103" t="n">
-        <v>4.594120473695586</v>
+        <v>4.594120473695583</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -6356,13 +6356,13 @@
         <v>1127</v>
       </c>
       <c r="G104" t="n">
-        <v>0.977064261030511</v>
+        <v>0.9770642610306057</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3723921457818676</v>
+        <v>0.3723921457819037</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.8711034991625316</v>
+        <v>-0.871103499162616</v>
       </c>
       <c r="J104" t="n">
         <v>205</v>
@@ -6377,10 +6377,10 @@
         <v>123</v>
       </c>
       <c r="N104" t="n">
-        <v>79.32176515487927</v>
+        <v>79.3217651548869</v>
       </c>
       <c r="O104" t="n">
-        <v>3.797949161236808</v>
+        <v>3.797949161236805</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -6413,13 +6413,13 @@
         <v>1782</v>
       </c>
       <c r="G105" t="n">
-        <v>0.640527690056398</v>
+        <v>0.6405276900564598</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2045642789437536</v>
+        <v>0.2045642789437734</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.8711034991625316</v>
+        <v>-0.871103499162616</v>
       </c>
       <c r="J105" t="n">
         <v>211</v>
@@ -6434,10 +6434,10 @@
         <v>101</v>
       </c>
       <c r="N105" t="n">
-        <v>130.4321844789859</v>
+        <v>130.4321844789985</v>
       </c>
       <c r="O105" t="n">
-        <v>2.489796935805311</v>
+        <v>2.489796935805308</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
@@ -6470,13 +6470,13 @@
         <v>1844</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7505857532557321</v>
+        <v>0.7505857532558047</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3259466595071958</v>
+        <v>0.3259466595072272</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.8711034991625316</v>
+        <v>-0.871103499162616</v>
       </c>
       <c r="J106" t="n">
         <v>273</v>
@@ -6491,10 +6491,10 @@
         <v>31</v>
       </c>
       <c r="N106" t="n">
-        <v>181.7684068761144</v>
+        <v>181.768406876132</v>
       </c>
       <c r="O106" t="n">
-        <v>2.917603934266598</v>
+        <v>2.917603934266595</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
@@ -6527,13 +6527,13 @@
         <v>1985</v>
       </c>
       <c r="G107" t="n">
-        <v>1.335538673193257</v>
+        <v>1.335538673193387</v>
       </c>
       <c r="H107" t="n">
-        <v>0.4178157559205178</v>
+        <v>0.4178157559205583</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.8711034991625316</v>
+        <v>-0.871103499162616</v>
       </c>
       <c r="J107" t="n">
         <v>414</v>
@@ -6548,10 +6548,10 @@
         <v>111</v>
       </c>
       <c r="N107" t="n">
-        <v>232.8828331934717</v>
+        <v>232.8828331934942</v>
       </c>
       <c r="O107" t="n">
-        <v>5.191376029150713</v>
+        <v>5.19137602915071</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -6584,13 +6584,13 @@
         <v>2205</v>
       </c>
       <c r="G108" t="n">
-        <v>1.423937691090226</v>
+        <v>1.423937691090364</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5272581484933077</v>
+        <v>0.5272581484933587</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.8711034991625316</v>
+        <v>-0.871103499162616</v>
       </c>
       <c r="J108" t="n">
         <v>220</v>
@@ -6605,10 +6605,10 @@
         <v>166</v>
       </c>
       <c r="N108" t="n">
-        <v>134.1952117858621</v>
+        <v>134.1952117858751</v>
       </c>
       <c r="O108" t="n">
-        <v>5.534992093381585</v>
+        <v>5.534992093381582</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -6641,13 +6641,13 @@
         <v>2205</v>
       </c>
       <c r="G109" t="n">
-        <v>0.8208508097618507</v>
+        <v>0.8208508097619297</v>
       </c>
       <c r="H109" t="n">
-        <v>0.462408372452718</v>
+        <v>0.4624083724527628</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.8711034991625316</v>
+        <v>-0.871103499162616</v>
       </c>
       <c r="J109" t="n">
         <v>145</v>
@@ -6662,10 +6662,10 @@
         <v>118</v>
       </c>
       <c r="N109" t="n">
-        <v>80.90347413439426</v>
+        <v>80.90347413440206</v>
       </c>
       <c r="O109" t="n">
-        <v>3.190731427580302</v>
+        <v>3.190731427580298</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -6698,13 +6698,13 @@
         <v>2746</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8649328882588431</v>
+        <v>0.8649328882589272</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.007710753016025277</v>
+        <v>-0.007710753016026207</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.8711034991625316</v>
+        <v>-0.871103499162616</v>
       </c>
       <c r="J110" t="n">
         <v>541</v>
@@ -6719,10 +6719,10 @@
         <v>195</v>
       </c>
       <c r="N110" t="n">
-        <v>222.7318179632064</v>
+        <v>222.7318179632279</v>
       </c>
       <c r="O110" t="n">
-        <v>3.362082995466582</v>
+        <v>3.362082995466581</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
@@ -6755,19 +6755,19 @@
         <v>405</v>
       </c>
       <c r="G111" t="n">
-        <v>1.739436368774757</v>
+        <v>1.739436368774926</v>
       </c>
       <c r="H111" t="n">
-        <v>1.278353907533196</v>
+        <v>1.278353907533321</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.8438504444195996</v>
+        <v>-0.8438504444196819</v>
       </c>
       <c r="J111" t="n">
         <v>321</v>
       </c>
       <c r="K111" t="n">
-        <v>50.35470597550579</v>
+        <v>50.35470597550577</v>
       </c>
       <c r="L111" t="n">
         <v>121</v>
@@ -6776,10 +6776,10 @@
         <v>202</v>
       </c>
       <c r="N111" t="n">
-        <v>247.1372997713417</v>
+        <v>247.1372997713658</v>
       </c>
       <c r="O111" t="n">
-        <v>11.55193428929164</v>
+        <v>11.55193428929159</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -6812,13 +6812,13 @@
         <v>405</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5300410880214218</v>
+        <v>0.5300410880214731</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1695349895434737</v>
+        <v>0.16953498954349</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.8438504444195996</v>
+        <v>-0.8438504444196819</v>
       </c>
       <c r="J112" t="n">
         <v>139</v>
@@ -6833,10 +6833,10 @@
         <v>98</v>
       </c>
       <c r="N112" t="n">
-        <v>104.6231698224824</v>
+        <v>104.6231698224926</v>
       </c>
       <c r="O112" t="n">
-        <v>3.520105667194424</v>
+        <v>3.520105667194406</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
@@ -6869,13 +6869,13 @@
         <v>625</v>
       </c>
       <c r="G113" t="n">
-        <v>1.903766085329353</v>
+        <v>1.903766085329538</v>
       </c>
       <c r="H113" t="n">
-        <v>1.636062082955677</v>
+        <v>1.636062082955837</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.8438504444195996</v>
+        <v>-0.8438504444196819</v>
       </c>
       <c r="J113" t="n">
         <v>541</v>
@@ -6890,10 +6890,10 @@
         <v>186</v>
       </c>
       <c r="N113" t="n">
-        <v>520.5667542426021</v>
+        <v>520.5667542426529</v>
       </c>
       <c r="O113" t="n">
-        <v>12.64327980873354</v>
+        <v>12.64327980873348</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -6926,13 +6926,13 @@
         <v>902</v>
       </c>
       <c r="G114" t="n">
-        <v>1.340788706740061</v>
+        <v>1.34078870674019</v>
       </c>
       <c r="H114" t="n">
-        <v>2.290610432204204</v>
+        <v>2.290610432204427</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.8438504444195996</v>
+        <v>-0.8438504444196819</v>
       </c>
       <c r="J114" t="n">
         <v>77</v>
@@ -6947,10 +6947,10 @@
         <v>40</v>
       </c>
       <c r="N114" t="n">
-        <v>176.7063837691398</v>
+        <v>176.706383769157</v>
       </c>
       <c r="O114" t="n">
-        <v>8.904437847873448</v>
+        <v>8.9044378478734</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -6983,13 +6983,13 @@
         <v>2128</v>
       </c>
       <c r="G115" t="n">
-        <v>0.3676688329214743</v>
+        <v>0.3676688329215101</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.4356059799482184</v>
+        <v>-0.4356059799482609</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.8438504444195996</v>
+        <v>-0.8438504444196819</v>
       </c>
       <c r="J115" t="n">
         <v>158</v>
@@ -7004,10 +7004,10 @@
         <v>62</v>
       </c>
       <c r="N115" t="n">
-        <v>11.14703721088526</v>
+        <v>11.14703721088637</v>
       </c>
       <c r="O115" t="n">
-        <v>2.441760028923143</v>
+        <v>2.441760028923133</v>
       </c>
       <c r="P115" t="inlineStr">
         <is>
@@ -7040,13 +7040,13 @@
         <v>2733</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5412542885501348</v>
+        <v>0.5412542885501874</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.3373049035671594</v>
+        <v>-0.3373049035671924</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.8438504444195996</v>
+        <v>-0.8438504444196819</v>
       </c>
       <c r="J116" t="n">
         <v>216</v>
@@ -7061,10 +7061,10 @@
         <v>99</v>
       </c>
       <c r="N116" t="n">
-        <v>47.92005123460044</v>
+        <v>47.92005123460514</v>
       </c>
       <c r="O116" t="n">
-        <v>3.594574706709555</v>
+        <v>3.594574706709538</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
@@ -7097,19 +7097,19 @@
         <v>268</v>
       </c>
       <c r="G117" t="n">
-        <v>1.136305495139955</v>
+        <v>1.136305495140038</v>
       </c>
       <c r="H117" t="n">
-        <v>0.853430057331477</v>
+        <v>0.8534300573315599</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.9545181182153297</v>
+        <v>-0.9545181182153497</v>
       </c>
       <c r="J117" t="n">
         <v>268</v>
       </c>
       <c r="K117" t="n">
-        <v>85.31112255295076</v>
+        <v>85.31112255294977</v>
       </c>
       <c r="L117" t="n">
         <v>99</v>
@@ -7118,10 +7118,10 @@
         <v>171</v>
       </c>
       <c r="N117" t="n">
-        <v>265.0647631260181</v>
+        <v>265.0647631260244</v>
       </c>
       <c r="O117" t="n">
-        <v>3.569878906506419</v>
+        <v>3.569878906506343</v>
       </c>
       <c r="P117" t="inlineStr">
         <is>
@@ -7154,13 +7154,13 @@
         <v>534</v>
       </c>
       <c r="G118" t="n">
-        <v>0.7930923457472601</v>
+        <v>0.7930923457473368</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.1576468428468114</v>
+        <v>-0.1576468428468271</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.9545181182153297</v>
+        <v>-0.9545181182153497</v>
       </c>
       <c r="J118" t="n">
         <v>266</v>
@@ -7175,10 +7175,10 @@
         <v>25</v>
       </c>
       <c r="N118" t="n">
-        <v>74.74559302219211</v>
+        <v>74.74559302217997</v>
       </c>
       <c r="O118" t="n">
-        <v>2.491621881707195</v>
+        <v>2.4916218817072</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -7211,13 +7211,13 @@
         <v>719</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8979874577879614</v>
+        <v>0.8979874577880483</v>
       </c>
       <c r="H119" t="n">
-        <v>0.1497016701948671</v>
+        <v>0.1497016701948813</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.9545181182153297</v>
+        <v>-0.9545181182153497</v>
       </c>
       <c r="J119" t="n">
         <v>451</v>
@@ -7232,10 +7232,10 @@
         <v>37</v>
       </c>
       <c r="N119" t="n">
-        <v>159.0704000903989</v>
+        <v>159.0704000903814</v>
       </c>
       <c r="O119" t="n">
-        <v>2.821166048721547</v>
+        <v>2.821166048721553</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
@@ -7268,13 +7268,13 @@
         <v>1012</v>
       </c>
       <c r="G120" t="n">
-        <v>1.219447810979752</v>
+        <v>1.219447810979869</v>
       </c>
       <c r="H120" t="n">
-        <v>1.031330727441617</v>
+        <v>1.031330727441717</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.9545181182153297</v>
+        <v>-0.9545181182153497</v>
       </c>
       <c r="J120" t="n">
         <v>73</v>
@@ -7289,10 +7289,10 @@
         <v>27</v>
       </c>
       <c r="N120" t="n">
-        <v>97.39949040423953</v>
+        <v>97.39949040424371</v>
       </c>
       <c r="O120" t="n">
-        <v>3.831083310448889</v>
+        <v>3.831083310448897</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
@@ -7325,13 +7325,13 @@
         <v>2133</v>
       </c>
       <c r="G121" t="n">
-        <v>0.9570596399436818</v>
+        <v>0.9570596399437745</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.01077883961649252</v>
+        <v>-0.01077883961649378</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.9545181182153297</v>
+        <v>-0.9545181182153497</v>
       </c>
       <c r="J121" t="n">
         <v>221</v>
@@ -7346,10 +7346,10 @@
         <v>101</v>
       </c>
       <c r="N121" t="n">
-        <v>80.80445173731724</v>
+        <v>80.80445173730897</v>
       </c>
       <c r="O121" t="n">
-        <v>3.006750416605852</v>
+        <v>3.006750416605859</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
@@ -7382,13 +7382,13 @@
         <v>2360</v>
       </c>
       <c r="G122" t="n">
-        <v>0.9455407463325198</v>
+        <v>0.9455407463326116</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.1904600168617782</v>
+        <v>-0.1904600168617971</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.9545181182153297</v>
+        <v>-0.9545181182153497</v>
       </c>
       <c r="J122" t="n">
         <v>227</v>
@@ -7403,10 +7403,10 @@
         <v>148</v>
       </c>
       <c r="N122" t="n">
-        <v>73.25781795351517</v>
+        <v>73.25781795350571</v>
       </c>
       <c r="O122" t="n">
-        <v>2.970562036364222</v>
+        <v>2.97056203636423</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -7439,19 +7439,19 @@
         <v>2987</v>
       </c>
       <c r="G123" t="n">
-        <v>2.182415205412359</v>
+        <v>2.182415205412476</v>
       </c>
       <c r="H123" t="n">
-        <v>1.198221469118591</v>
+        <v>1.198221469118707</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.9545181182153297</v>
+        <v>-0.9545181182153497</v>
       </c>
       <c r="J123" t="n">
         <v>244</v>
       </c>
       <c r="K123" t="n">
-        <v>33.30788382374385</v>
+        <v>33.30788382374203</v>
       </c>
       <c r="L123" t="n">
         <v>74</v>
@@ -7460,10 +7460,10 @@
         <v>172</v>
       </c>
       <c r="N123" t="n">
-        <v>129.6078291603391</v>
+        <v>129.6078291603351</v>
       </c>
       <c r="O123" t="n">
-        <v>6.856393848628593</v>
+        <v>6.856393848628314</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
@@ -7496,19 +7496,19 @@
         <v>171</v>
       </c>
       <c r="G124" t="n">
-        <v>2.134086920193052</v>
+        <v>2.134086920193258</v>
       </c>
       <c r="H124" t="n">
-        <v>2.257317875892787</v>
+        <v>2.257317875893006</v>
       </c>
       <c r="I124" t="n">
-        <v>-1.091578099434421</v>
+        <v>-1.091578099434527</v>
       </c>
       <c r="J124" t="n">
         <v>171</v>
       </c>
       <c r="K124" t="n">
-        <v>45.13693522741532</v>
+        <v>45.13693522741416</v>
       </c>
       <c r="L124" t="n">
         <v>36</v>
@@ -7517,10 +7517,10 @@
         <v>137</v>
       </c>
       <c r="N124" t="n">
-        <v>392.5557079310759</v>
+        <v>392.5557079311121</v>
       </c>
       <c r="O124" t="n">
-        <v>3.913938393972345</v>
+        <v>3.91393839397234</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
@@ -7553,13 +7553,13 @@
         <v>257</v>
       </c>
       <c r="G125" t="n">
-        <v>2.051487315779137</v>
+        <v>2.051487315779337</v>
       </c>
       <c r="H125" t="n">
-        <v>1.112229546392333</v>
+        <v>1.112229546392441</v>
       </c>
       <c r="I125" t="n">
-        <v>-1.064621740822098</v>
+        <v>-1.064621740822202</v>
       </c>
       <c r="J125" t="n">
         <v>176</v>
@@ -7574,10 +7574,10 @@
         <v>101</v>
       </c>
       <c r="N125" t="n">
-        <v>165.1311751720096</v>
+        <v>165.1311751720257</v>
       </c>
       <c r="O125" t="n">
-        <v>5.876879587788526</v>
+        <v>5.876879587788509</v>
       </c>
       <c r="P125" t="inlineStr">
         <is>
@@ -7610,13 +7610,13 @@
         <v>1127</v>
       </c>
       <c r="G126" t="n">
-        <v>2.105445442185006</v>
+        <v>2.105445442185211</v>
       </c>
       <c r="H126" t="n">
-        <v>1.465514511742714</v>
+        <v>1.465514511742856</v>
       </c>
       <c r="I126" t="n">
-        <v>-1.064621740822098</v>
+        <v>-1.064621740822202</v>
       </c>
       <c r="J126" t="n">
         <v>540</v>
@@ -7631,10 +7631,10 @@
         <v>475</v>
       </c>
       <c r="N126" t="n">
-        <v>294.4703641899138</v>
+        <v>294.4703641899425</v>
       </c>
       <c r="O126" t="n">
-        <v>6.031453008365358</v>
+        <v>6.031453008365339</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         <v>2328</v>
       </c>
       <c r="G127" t="n">
-        <v>2.37014098543367</v>
+        <v>2.3701409854339</v>
       </c>
       <c r="H127" t="n">
-        <v>1.900341867799248</v>
+        <v>1.900341867799433</v>
       </c>
       <c r="I127" t="n">
-        <v>-1.064621740822098</v>
+        <v>-1.064621740822202</v>
       </c>
       <c r="J127" t="n">
         <v>224</v>
@@ -7688,10 +7688,10 @@
         <v>75</v>
       </c>
       <c r="N127" t="n">
-        <v>355.0170876959232</v>
+        <v>355.0170876959578</v>
       </c>
       <c r="O127" t="n">
-        <v>6.789724250469465</v>
+        <v>6.789724250469445</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
@@ -7724,13 +7724,13 @@
         <v>2786</v>
       </c>
       <c r="G128" t="n">
-        <v>2.113282559752979</v>
+        <v>2.113282559753184</v>
       </c>
       <c r="H128" t="n">
-        <v>1.758292646821893</v>
+        <v>1.758292646822064</v>
       </c>
       <c r="I128" t="n">
-        <v>-1.064621740822098</v>
+        <v>-1.064621740822202</v>
       </c>
       <c r="J128" t="n">
         <v>158</v>
@@ -7745,10 +7745,10 @@
         <v>64</v>
       </c>
       <c r="N128" t="n">
-        <v>160.2999343742852</v>
+        <v>160.2999343743008</v>
       </c>
       <c r="O128" t="n">
-        <v>6.053903937458636</v>
+        <v>6.053903937458617</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
@@ -7781,19 +7781,19 @@
         <v>2998</v>
       </c>
       <c r="G129" t="n">
-        <v>2.858815206028931</v>
+        <v>2.858815206029127</v>
       </c>
       <c r="H129" t="n">
-        <v>2.05858957261431</v>
+        <v>2.05858957261451</v>
       </c>
       <c r="I129" t="n">
-        <v>-1.064621740822098</v>
+        <v>-1.064621740822202</v>
       </c>
       <c r="J129" t="n">
         <v>370</v>
       </c>
       <c r="K129" t="n">
-        <v>104.1348140110254</v>
+        <v>104.1348140110217</v>
       </c>
       <c r="L129" t="n">
         <v>220</v>
@@ -7802,10 +7802,10 @@
         <v>152</v>
       </c>
       <c r="N129" t="n">
-        <v>552.1201381991552</v>
+        <v>552.1201381992103</v>
       </c>
       <c r="O129" t="n">
-        <v>8.18962544898311</v>
+        <v>8.189625448982854</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -7838,19 +7838,19 @@
         <v>586</v>
       </c>
       <c r="G130" t="n">
-        <v>0.8659169398578437</v>
+        <v>0.8659169398579281</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.2974630932343776</v>
+        <v>-0.2974630932344067</v>
       </c>
       <c r="I130" t="n">
-        <v>-1.024478759169963</v>
+        <v>-1.024478759170063</v>
       </c>
       <c r="J130" t="n">
         <v>387</v>
       </c>
       <c r="K130" t="n">
-        <v>118.9136241386513</v>
+        <v>118.9136241386514</v>
       </c>
       <c r="L130" t="n">
         <v>87</v>
@@ -7859,7 +7859,7 @@
         <v>302</v>
       </c>
       <c r="N130" t="n">
-        <v>108.9062730871818</v>
+        <v>108.9062730871923</v>
       </c>
       <c r="O130" t="n">
         <v>3.51052959987731</v>
@@ -7895,13 +7895,13 @@
         <v>1679</v>
       </c>
       <c r="G131" t="n">
-        <v>0.8233036120197396</v>
+        <v>0.8233036120198193</v>
       </c>
       <c r="H131" t="n">
-        <v>1.820388237626303</v>
+        <v>1.82038823762648</v>
       </c>
       <c r="I131" t="n">
-        <v>-1.024478759169963</v>
+        <v>-1.024478759170063</v>
       </c>
       <c r="J131" t="n">
         <v>583</v>
@@ -7916,10 +7916,10 @@
         <v>515</v>
       </c>
       <c r="N131" t="n">
-        <v>729.6537321733401</v>
+        <v>729.6537321734111</v>
       </c>
       <c r="O131" t="n">
-        <v>3.337770133190471</v>
+        <v>3.337770133190469</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -7952,13 +7952,13 @@
         <v>1679</v>
       </c>
       <c r="G132" t="n">
-        <v>0.6701955554275657</v>
+        <v>0.6701955554276304</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1059141633889984</v>
+        <v>0.1059141633890084</v>
       </c>
       <c r="I132" t="n">
-        <v>-1.024478759169963</v>
+        <v>-1.024478759170063</v>
       </c>
       <c r="J132" t="n">
         <v>249</v>
@@ -7973,10 +7973,10 @@
         <v>218</v>
       </c>
       <c r="N132" t="n">
-        <v>103.7628189404577</v>
+        <v>103.7628189404678</v>
       </c>
       <c r="O132" t="n">
-        <v>2.717051978935681</v>
+        <v>2.717051978935679</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -8009,13 +8009,13 @@
         <v>2140</v>
       </c>
       <c r="G133" t="n">
-        <v>1.177878534790734</v>
+        <v>1.177878534790848</v>
       </c>
       <c r="H133" t="n">
-        <v>1.106356560213138</v>
+        <v>1.106356560213245</v>
       </c>
       <c r="I133" t="n">
-        <v>-1.024478759169963</v>
+        <v>-1.024478759170063</v>
       </c>
       <c r="J133" t="n">
         <v>461</v>
@@ -8030,10 +8030,10 @@
         <v>92</v>
       </c>
       <c r="N133" t="n">
-        <v>394.7174402875298</v>
+        <v>394.7174402875682</v>
       </c>
       <c r="O133" t="n">
-        <v>4.775258770340977</v>
+        <v>4.775258770340974</v>
       </c>
       <c r="P133" t="inlineStr">
         <is>
@@ -8066,19 +8066,19 @@
         <v>2992</v>
       </c>
       <c r="G134" t="n">
-        <v>1.484156276016622</v>
+        <v>1.484156276016813</v>
       </c>
       <c r="H134" t="n">
-        <v>1.938848756218937</v>
+        <v>1.938848756219126</v>
       </c>
       <c r="I134" t="n">
-        <v>-1.024478759169963</v>
+        <v>-1.024478759170063</v>
       </c>
       <c r="J134" t="n">
         <v>456</v>
       </c>
       <c r="K134" t="n">
-        <v>84.84612778636847</v>
+        <v>84.84612778636983</v>
       </c>
       <c r="L134" t="n">
         <v>376</v>
@@ -8087,10 +8087,10 @@
         <v>82</v>
       </c>
       <c r="N134" t="n">
-        <v>548.0080672809833</v>
+        <v>548.0080672810354</v>
       </c>
       <c r="O134" t="n">
-        <v>6.016944926213568</v>
+        <v>6.016944926213755</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -8123,19 +8123,19 @@
         <v>269</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4681206569044861</v>
+        <v>0.4681206569045316</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.152762719643109</v>
+        <v>-0.1527627196431241</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.5501119127837388</v>
+        <v>-0.5501119127837923</v>
       </c>
       <c r="J135" t="n">
         <v>223</v>
       </c>
       <c r="K135" t="n">
-        <v>61.85478863053487</v>
+        <v>61.85478863053493</v>
       </c>
       <c r="L135" t="n">
         <v>125</v>
@@ -8144,10 +8144,10 @@
         <v>100</v>
       </c>
       <c r="N135" t="n">
-        <v>12.28627688939259</v>
+        <v>12.28627688939375</v>
       </c>
       <c r="O135" t="n">
-        <v>3.269476877547304</v>
+        <v>3.269476877547312</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -8180,13 +8180,13 @@
         <v>717</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4274736368952581</v>
+        <v>0.4274736368952995</v>
       </c>
       <c r="H136" t="n">
-        <v>0.03827308526179739</v>
+        <v>0.038273085261801</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.5501119127837388</v>
+        <v>-0.5501119127837923</v>
       </c>
       <c r="J136" t="n">
         <v>448</v>
@@ -8201,10 +8201,10 @@
         <v>52</v>
       </c>
       <c r="N136" t="n">
-        <v>74.41140494485711</v>
+        <v>74.41140494486432</v>
       </c>
       <c r="O136" t="n">
-        <v>2.985587478305329</v>
+        <v>2.985587478305335</v>
       </c>
       <c r="P136" t="inlineStr">
         <is>
@@ -8237,13 +8237,13 @@
         <v>1659</v>
       </c>
       <c r="G137" t="n">
-        <v>0.4435814050406655</v>
+        <v>0.4435814050407084</v>
       </c>
       <c r="H137" t="n">
-        <v>0.111991600386468</v>
+        <v>0.1119916003864787</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.5501119127837388</v>
+        <v>-0.5501119127837923</v>
       </c>
       <c r="J137" t="n">
         <v>278</v>
@@ -8258,10 +8258,10 @@
         <v>249</v>
       </c>
       <c r="N137" t="n">
-        <v>119.3691773693054</v>
+        <v>119.369177369317</v>
       </c>
       <c r="O137" t="n">
-        <v>3.098088336200707</v>
+        <v>3.098088336200712</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -8294,13 +8294,13 @@
         <v>1948</v>
       </c>
       <c r="G138" t="n">
-        <v>0.8184196233803808</v>
+        <v>0.8184196233804601</v>
       </c>
       <c r="H138" t="n">
-        <v>0.2829928731296084</v>
+        <v>0.2829928731296358</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.5501119127837388</v>
+        <v>-0.5501119127837923</v>
       </c>
       <c r="J138" t="n">
         <v>567</v>
@@ -8315,10 +8315,10 @@
         <v>230</v>
       </c>
       <c r="N138" t="n">
-        <v>218.4275562660129</v>
+        <v>218.4275562660341</v>
       </c>
       <c r="O138" t="n">
-        <v>5.716056310070272</v>
+        <v>5.716056310070282</v>
       </c>
       <c r="P138" t="inlineStr">
         <is>
@@ -8351,13 +8351,13 @@
         <v>1948</v>
       </c>
       <c r="G139" t="n">
-        <v>0.3891891235084523</v>
+        <v>0.38918912350849</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.03067927832289769</v>
+        <v>-0.0306792783229008</v>
       </c>
       <c r="I139" t="n">
-        <v>-0.5501119127837388</v>
+        <v>-0.5501119127837923</v>
       </c>
       <c r="J139" t="n">
         <v>155</v>
@@ -8372,10 +8372,10 @@
         <v>109</v>
       </c>
       <c r="N139" t="n">
-        <v>34.22001548412226</v>
+        <v>34.22001548412558</v>
       </c>
       <c r="O139" t="n">
-        <v>2.718198442081167</v>
+        <v>2.718198442081173</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
@@ -8408,13 +8408,13 @@
         <v>2854</v>
       </c>
       <c r="G140" t="n">
-        <v>0.4201301855843711</v>
+        <v>0.4201301855844118</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.02810319607853415</v>
+        <v>-0.02810319607853701</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.5501119127837388</v>
+        <v>-0.5501119127837923</v>
       </c>
       <c r="J140" t="n">
         <v>488</v>
@@ -8429,10 +8429,10 @@
         <v>416</v>
       </c>
       <c r="N140" t="n">
-        <v>87.13176674168032</v>
+        <v>87.13176674168876</v>
       </c>
       <c r="O140" t="n">
-        <v>2.934298897235004</v>
+        <v>2.93429889723501</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -8465,13 +8465,13 @@
         <v>2854</v>
       </c>
       <c r="G141" t="n">
-        <v>0.351600620921159</v>
+        <v>0.3516006209211929</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.1819847011922169</v>
+        <v>-0.1819847011922349</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.5501119127837388</v>
+        <v>-0.5501119127837923</v>
       </c>
       <c r="J141" t="n">
         <v>286</v>
@@ -8486,10 +8486,10 @@
         <v>257</v>
       </c>
       <c r="N141" t="n">
-        <v>28.83932799235717</v>
+        <v>28.83932799235994</v>
       </c>
       <c r="O141" t="n">
-        <v>2.455670526984574</v>
+        <v>2.455670526984578</v>
       </c>
       <c r="P141" t="inlineStr">
         <is>
@@ -8522,19 +8522,19 @@
         <v>2998</v>
       </c>
       <c r="G142" t="n">
-        <v>0.3535458054799784</v>
+        <v>0.3535458054799621</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.1551104153781956</v>
+        <v>-0.1551104153782108</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.5501119127837388</v>
+        <v>-0.5501119127837923</v>
       </c>
       <c r="J142" t="n">
         <v>144</v>
       </c>
       <c r="K142" t="n">
-        <v>71.74834294607308</v>
+        <v>71.74834294607354</v>
       </c>
       <c r="L142" t="n">
         <v>75</v>
@@ -8543,10 +8543,10 @@
         <v>71</v>
       </c>
       <c r="N142" t="n">
-        <v>24.75477373184506</v>
+        <v>24.75477373184837</v>
       </c>
       <c r="O142" t="n">
-        <v>2.469256203762174</v>
+        <v>2.469256203761825</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
@@ -8579,13 +8579,13 @@
         <v>1491</v>
       </c>
       <c r="G143" t="n">
-        <v>0.9331639100218942</v>
+        <v>0.9331639100219848</v>
       </c>
       <c r="H143" t="n">
-        <v>1.558958761695428</v>
+        <v>1.55895876169558</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.9347965593198742</v>
+        <v>-0.9347965593199654</v>
       </c>
       <c r="J143" t="n">
         <v>110</v>
@@ -8600,10 +8600,10 @@
         <v>73</v>
       </c>
       <c r="N143" t="n">
-        <v>230.2446948769185</v>
+        <v>230.244694876941</v>
       </c>
       <c r="O143" t="n">
-        <v>5.70724116111302</v>
+        <v>5.707241161112975</v>
       </c>
       <c r="P143" t="inlineStr">
         <is>
@@ -8636,13 +8636,13 @@
         <v>2099</v>
       </c>
       <c r="G144" t="n">
-        <v>0.9104069247107135</v>
+        <v>0.9104069247108019</v>
       </c>
       <c r="H144" t="n">
-        <v>0.2917958822602976</v>
+        <v>0.2917958822603259</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.9347965593198742</v>
+        <v>-0.9347965593199654</v>
       </c>
       <c r="J144" t="n">
         <v>415</v>
@@ -8657,10 +8657,10 @@
         <v>346</v>
       </c>
       <c r="N144" t="n">
-        <v>306.040622891952</v>
+        <v>306.0406228919819</v>
       </c>
       <c r="O144" t="n">
-        <v>5.5680591783167</v>
+        <v>5.568059178316655</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -8693,13 +8693,13 @@
         <v>2099</v>
       </c>
       <c r="G145" t="n">
-        <v>0.6586100444045255</v>
+        <v>0.6586100444045897</v>
       </c>
       <c r="H145" t="n">
-        <v>0.01376989422118407</v>
+        <v>0.01376989422118524</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.9347965593198742</v>
+        <v>-0.9347965593199654</v>
       </c>
       <c r="J145" t="n">
         <v>190</v>
@@ -8714,10 +8714,10 @@
         <v>41</v>
       </c>
       <c r="N145" t="n">
-        <v>110.8289248207198</v>
+        <v>110.8289248207306</v>
       </c>
       <c r="O145" t="n">
-        <v>4.028066574563296</v>
+        <v>4.028066574563264</v>
       </c>
       <c r="P145" t="inlineStr">
         <is>
@@ -8750,13 +8750,13 @@
         <v>2235</v>
       </c>
       <c r="G146" t="n">
-        <v>0.8057181795490667</v>
+        <v>0.8057181795491445</v>
       </c>
       <c r="H146" t="n">
-        <v>0.5105814682838082</v>
+        <v>0.5105814682838578</v>
       </c>
       <c r="I146" t="n">
-        <v>-0.9347965593198742</v>
+        <v>-0.9347965593199654</v>
       </c>
       <c r="J146" t="n">
         <v>136</v>
@@ -8771,10 +8771,10 @@
         <v>40</v>
       </c>
       <c r="N146" t="n">
-        <v>105.6336337079685</v>
+        <v>105.6336337079788</v>
       </c>
       <c r="O146" t="n">
-        <v>4.92778161391989</v>
+        <v>4.927781613919848</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -8807,13 +8807,13 @@
         <v>2859</v>
       </c>
       <c r="G147" t="n">
-        <v>0.6942462147601307</v>
+        <v>0.6942462147601982</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.3167932984978609</v>
+        <v>-0.316793298497892</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.9347965593198742</v>
+        <v>-0.9347965593199654</v>
       </c>
       <c r="J147" t="n">
         <v>137</v>
@@ -8828,10 +8828,10 @@
         <v>78</v>
       </c>
       <c r="N147" t="n">
-        <v>39.97606933734544</v>
+        <v>39.97606933734936</v>
       </c>
       <c r="O147" t="n">
-        <v>4.246017800595144</v>
+        <v>4.24601780059511</v>
       </c>
       <c r="P147" t="inlineStr">
         <is>
@@ -8864,13 +8864,13 @@
         <v>2855</v>
       </c>
       <c r="G148" t="n">
-        <v>2.133550515769726</v>
+        <v>2.133550515769933</v>
       </c>
       <c r="H148" t="n">
-        <v>2.633988281237027</v>
+        <v>2.633988281237283</v>
       </c>
       <c r="I148" t="n">
-        <v>-1.035842064316179</v>
+        <v>-1.035842064316281</v>
       </c>
       <c r="J148" t="n">
         <v>519</v>
@@ -8885,10 +8885,10 @@
         <v>399</v>
       </c>
       <c r="N148" t="n">
-        <v>846.8045530416819</v>
+        <v>846.8045530417645</v>
       </c>
       <c r="O148" t="n">
-        <v>7.230542393235127</v>
+        <v>7.230542393235116</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -8921,13 +8921,13 @@
         <v>2855</v>
       </c>
       <c r="G149" t="n">
-        <v>1.683771374891635</v>
+        <v>1.683771374891798</v>
       </c>
       <c r="H149" t="n">
-        <v>0.7846122827733606</v>
+        <v>0.7846122827734368</v>
       </c>
       <c r="I149" t="n">
-        <v>-1.035842064316179</v>
+        <v>-1.035842064316281</v>
       </c>
       <c r="J149" t="n">
         <v>194</v>
@@ -8942,10 +8942,10 @@
         <v>100</v>
       </c>
       <c r="N149" t="n">
-        <v>162.1103750344597</v>
+        <v>162.1103750344755</v>
       </c>
       <c r="O149" t="n">
-        <v>5.706253597786275</v>
+        <v>5.706253597786269</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -8978,13 +8978,13 @@
         <v>1052</v>
       </c>
       <c r="G150" t="n">
-        <v>2.305842855570571</v>
+        <v>2.305842855570794</v>
       </c>
       <c r="H150" t="n">
-        <v>1.763397045143481</v>
+        <v>1.763397045143652</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.9315546776829676</v>
+        <v>-0.9315546776830581</v>
       </c>
       <c r="J150" t="n">
         <v>368</v>
@@ -8999,10 +8999,10 @@
         <v>332</v>
       </c>
       <c r="N150" t="n">
-        <v>196.2675062203558</v>
+        <v>196.2675062203749</v>
       </c>
       <c r="O150" t="n">
-        <v>6.589051691815306</v>
+        <v>6.589051691815302</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
@@ -9035,13 +9035,13 @@
         <v>585</v>
       </c>
       <c r="G151" t="n">
-        <v>1.382739426133822</v>
+        <v>1.382739426133956</v>
       </c>
       <c r="H151" t="n">
-        <v>0.6534176367786496</v>
+        <v>0.6534176367787127</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.9101441713934223</v>
+        <v>-0.9101441713935108</v>
       </c>
       <c r="J151" t="n">
         <v>161</v>
@@ -9056,10 +9056,10 @@
         <v>99</v>
       </c>
       <c r="N151" t="n">
-        <v>136.9896776685097</v>
+        <v>136.9896776685231</v>
       </c>
       <c r="O151" t="n">
-        <v>4.258288804698132</v>
+        <v>4.25828880469813</v>
       </c>
       <c r="P151" t="inlineStr">
         <is>
@@ -9092,19 +9092,19 @@
         <v>718</v>
       </c>
       <c r="G152" t="n">
-        <v>1.585731311640395</v>
+        <v>1.585731311640548</v>
       </c>
       <c r="H152" t="n">
-        <v>0.7554830894091834</v>
+        <v>0.7554830894092567</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.9101441713934223</v>
+        <v>-0.9101441713935108</v>
       </c>
       <c r="J152" t="n">
         <v>133</v>
       </c>
       <c r="K152" t="n">
-        <v>84.54605733364508</v>
+        <v>84.54605733364497</v>
       </c>
       <c r="L152" t="n">
         <v>65</v>
@@ -9113,10 +9113,10 @@
         <v>70</v>
       </c>
       <c r="N152" t="n">
-        <v>133.8523119437447</v>
+        <v>133.8523119437577</v>
       </c>
       <c r="O152" t="n">
-        <v>4.88342327122165</v>
+        <v>4.883423271221649</v>
       </c>
       <c r="P152" t="inlineStr">
         <is>
@@ -9149,13 +9149,13 @@
         <v>914</v>
       </c>
       <c r="G153" t="n">
-        <v>1.983715869228527</v>
+        <v>1.983715869228719</v>
       </c>
       <c r="H153" t="n">
-        <v>0.8072884226795616</v>
+        <v>0.8072884226796397</v>
       </c>
       <c r="I153" t="n">
-        <v>-0.9101441713934223</v>
+        <v>-0.9101441713935108</v>
       </c>
       <c r="J153" t="n">
         <v>196</v>
@@ -9170,7 +9170,7 @@
         <v>132</v>
       </c>
       <c r="N153" t="n">
-        <v>135.0197778636024</v>
+        <v>135.0197778636155</v>
       </c>
       <c r="O153" t="n">
         <v>6.109057800757562</v>
@@ -9206,13 +9206,13 @@
         <v>1120</v>
       </c>
       <c r="G154" t="n">
-        <v>1.737042920661011</v>
+        <v>1.737042920661179</v>
       </c>
       <c r="H154" t="n">
-        <v>0.4624721584798549</v>
+        <v>0.4624721584798995</v>
       </c>
       <c r="I154" t="n">
-        <v>-0.9101441713934223</v>
+        <v>-0.9101441713935108</v>
       </c>
       <c r="J154" t="n">
         <v>206</v>
@@ -9227,10 +9227,10 @@
         <v>52</v>
       </c>
       <c r="N154" t="n">
-        <v>48.19206178043623</v>
+        <v>48.19206178044088</v>
       </c>
       <c r="O154" t="n">
-        <v>5.349402991287137</v>
+        <v>5.349402991287136</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -9263,13 +9263,13 @@
         <v>2092</v>
       </c>
       <c r="G155" t="n">
-        <v>1.959220680430874</v>
+        <v>1.959220680431064</v>
       </c>
       <c r="H155" t="n">
-        <v>0.7618308508938094</v>
+        <v>0.7618308508938829</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.9101441713934223</v>
+        <v>-0.9101441713935108</v>
       </c>
       <c r="J155" t="n">
         <v>118</v>
@@ -9284,10 +9284,10 @@
         <v>31</v>
       </c>
       <c r="N155" t="n">
-        <v>105.6483738090804</v>
+        <v>105.6483738090907</v>
       </c>
       <c r="O155" t="n">
-        <v>6.033622338186238</v>
+        <v>6.033622338186236</v>
       </c>
       <c r="P155" t="inlineStr">
         <is>
@@ -9320,19 +9320,19 @@
         <v>2998</v>
       </c>
       <c r="G156" t="n">
-        <v>3.73343790696739</v>
+        <v>3.733437906967705</v>
       </c>
       <c r="H156" t="n">
-        <v>3.317002199362791</v>
+        <v>3.317002199363114</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.9101441713934223</v>
+        <v>-0.9101441713935108</v>
       </c>
       <c r="J156" t="n">
         <v>268</v>
       </c>
       <c r="K156" t="n">
-        <v>66.18679710614833</v>
+        <v>66.18679710614742</v>
       </c>
       <c r="L156" t="n">
         <v>118</v>
@@ -9341,10 +9341,10 @@
         <v>152</v>
       </c>
       <c r="N156" t="n">
-        <v>419.0829826837753</v>
+        <v>419.0829826838163</v>
       </c>
       <c r="O156" t="n">
-        <v>11.49750744196705</v>
+        <v>11.4975074419669</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -9377,13 +9377,13 @@
         <v>274</v>
       </c>
       <c r="G157" t="n">
-        <v>0.5179847034279939</v>
+        <v>0.517984703428044</v>
       </c>
       <c r="H157" t="n">
-        <v>0.05034979662988544</v>
+        <v>0.0503497966298902</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J157" t="n">
         <v>208</v>
@@ -9398,10 +9398,10 @@
         <v>155</v>
       </c>
       <c r="N157" t="n">
-        <v>100.7020860515927</v>
+        <v>100.7020860516025</v>
       </c>
       <c r="O157" t="n">
-        <v>2.631962819847922</v>
+        <v>2.631962819847919</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -9434,19 +9434,19 @@
         <v>274</v>
       </c>
       <c r="G158" t="n">
-        <v>0.5244969616305716</v>
+        <v>0.5244969616306221</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.07595175420724873</v>
+        <v>-0.07595175420725647</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J158" t="n">
         <v>68</v>
       </c>
       <c r="K158" t="n">
-        <v>28.52041659100519</v>
+        <v>28.52041659100522</v>
       </c>
       <c r="L158" t="n">
         <v>31</v>
@@ -9455,10 +9455,10 @@
         <v>39</v>
       </c>
       <c r="N158" t="n">
-        <v>18.02679391530067</v>
+        <v>18.02679391530243</v>
       </c>
       <c r="O158" t="n">
-        <v>2.665052641514474</v>
+        <v>2.66505264151447</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -9491,13 +9491,13 @@
         <v>426</v>
       </c>
       <c r="G159" t="n">
-        <v>0.6910398079732675</v>
+        <v>0.6910398079733343</v>
       </c>
       <c r="H159" t="n">
-        <v>0.3853553702729219</v>
+        <v>0.3853553702729591</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J159" t="n">
         <v>152</v>
@@ -9512,10 +9512,10 @@
         <v>67</v>
       </c>
       <c r="N159" t="n">
-        <v>89.73983654712265</v>
+        <v>89.7398365471314</v>
       </c>
       <c r="O159" t="n">
-        <v>3.511283382663291</v>
+        <v>3.511283382663286</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -9548,13 +9548,13 @@
         <v>540</v>
       </c>
       <c r="G160" t="n">
-        <v>0.8429858162321529</v>
+        <v>0.8429858162322343</v>
       </c>
       <c r="H160" t="n">
-        <v>0.6394520066895598</v>
+        <v>0.6394520066896219</v>
       </c>
       <c r="I160" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J160" t="n">
         <v>266</v>
@@ -9569,10 +9569,10 @@
         <v>55</v>
       </c>
       <c r="N160" t="n">
-        <v>187.5906541847716</v>
+        <v>187.5906541847899</v>
       </c>
       <c r="O160" t="n">
-        <v>4.283345263477663</v>
+        <v>4.283345263477657</v>
       </c>
       <c r="P160" t="inlineStr">
         <is>
@@ -9605,13 +9605,13 @@
         <v>586</v>
       </c>
       <c r="G161" t="n">
-        <v>0.487590805958077</v>
+        <v>0.4875908059581238</v>
       </c>
       <c r="H161" t="n">
-        <v>0.4369917536741087</v>
+        <v>0.4369917536741509</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J161" t="n">
         <v>46</v>
@@ -9626,10 +9626,10 @@
         <v>20</v>
       </c>
       <c r="N161" t="n">
-        <v>39.26485567563416</v>
+        <v>39.264855675638</v>
       </c>
       <c r="O161" t="n">
-        <v>2.477526583484793</v>
+        <v>2.477526583484788</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -9662,13 +9662,13 @@
         <v>1125</v>
       </c>
       <c r="G162" t="n">
-        <v>0.6714399512468644</v>
+        <v>0.6714399512469296</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.1498706173010071</v>
+        <v>-0.1498706173010218</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J162" t="n">
         <v>139</v>
@@ -9683,10 +9683,10 @@
         <v>47</v>
       </c>
       <c r="N162" t="n">
-        <v>37.63238574815578</v>
+        <v>37.63238574815946</v>
       </c>
       <c r="O162" t="n">
-        <v>3.411693387366431</v>
+        <v>3.411693387366428</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
@@ -9719,13 +9719,13 @@
         <v>1335</v>
       </c>
       <c r="G163" t="n">
-        <v>0.7985766631526875</v>
+        <v>0.7985766631527644</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.1820224719853835</v>
+        <v>-0.1820224719854015</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J163" t="n">
         <v>210</v>
@@ -9740,10 +9740,10 @@
         <v>143</v>
       </c>
       <c r="N163" t="n">
-        <v>14.78730537266666</v>
+        <v>14.78730537266811</v>
       </c>
       <c r="O163" t="n">
-        <v>4.057695280007956</v>
+        <v>4.057695280007949</v>
       </c>
       <c r="P163" t="inlineStr">
         <is>
@@ -9776,13 +9776,13 @@
         <v>1603</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9245596419508515</v>
+        <v>0.924559641950941</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.06868045335930031</v>
+        <v>-0.06868045335930727</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J164" t="n">
         <v>478</v>
@@ -9797,10 +9797,10 @@
         <v>117</v>
       </c>
       <c r="N164" t="n">
-        <v>65.45947887597363</v>
+        <v>65.45947887598004</v>
       </c>
       <c r="O164" t="n">
-        <v>4.697834870880162</v>
+        <v>4.697834870880156</v>
       </c>
       <c r="P164" t="inlineStr">
         <is>
@@ -9833,13 +9833,13 @@
         <v>1978</v>
       </c>
       <c r="G165" t="n">
-        <v>0.5806698023468474</v>
+        <v>0.5806698023469038</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.07103512299816728</v>
+        <v>-0.07103512299817441</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J165" t="n">
         <v>159</v>
@@ -9854,10 +9854,10 @@
         <v>75</v>
       </c>
       <c r="N165" t="n">
-        <v>45.35222667281185</v>
+        <v>45.35222667281627</v>
       </c>
       <c r="O165" t="n">
-        <v>2.950475796430148</v>
+        <v>2.950475796430145</v>
       </c>
       <c r="P165" t="inlineStr">
         <is>
@@ -9890,13 +9890,13 @@
         <v>2272</v>
       </c>
       <c r="G166" t="n">
-        <v>0.5741370888058843</v>
+        <v>0.5741370888059396</v>
       </c>
       <c r="H166" t="n">
-        <v>0.8381519789505096</v>
+        <v>0.8381519789505908</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J166" t="n">
         <v>68</v>
@@ -9911,10 +9911,10 @@
         <v>35</v>
       </c>
       <c r="N166" t="n">
-        <v>81.27093697640564</v>
+        <v>81.27093697641355</v>
       </c>
       <c r="O166" t="n">
-        <v>2.917282037929667</v>
+        <v>2.917282037929662</v>
       </c>
       <c r="P166" t="inlineStr">
         <is>
@@ -9947,13 +9947,13 @@
         <v>2510</v>
       </c>
       <c r="G167" t="n">
-        <v>1.126921126170723</v>
+        <v>1.126921126170832</v>
       </c>
       <c r="H167" t="n">
-        <v>1.205853889051656</v>
+        <v>1.205853889051773</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J167" t="n">
         <v>306</v>
@@ -9968,10 +9968,10 @@
         <v>176</v>
       </c>
       <c r="N167" t="n">
-        <v>278.9337361831573</v>
+        <v>278.9337361831845</v>
       </c>
       <c r="O167" t="n">
-        <v>5.726065818842859</v>
+        <v>5.726065818842852</v>
       </c>
       <c r="P167" t="inlineStr">
         <is>
@@ -10004,13 +10004,13 @@
         <v>2510</v>
       </c>
       <c r="G168" t="n">
-        <v>0.7069180088481223</v>
+        <v>0.7069180088481899</v>
       </c>
       <c r="H168" t="n">
-        <v>0.2691507630759414</v>
+        <v>0.269150763075967</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J168" t="n">
         <v>119</v>
@@ -10025,10 +10025,10 @@
         <v>91</v>
       </c>
       <c r="N168" t="n">
-        <v>40.03096944635245</v>
+        <v>40.03096944635636</v>
       </c>
       <c r="O168" t="n">
-        <v>3.591963051526339</v>
+        <v>3.59196305152633</v>
       </c>
       <c r="P168" t="inlineStr">
         <is>
@@ -10061,13 +10061,13 @@
         <v>2898</v>
       </c>
       <c r="G169" t="n">
-        <v>1.798915927942867</v>
+        <v>1.798915927943042</v>
       </c>
       <c r="H169" t="n">
-        <v>1.214645763130207</v>
+        <v>1.214645763130325</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.701872272024175</v>
+        <v>-0.7018722720242435</v>
       </c>
       <c r="J169" t="n">
         <v>388</v>
@@ -10082,10 +10082,10 @@
         <v>291</v>
       </c>
       <c r="N169" t="n">
-        <v>260.9272782133238</v>
+        <v>260.9272782133493</v>
       </c>
       <c r="O169" t="n">
-        <v>9.140578490144598</v>
+        <v>9.140578490144591</v>
       </c>
       <c r="P169" t="inlineStr">
         <is>
@@ -10118,13 +10118,13 @@
         <v>2419</v>
       </c>
       <c r="G170" t="n">
-        <v>1.040518001917156</v>
+        <v>1.040518001917256</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6450719218995161</v>
+        <v>0.6450719218995786</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.7730467683237243</v>
+        <v>-0.7730467683237996</v>
       </c>
       <c r="J170" t="n">
         <v>176</v>
@@ -10139,10 +10139,10 @@
         <v>121</v>
       </c>
       <c r="N170" t="n">
-        <v>127.5813210785801</v>
+        <v>127.5813210785925</v>
       </c>
       <c r="O170" t="n">
-        <v>4.588668297067937</v>
+        <v>4.588668297067925</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
@@ -10175,13 +10175,13 @@
         <v>2837</v>
       </c>
       <c r="G171" t="n">
-        <v>2.549934019950768</v>
+        <v>2.549934019951015</v>
       </c>
       <c r="H171" t="n">
-        <v>3.628645272212893</v>
+        <v>3.628645272213247</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.7730467683237243</v>
+        <v>-0.7730467683237996</v>
       </c>
       <c r="J171" t="n">
         <v>262</v>
@@ -10196,10 +10196,10 @@
         <v>230</v>
       </c>
       <c r="N171" t="n">
-        <v>494.9458617718003</v>
+        <v>494.9458617718486</v>
       </c>
       <c r="O171" t="n">
-        <v>11.24516959380265</v>
+        <v>11.24516959380263</v>
       </c>
       <c r="P171" t="inlineStr">
         <is>
@@ -10232,13 +10232,13 @@
         <v>903</v>
       </c>
       <c r="G172" t="n">
-        <v>1.250468931821709</v>
+        <v>1.25046893182183</v>
       </c>
       <c r="H172" t="n">
-        <v>1.43295785433956</v>
+        <v>1.4329578543397</v>
       </c>
       <c r="I172" t="n">
-        <v>-1.241496006464677</v>
+        <v>-1.241496006464798</v>
       </c>
       <c r="J172" t="n">
         <v>378</v>
@@ -10253,10 +10253,10 @@
         <v>305</v>
       </c>
       <c r="N172" t="n">
-        <v>621.1098666714284</v>
+        <v>621.1098666714889</v>
       </c>
       <c r="O172" t="n">
-        <v>2.667239242089943</v>
+        <v>2.667239242089951</v>
       </c>
       <c r="P172" t="inlineStr">
         <is>
@@ -10289,13 +10289,13 @@
         <v>903</v>
       </c>
       <c r="G173" t="n">
-        <v>1.808791967328316</v>
+        <v>1.808791967328491</v>
       </c>
       <c r="H173" t="n">
-        <v>1.080389496857207</v>
+        <v>1.080389496857312</v>
       </c>
       <c r="I173" t="n">
-        <v>-1.241496006464677</v>
+        <v>-1.241496006464798</v>
       </c>
       <c r="J173" t="n">
         <v>171</v>
@@ -10310,10 +10310,10 @@
         <v>51</v>
       </c>
       <c r="N173" t="n">
-        <v>240.1664208536353</v>
+        <v>240.1664208536587</v>
       </c>
       <c r="O173" t="n">
-        <v>3.858137370119824</v>
+        <v>3.858137370119836</v>
       </c>
       <c r="P173" t="inlineStr">
         <is>
@@ -10346,19 +10346,19 @@
         <v>1166</v>
       </c>
       <c r="G174" t="n">
-        <v>2.273589925423606</v>
+        <v>2.273589925423826</v>
       </c>
       <c r="H174" t="n">
-        <v>1.281045506906044</v>
+        <v>1.281045506906168</v>
       </c>
       <c r="I174" t="n">
-        <v>-1.241496006464677</v>
+        <v>-1.241496006464798</v>
       </c>
       <c r="J174" t="n">
         <v>263</v>
       </c>
       <c r="K174" t="n">
-        <v>43.00861151198001</v>
+        <v>43.00861151198023</v>
       </c>
       <c r="L174" t="n">
         <v>189</v>
@@ -10367,10 +10367,10 @@
         <v>76</v>
       </c>
       <c r="N174" t="n">
-        <v>136.2982548176725</v>
+        <v>136.2982548176857</v>
       </c>
       <c r="O174" t="n">
-        <v>4.84954732995703</v>
+        <v>4.849547329957044</v>
       </c>
       <c r="P174" t="inlineStr">
         <is>
@@ -10403,19 +10403,19 @@
         <v>2097</v>
       </c>
       <c r="G175" t="n">
-        <v>2.812013521813213</v>
+        <v>2.812013521813487</v>
       </c>
       <c r="H175" t="n">
-        <v>1.61054167202237</v>
+        <v>1.610541672022527</v>
       </c>
       <c r="I175" t="n">
-        <v>-1.241496006464677</v>
+        <v>-1.241496006464798</v>
       </c>
       <c r="J175" t="n">
         <v>530</v>
       </c>
       <c r="K175" t="n">
-        <v>163.8799416835848</v>
+        <v>163.8799416835845</v>
       </c>
       <c r="L175" t="n">
         <v>101</v>
@@ -10424,10 +10424,10 @@
         <v>431</v>
       </c>
       <c r="N175" t="n">
-        <v>672.8778214401761</v>
+        <v>672.8778214402416</v>
       </c>
       <c r="O175" t="n">
-        <v>5.998000129232428</v>
+        <v>5.998000129232448</v>
       </c>
       <c r="P175" t="inlineStr">
         <is>
@@ -10460,13 +10460,13 @@
         <v>2097</v>
       </c>
       <c r="G176" t="n">
-        <v>1.196337769990223</v>
+        <v>1.196337769990339</v>
       </c>
       <c r="H176" t="n">
-        <v>1.005243871494577</v>
+        <v>1.005243871494675</v>
       </c>
       <c r="I176" t="n">
-        <v>-1.241496006464677</v>
+        <v>-1.241496006464798</v>
       </c>
       <c r="J176" t="n">
         <v>319</v>
@@ -10481,10 +10481,10 @@
         <v>263</v>
       </c>
       <c r="N176" t="n">
-        <v>258.8660372824936</v>
+        <v>258.8660372825188</v>
       </c>
       <c r="O176" t="n">
-        <v>2.551777949623825</v>
+        <v>2.551777949623833</v>
       </c>
       <c r="P176" t="inlineStr">
         <is>
@@ -10517,13 +10517,13 @@
         <v>2454</v>
       </c>
       <c r="G177" t="n">
-        <v>1.877882152377554</v>
+        <v>1.877882152377736</v>
       </c>
       <c r="H177" t="n">
-        <v>0.990548000682086</v>
+        <v>0.9905480006821821</v>
       </c>
       <c r="I177" t="n">
-        <v>-1.241496006464677</v>
+        <v>-1.241496006464798</v>
       </c>
       <c r="J177" t="n">
         <v>357</v>
@@ -10538,10 +10538,10 @@
         <v>44</v>
       </c>
       <c r="N177" t="n">
-        <v>222.30096927296</v>
+        <v>222.3009692729815</v>
       </c>
       <c r="O177" t="n">
-        <v>4.005506127645148</v>
+        <v>4.005506127645161</v>
       </c>
       <c r="P177" t="inlineStr">
         <is>
@@ -10574,13 +10574,13 @@
         <v>2850</v>
       </c>
       <c r="G178" t="n">
-        <v>1.15126871684476</v>
+        <v>1.151268716844872</v>
       </c>
       <c r="H178" t="n">
-        <v>0.7828970991989826</v>
+        <v>0.7828970991990585</v>
       </c>
       <c r="I178" t="n">
-        <v>-1.241496006464677</v>
+        <v>-1.241496006464798</v>
       </c>
       <c r="J178" t="n">
         <v>225</v>
@@ -10595,10 +10595,10 @@
         <v>152</v>
       </c>
       <c r="N178" t="n">
-        <v>166.645183797259</v>
+        <v>166.6451837972752</v>
       </c>
       <c r="O178" t="n">
-        <v>2.45564605534454</v>
+        <v>2.455646055344548</v>
       </c>
       <c r="P178" t="inlineStr">
         <is>
@@ -10631,13 +10631,13 @@
         <v>273</v>
       </c>
       <c r="G179" t="n">
-        <v>1.822677378419582</v>
+        <v>1.822677378419759</v>
       </c>
       <c r="H179" t="n">
-        <v>0.9401611583874669</v>
+        <v>0.940161158387558</v>
       </c>
       <c r="I179" t="n">
-        <v>-0.8557363040590931</v>
+        <v>-0.8557363040591766</v>
       </c>
       <c r="J179" t="n">
         <v>118</v>
@@ -10652,10 +10652,10 @@
         <v>87</v>
       </c>
       <c r="N179" t="n">
-        <v>96.41526876277823</v>
+        <v>96.41526876278766</v>
       </c>
       <c r="O179" t="n">
-        <v>7.045659510992726</v>
+        <v>7.04565951099274</v>
       </c>
       <c r="P179" t="inlineStr">
         <is>
@@ -10688,19 +10688,19 @@
         <v>527</v>
       </c>
       <c r="G180" t="n">
-        <v>0.9717839191728875</v>
+        <v>0.9717839191729817</v>
       </c>
       <c r="H180" t="n">
-        <v>0.02809614666130946</v>
+        <v>0.02809614666131196</v>
       </c>
       <c r="I180" t="n">
-        <v>-0.8557363040590931</v>
+        <v>-0.8557363040591766</v>
       </c>
       <c r="J180" t="n">
         <v>254</v>
       </c>
       <c r="K180" t="n">
-        <v>67.23711331994895</v>
+        <v>67.23711331994889</v>
       </c>
       <c r="L180" t="n">
         <v>192</v>
@@ -10709,10 +10709,10 @@
         <v>64</v>
       </c>
       <c r="N180" t="n">
-        <v>76.64190291912165</v>
+        <v>76.64190291912914</v>
       </c>
       <c r="O180" t="n">
-        <v>3.756484111679191</v>
+        <v>3.756484111679199</v>
       </c>
       <c r="P180" t="inlineStr">
         <is>
@@ -10745,13 +10745,13 @@
         <v>755</v>
       </c>
       <c r="G181" t="n">
-        <v>1.039481326385882</v>
+        <v>1.039481326385982</v>
       </c>
       <c r="H181" t="n">
-        <v>0.1120859913511444</v>
+        <v>0.1120859913511549</v>
       </c>
       <c r="I181" t="n">
-        <v>-0.8557363040590931</v>
+        <v>-0.8557363040591766</v>
       </c>
       <c r="J181" t="n">
         <v>482</v>
@@ -10766,10 +10766,10 @@
         <v>81</v>
       </c>
       <c r="N181" t="n">
-        <v>181.5395459807538</v>
+        <v>181.5395459807715</v>
       </c>
       <c r="O181" t="n">
-        <v>4.018172157324088</v>
+        <v>4.018172157324093</v>
       </c>
       <c r="P181" t="inlineStr">
         <is>
@@ -10802,13 +10802,13 @@
         <v>1590</v>
       </c>
       <c r="G182" t="n">
-        <v>0.8196080228705541</v>
+        <v>0.8196080228706334</v>
       </c>
       <c r="H182" t="n">
-        <v>0.04137372243058242</v>
+        <v>0.04137372243058611</v>
       </c>
       <c r="I182" t="n">
-        <v>-0.8557363040590931</v>
+        <v>-0.8557363040591766</v>
       </c>
       <c r="J182" t="n">
         <v>129</v>
@@ -10823,10 +10823,10 @@
         <v>93</v>
       </c>
       <c r="N182" t="n">
-        <v>70.81728766601501</v>
+        <v>70.81728766602191</v>
       </c>
       <c r="O182" t="n">
-        <v>3.168239826749266</v>
+        <v>3.168239826749272</v>
       </c>
       <c r="P182" t="inlineStr">
         <is>
@@ -10859,13 +10859,13 @@
         <v>1983</v>
       </c>
       <c r="G183" t="n">
-        <v>0.9874427264793164</v>
+        <v>0.987442726479412</v>
       </c>
       <c r="H183" t="n">
-        <v>0.127054162151386</v>
+        <v>0.1270541621513981</v>
       </c>
       <c r="I183" t="n">
-        <v>-0.8557363040590931</v>
+        <v>-0.8557363040591766</v>
       </c>
       <c r="J183" t="n">
         <v>522</v>
@@ -10880,10 +10880,10 @@
         <v>97</v>
       </c>
       <c r="N183" t="n">
-        <v>251.2305950425906</v>
+        <v>251.2305950426151</v>
       </c>
       <c r="O183" t="n">
-        <v>3.817014091331984</v>
+        <v>3.817014091331992</v>
       </c>
       <c r="P183" t="inlineStr">
         <is>
@@ -10916,13 +10916,13 @@
         <v>2161</v>
       </c>
       <c r="G184" t="n">
-        <v>1.014807454593414</v>
+        <v>1.014807454593512</v>
       </c>
       <c r="H184" t="n">
-        <v>0.4608309366684859</v>
+        <v>0.4608309366685306</v>
       </c>
       <c r="I184" t="n">
-        <v>-0.8557363040590931</v>
+        <v>-0.8557363040591766</v>
       </c>
       <c r="J184" t="n">
         <v>178</v>
@@ -10937,10 +10937,10 @@
         <v>94</v>
       </c>
       <c r="N184" t="n">
-        <v>107.770491009856</v>
+        <v>107.7704910098665</v>
       </c>
       <c r="O184" t="n">
-        <v>3.922793950776994</v>
+        <v>3.922793950777002</v>
       </c>
       <c r="P184" t="inlineStr">
         <is>
@@ -10973,19 +10973,19 @@
         <v>2720</v>
       </c>
       <c r="G185" t="n">
-        <v>0.7388173349094403</v>
+        <v>0.7388173349095117</v>
       </c>
       <c r="H185" t="n">
-        <v>1.099847463801877</v>
+        <v>1.099847463801984</v>
       </c>
       <c r="I185" t="n">
-        <v>-0.8557363040590931</v>
+        <v>-0.8557363040591766</v>
       </c>
       <c r="J185" t="n">
         <v>279</v>
       </c>
       <c r="K185" t="n">
-        <v>44.27507833832442</v>
+        <v>44.27507833832487</v>
       </c>
       <c r="L185" t="n">
         <v>29</v>
@@ -10994,10 +10994,10 @@
         <v>252</v>
       </c>
       <c r="N185" t="n">
-        <v>325.8143367233466</v>
+        <v>325.8143367233783</v>
       </c>
       <c r="O185" t="n">
-        <v>2.855938985266045</v>
+        <v>2.85593898526605</v>
       </c>
       <c r="P185" t="inlineStr">
         <is>
@@ -11030,13 +11030,13 @@
         <v>2905</v>
       </c>
       <c r="G186" t="n">
-        <v>2.166748024968582</v>
+        <v>2.166748024968792</v>
       </c>
       <c r="H186" t="n">
-        <v>1.314880459389299</v>
+        <v>1.314880459389427</v>
       </c>
       <c r="I186" t="n">
-        <v>-0.8557363040590931</v>
+        <v>-0.8557363040591766</v>
       </c>
       <c r="J186" t="n">
         <v>185</v>
@@ -11051,10 +11051,10 @@
         <v>148</v>
       </c>
       <c r="N186" t="n">
-        <v>133.1838638943439</v>
+        <v>133.1838638943568</v>
       </c>
       <c r="O186" t="n">
-        <v>8.375683492205118</v>
+        <v>8.375683492205134</v>
       </c>
       <c r="P186" t="inlineStr">
         <is>
@@ -11087,13 +11087,13 @@
         <v>583</v>
       </c>
       <c r="G187" t="n">
-        <v>1.386154787896188</v>
+        <v>1.386154787896322</v>
       </c>
       <c r="H187" t="n">
-        <v>0.5029442156738106</v>
+        <v>0.5029442156738594</v>
       </c>
       <c r="I187" t="n">
-        <v>-0.8729800776260923</v>
+        <v>-0.8729800776261776</v>
       </c>
       <c r="J187" t="n">
         <v>370</v>
@@ -11108,10 +11108,10 @@
         <v>272</v>
       </c>
       <c r="N187" t="n">
-        <v>240.7009273550526</v>
+        <v>240.7009273550761</v>
       </c>
       <c r="O187" t="n">
-        <v>5.74973969879696</v>
+        <v>5.749739698797018</v>
       </c>
       <c r="P187" t="inlineStr">
         <is>
@@ -11144,13 +11144,13 @@
         <v>783</v>
       </c>
       <c r="G188" t="n">
-        <v>0.9757599258405013</v>
+        <v>0.9757599258405953</v>
       </c>
       <c r="H188" t="n">
-        <v>1.368560571751977</v>
+        <v>1.36856057175211</v>
       </c>
       <c r="I188" t="n">
-        <v>-0.8729800776260923</v>
+        <v>-0.8729800776261776</v>
       </c>
       <c r="J188" t="n">
         <v>570</v>
@@ -11165,10 +11165,10 @@
         <v>81</v>
       </c>
       <c r="N188" t="n">
-        <v>472.2163197255045</v>
+        <v>472.2163197255505</v>
       </c>
       <c r="O188" t="n">
-        <v>4.047430800001306</v>
+        <v>4.047430800001344</v>
       </c>
       <c r="P188" t="inlineStr">
         <is>
@@ -11201,13 +11201,13 @@
         <v>1432</v>
       </c>
       <c r="G189" t="n">
-        <v>1.315678139527189</v>
+        <v>1.315678139527316</v>
       </c>
       <c r="H189" t="n">
-        <v>0.9050929532192338</v>
+        <v>0.9050929532193215</v>
       </c>
       <c r="I189" t="n">
-        <v>-0.8729800776260923</v>
+        <v>-0.8729800776261776</v>
       </c>
       <c r="J189" t="n">
         <v>207</v>
@@ -11222,10 +11222,10 @@
         <v>145</v>
       </c>
       <c r="N189" t="n">
-        <v>139.677217220054</v>
+        <v>139.6772172200676</v>
       </c>
       <c r="O189" t="n">
-        <v>5.457404105035167</v>
+        <v>5.457404105035219</v>
       </c>
       <c r="P189" t="inlineStr">
         <is>
@@ -11258,13 +11258,13 @@
         <v>2536</v>
       </c>
       <c r="G190" t="n">
-        <v>1.065464532722591</v>
+        <v>1.065464532722694</v>
       </c>
       <c r="H190" t="n">
-        <v>0.779702532895478</v>
+        <v>0.7797025328955534</v>
       </c>
       <c r="I190" t="n">
-        <v>-0.8729800776260923</v>
+        <v>-0.8729800776261776</v>
       </c>
       <c r="J190" t="n">
         <v>558</v>
@@ -11279,10 +11279,10 @@
         <v>469</v>
       </c>
       <c r="N190" t="n">
-        <v>267.6696657720828</v>
+        <v>267.669665772109</v>
       </c>
       <c r="O190" t="n">
-        <v>4.41952354451921</v>
+        <v>4.419523544519253</v>
       </c>
       <c r="P190" t="inlineStr">
         <is>
@@ -11315,13 +11315,13 @@
         <v>2536</v>
       </c>
       <c r="G191" t="n">
-        <v>1.103673066181064</v>
+        <v>1.103673066181171</v>
       </c>
       <c r="H191" t="n">
-        <v>0.1960626078626384</v>
+        <v>0.1960626078626574</v>
       </c>
       <c r="I191" t="n">
-        <v>-0.8729800776260923</v>
+        <v>-0.8729800776261776</v>
       </c>
       <c r="J191" t="n">
         <v>404</v>
@@ -11336,10 +11336,10 @@
         <v>269</v>
       </c>
       <c r="N191" t="n">
-        <v>140.348440619908</v>
+        <v>140.3484406199217</v>
       </c>
       <c r="O191" t="n">
-        <v>4.578011704411098</v>
+        <v>4.578011704411143</v>
       </c>
       <c r="P191" t="inlineStr">
         <is>
@@ -11372,19 +11372,19 @@
         <v>2998</v>
       </c>
       <c r="G192" t="n">
-        <v>2.149197275513655</v>
+        <v>2.14919727551375</v>
       </c>
       <c r="H192" t="n">
-        <v>0.9652215132041635</v>
+        <v>0.9652215132042572</v>
       </c>
       <c r="I192" t="n">
-        <v>-0.8729800776260923</v>
+        <v>-0.8729800776261776</v>
       </c>
       <c r="J192" t="n">
         <v>462</v>
       </c>
       <c r="K192" t="n">
-        <v>69.05297139974664</v>
+        <v>69.05297139974437</v>
       </c>
       <c r="L192" t="n">
         <v>57</v>
@@ -11393,10 +11393,10 @@
         <v>407</v>
       </c>
       <c r="N192" t="n">
-        <v>189.4576362798508</v>
+        <v>189.4576362798718</v>
       </c>
       <c r="O192" t="n">
-        <v>8.914823224267939</v>
+        <v>8.914823224267552</v>
       </c>
       <c r="P192" t="inlineStr">
         <is>
@@ -11429,19 +11429,19 @@
         <v>299</v>
       </c>
       <c r="G193" t="n">
-        <v>0.7763240368910952</v>
+        <v>0.7763240368910919</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.01664900117736415</v>
+        <v>-0.01664900117736606</v>
       </c>
       <c r="I193" t="n">
-        <v>-0.8595471721067254</v>
+        <v>-0.8595471721068091</v>
       </c>
       <c r="J193" t="n">
         <v>299</v>
       </c>
       <c r="K193" t="n">
-        <v>33.43723177099331</v>
+        <v>33.43723177099235</v>
       </c>
       <c r="L193" t="n">
         <v>30</v>
@@ -11450,10 +11450,10 @@
         <v>271</v>
       </c>
       <c r="N193" t="n">
-        <v>88.884133460244</v>
+        <v>88.88413346025368</v>
       </c>
       <c r="O193" t="n">
-        <v>3.385157477707344</v>
+        <v>3.385157477707032</v>
       </c>
       <c r="P193" t="inlineStr">
         <is>
@@ -11486,13 +11486,13 @@
         <v>723</v>
       </c>
       <c r="G194" t="n">
-        <v>0.727214228741924</v>
+        <v>0.7272142287419943</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.1607846536222863</v>
+        <v>-0.1607846536223023</v>
       </c>
       <c r="I194" t="n">
-        <v>-0.8595471721067254</v>
+        <v>-0.8595471721068091</v>
       </c>
       <c r="J194" t="n">
         <v>424</v>
@@ -11507,10 +11507,10 @@
         <v>334</v>
       </c>
       <c r="N194" t="n">
-        <v>108.180494968981</v>
+        <v>108.1804949689915</v>
       </c>
       <c r="O194" t="n">
-        <v>3.171014379741847</v>
+        <v>3.171014379741875</v>
       </c>
       <c r="P194" t="inlineStr">
         <is>
@@ -11543,13 +11543,13 @@
         <v>723</v>
       </c>
       <c r="G195" t="n">
-        <v>0.5964740988380004</v>
+        <v>0.5964740988380579</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.2113679156632058</v>
+        <v>-0.2113679156632267</v>
       </c>
       <c r="I195" t="n">
-        <v>-0.8595471721067254</v>
+        <v>-0.8595471721068091</v>
       </c>
       <c r="J195" t="n">
         <v>78</v>
@@ -11564,10 +11564,10 @@
         <v>36</v>
       </c>
       <c r="N195" t="n">
-        <v>22.71513666913237</v>
+        <v>22.71513666913457</v>
       </c>
       <c r="O195" t="n">
-        <v>2.600922630228258</v>
+        <v>2.60092263022828</v>
       </c>
       <c r="P195" t="inlineStr">
         <is>
@@ -11600,13 +11600,13 @@
         <v>1512</v>
       </c>
       <c r="G196" t="n">
-        <v>0.8358683209027575</v>
+        <v>0.8358683209028381</v>
       </c>
       <c r="H196" t="n">
-        <v>0.2835351220209151</v>
+        <v>0.2835351220209424</v>
       </c>
       <c r="I196" t="n">
-        <v>-0.8595471721067254</v>
+        <v>-0.8595471721068091</v>
       </c>
       <c r="J196" t="n">
         <v>199</v>
@@ -11621,10 +11621,10 @@
         <v>27</v>
       </c>
       <c r="N196" t="n">
-        <v>101.3671676136135</v>
+        <v>101.3671676136233</v>
       </c>
       <c r="O196" t="n">
-        <v>3.644800060827677</v>
+        <v>3.644800060827708</v>
       </c>
       <c r="P196" t="inlineStr">
         <is>
@@ -11657,13 +11657,13 @@
         <v>1951</v>
       </c>
       <c r="G197" t="n">
-        <v>0.7701547476121405</v>
+        <v>0.770154747612215</v>
       </c>
       <c r="H197" t="n">
-        <v>0.6226432301796506</v>
+        <v>0.622643230179711</v>
       </c>
       <c r="I197" t="n">
-        <v>-0.8595471721067254</v>
+        <v>-0.8595471721068091</v>
       </c>
       <c r="J197" t="n">
         <v>255</v>
@@ -11678,10 +11678,10 @@
         <v>223</v>
       </c>
       <c r="N197" t="n">
-        <v>194.8400897034508</v>
+        <v>194.8400897034698</v>
       </c>
       <c r="O197" t="n">
-        <v>3.358256319502291</v>
+        <v>3.358256319502321</v>
       </c>
       <c r="P197" t="inlineStr">
         <is>
@@ -11714,13 +11714,13 @@
         <v>1951</v>
       </c>
       <c r="G198" t="n">
-        <v>1.210497073868268</v>
+        <v>1.210497073868386</v>
       </c>
       <c r="H198" t="n">
-        <v>0.5537127108011756</v>
+        <v>0.5537127108012295</v>
       </c>
       <c r="I198" t="n">
-        <v>-0.8595471721067254</v>
+        <v>-0.8595471721068091</v>
       </c>
       <c r="J198" t="n">
         <v>169</v>
@@ -11735,10 +11735,10 @@
         <v>87</v>
       </c>
       <c r="N198" t="n">
-        <v>114.2324891481334</v>
+        <v>114.2324891481445</v>
       </c>
       <c r="O198" t="n">
-        <v>5.278367056310618</v>
+        <v>5.278367056310668</v>
       </c>
       <c r="P198" t="inlineStr">
         <is>
@@ -11771,13 +11771,13 @@
         <v>2414</v>
       </c>
       <c r="G199" t="n">
-        <v>3.343992516038544</v>
+        <v>3.343992516038868</v>
       </c>
       <c r="H199" t="n">
-        <v>2.148576544578847</v>
+        <v>2.148576544579056</v>
       </c>
       <c r="I199" t="n">
-        <v>-0.8595471721067254</v>
+        <v>-0.8595471721068091</v>
       </c>
       <c r="J199" t="n">
         <v>463</v>
@@ -11792,10 +11792,10 @@
         <v>361</v>
       </c>
       <c r="N199" t="n">
-        <v>518.3155842971166</v>
+        <v>518.3155842971671</v>
       </c>
       <c r="O199" t="n">
-        <v>14.58146435397989</v>
+        <v>14.58146435398002</v>
       </c>
       <c r="P199" t="inlineStr">
         <is>
@@ -11828,13 +11828,13 @@
         <v>2414</v>
       </c>
       <c r="G200" t="n">
-        <v>1.426603081210362</v>
+        <v>1.4266030812105</v>
       </c>
       <c r="H200" t="n">
-        <v>0.7447859066763958</v>
+        <v>0.744785906676468</v>
       </c>
       <c r="I200" t="n">
-        <v>-0.8595471721067254</v>
+        <v>-0.8595471721068091</v>
       </c>
       <c r="J200" t="n">
         <v>249</v>
@@ -11849,10 +11849,10 @@
         <v>195</v>
       </c>
       <c r="N200" t="n">
-        <v>159.0402489884947</v>
+        <v>159.0402489885102</v>
       </c>
       <c r="O200" t="n">
-        <v>6.220696331159791</v>
+        <v>6.220696331159847</v>
       </c>
       <c r="P200" t="inlineStr">
         <is>
@@ -11885,13 +11885,13 @@
         <v>1285</v>
       </c>
       <c r="G201" t="n">
-        <v>1.924585668445032</v>
+        <v>1.924585668445219</v>
       </c>
       <c r="H201" t="n">
-        <v>2.234437413302821</v>
+        <v>2.234437413303038</v>
       </c>
       <c r="I201" t="n">
-        <v>-0.9070164698935991</v>
+        <v>-0.9070164698936876</v>
       </c>
       <c r="J201" t="n">
         <v>203</v>
@@ -11906,10 +11906,10 @@
         <v>125</v>
       </c>
       <c r="N201" t="n">
-        <v>467.1392389990058</v>
+        <v>467.1392389990513</v>
       </c>
       <c r="O201" t="n">
-        <v>7.905557757922405</v>
+        <v>7.905557757922396</v>
       </c>
       <c r="P201" t="inlineStr">
         <is>
@@ -11942,13 +11942,13 @@
         <v>2375</v>
       </c>
       <c r="G202" t="n">
-        <v>0.899919600215766</v>
+        <v>0.8999196002158528</v>
       </c>
       <c r="H202" t="n">
-        <v>0.08647268087964631</v>
+        <v>0.08647268087965433</v>
       </c>
       <c r="I202" t="n">
-        <v>-0.9070164698935991</v>
+        <v>-0.9070164698936876</v>
       </c>
       <c r="J202" t="n">
         <v>273</v>
@@ -11963,10 +11963,10 @@
         <v>238</v>
       </c>
       <c r="N202" t="n">
-        <v>139.7877311551382</v>
+        <v>139.7877311551518</v>
       </c>
       <c r="O202" t="n">
-        <v>3.696570380647294</v>
+        <v>3.696570380647288</v>
       </c>
       <c r="P202" t="inlineStr">
         <is>
@@ -11999,19 +11999,19 @@
         <v>2998</v>
       </c>
       <c r="G203" t="n">
-        <v>1.646014891445015</v>
+        <v>1.64601489144513</v>
       </c>
       <c r="H203" t="n">
-        <v>1.173148612062884</v>
+        <v>1.173148612062997</v>
       </c>
       <c r="I203" t="n">
-        <v>-0.9070164698935991</v>
+        <v>-0.9070164698936876</v>
       </c>
       <c r="J203" t="n">
         <v>261</v>
       </c>
       <c r="K203" t="n">
-        <v>80.78579576618722</v>
+        <v>80.78579576618586</v>
       </c>
       <c r="L203" t="n">
         <v>114</v>
@@ -12020,10 +12020,10 @@
         <v>149</v>
       </c>
       <c r="N203" t="n">
-        <v>240.3569992202147</v>
+        <v>240.3569992202385</v>
       </c>
       <c r="O203" t="n">
-        <v>6.761281666007897</v>
+        <v>6.761281666007706</v>
       </c>
       <c r="P203" t="inlineStr">
         <is>
@@ -12056,13 +12056,13 @@
         <v>608</v>
       </c>
       <c r="G204" t="n">
-        <v>0.9433681119628776</v>
+        <v>0.9433681119629688</v>
       </c>
       <c r="H204" t="n">
-        <v>0.04172605523887927</v>
+        <v>0.04172605523888287</v>
       </c>
       <c r="I204" t="n">
-        <v>-0.8127580418872892</v>
+        <v>-0.8127580418873682</v>
       </c>
       <c r="J204" t="n">
         <v>351</v>
@@ -12077,10 +12077,10 @@
         <v>221</v>
       </c>
       <c r="N204" t="n">
-        <v>111.2777394857204</v>
+        <v>111.2777394857311</v>
       </c>
       <c r="O204" t="n">
-        <v>4.266097544695887</v>
+        <v>4.26609754469588</v>
       </c>
       <c r="P204" t="inlineStr">
         <is>
@@ -12113,13 +12113,13 @@
         <v>711</v>
       </c>
       <c r="G205" t="n">
-        <v>0.5572156550582874</v>
+        <v>0.5572156550583413</v>
       </c>
       <c r="H205" t="n">
-        <v>0.07302886375758533</v>
+        <v>0.07302886375759218</v>
       </c>
       <c r="I205" t="n">
-        <v>-0.8127580418872892</v>
+        <v>-0.8127580418873682</v>
       </c>
       <c r="J205" t="n">
         <v>454</v>
@@ -12134,10 +12134,10 @@
         <v>33</v>
       </c>
       <c r="N205" t="n">
-        <v>159.9788564401221</v>
+        <v>159.9788564401376</v>
       </c>
       <c r="O205" t="n">
-        <v>2.519839612729895</v>
+        <v>2.519839612729891</v>
       </c>
       <c r="P205" t="inlineStr">
         <is>
@@ -12170,13 +12170,13 @@
         <v>1572</v>
       </c>
       <c r="G206" t="n">
-        <v>0.8132410756902313</v>
+        <v>0.8132410756903093</v>
       </c>
       <c r="H206" t="n">
-        <v>0.4534598754518258</v>
+        <v>0.4534598754518697</v>
       </c>
       <c r="I206" t="n">
-        <v>-0.8127580418872892</v>
+        <v>-0.8127580418873682</v>
       </c>
       <c r="J206" t="n">
         <v>542</v>
@@ -12191,10 +12191,10 @@
         <v>26</v>
       </c>
       <c r="N206" t="n">
-        <v>149.7934014645118</v>
+        <v>149.7934014645262</v>
       </c>
       <c r="O206" t="n">
-        <v>3.677637300066445</v>
+        <v>3.677637300066437</v>
       </c>
       <c r="P206" t="inlineStr">
         <is>
@@ -12227,13 +12227,13 @@
         <v>2129</v>
       </c>
       <c r="G207" t="n">
-        <v>0.5542405593192981</v>
+        <v>0.5542405593193512</v>
       </c>
       <c r="H207" t="n">
-        <v>1.480882613022117</v>
+        <v>1.480882613022261</v>
       </c>
       <c r="I207" t="n">
-        <v>-0.8127580418872892</v>
+        <v>-0.8127580418873682</v>
       </c>
       <c r="J207" t="n">
         <v>166</v>
@@ -12248,10 +12248,10 @@
         <v>132</v>
       </c>
       <c r="N207" t="n">
-        <v>195.7355993759564</v>
+        <v>195.7355993759755</v>
       </c>
       <c r="O207" t="n">
-        <v>2.506385640238786</v>
+        <v>2.506385640238781</v>
       </c>
       <c r="P207" t="inlineStr">
         <is>
@@ -12284,13 +12284,13 @@
         <v>2886</v>
       </c>
       <c r="G208" t="n">
-        <v>0.589327692890302</v>
+        <v>0.589327692890359</v>
       </c>
       <c r="H208" t="n">
-        <v>0.2677780002505664</v>
+        <v>0.2677780002505923</v>
       </c>
       <c r="I208" t="n">
-        <v>-0.8127580418872892</v>
+        <v>-0.8127580418873682</v>
       </c>
       <c r="J208" t="n">
         <v>443</v>
@@ -12305,10 +12305,10 @@
         <v>343</v>
       </c>
       <c r="N208" t="n">
-        <v>193.8626151967481</v>
+        <v>193.8626151967669</v>
       </c>
       <c r="O208" t="n">
-        <v>2.665056611283403</v>
+        <v>2.665056611283399</v>
       </c>
       <c r="P208" t="inlineStr">
         <is>
@@ -12341,13 +12341,13 @@
         <v>2886</v>
       </c>
       <c r="G209" t="n">
-        <v>0.8758919972408836</v>
+        <v>0.8758919972409683</v>
       </c>
       <c r="H209" t="n">
-        <v>0.1349420331713678</v>
+        <v>0.1349420331713807</v>
       </c>
       <c r="I209" t="n">
-        <v>-0.8127580418872892</v>
+        <v>-0.8127580418873682</v>
       </c>
       <c r="J209" t="n">
         <v>241</v>
@@ -12362,10 +12362,10 @@
         <v>206</v>
       </c>
       <c r="N209" t="n">
-        <v>67.71331936682095</v>
+        <v>67.71331936682751</v>
       </c>
       <c r="O209" t="n">
-        <v>3.960957182528924</v>
+        <v>3.960957182528917</v>
       </c>
       <c r="P209" t="inlineStr">
         <is>
@@ -12398,13 +12398,13 @@
         <v>2886</v>
       </c>
       <c r="G210" t="n">
-        <v>0.7278295522724987</v>
+        <v>0.727829552272569</v>
       </c>
       <c r="H210" t="n">
-        <v>-0.219146325267267</v>
+        <v>-0.2191463252672886</v>
       </c>
       <c r="I210" t="n">
-        <v>-0.8127580418872892</v>
+        <v>-0.8127580418873682</v>
       </c>
       <c r="J210" t="n">
         <v>163</v>
@@ -12419,10 +12419,10 @@
         <v>86</v>
       </c>
       <c r="N210" t="n">
-        <v>27.08834726126214</v>
+        <v>27.08834726126474</v>
       </c>
       <c r="O210" t="n">
-        <v>3.291389465609791</v>
+        <v>3.291389465609785</v>
       </c>
       <c r="P210" t="inlineStr">
         <is>
@@ -12455,19 +12455,19 @@
         <v>2998</v>
       </c>
       <c r="G211" t="n">
-        <v>0.7827453983681372</v>
+        <v>0.7827453983681353</v>
       </c>
       <c r="H211" t="n">
-        <v>0.02301854363935087</v>
+        <v>0.02301854363935262</v>
       </c>
       <c r="I211" t="n">
-        <v>-0.8127580418872892</v>
+        <v>-0.8127580418873682</v>
       </c>
       <c r="J211" t="n">
         <v>112</v>
       </c>
       <c r="K211" t="n">
-        <v>25.41612942804977</v>
+        <v>25.41612942804841</v>
       </c>
       <c r="L211" t="n">
         <v>60</v>
@@ -12476,10 +12476,10 @@
         <v>54</v>
       </c>
       <c r="N211" t="n">
-        <v>17.63938808034247</v>
+        <v>17.63938808034571</v>
       </c>
       <c r="O211" t="n">
-        <v>3.539729804044634</v>
+        <v>3.539729804044278</v>
       </c>
       <c r="P211" t="inlineStr">
         <is>
@@ -12512,13 +12512,13 @@
         <v>259</v>
       </c>
       <c r="G212" t="n">
-        <v>1.183174340251823</v>
+        <v>1.183174340251938</v>
       </c>
       <c r="H212" t="n">
-        <v>1.033640095566168</v>
+        <v>1.033640095566269</v>
       </c>
       <c r="I212" t="n">
-        <v>-0.9459966362855516</v>
+        <v>-0.9459966362856437</v>
       </c>
       <c r="J212" t="n">
         <v>190</v>
@@ -12533,10 +12533,10 @@
         <v>137</v>
       </c>
       <c r="N212" t="n">
-        <v>183.4895735540987</v>
+        <v>183.4895735541166</v>
       </c>
       <c r="O212" t="n">
-        <v>4.163404927029942</v>
+        <v>4.163404927029938</v>
       </c>
       <c r="P212" t="inlineStr">
         <is>
@@ -12569,19 +12569,19 @@
         <v>366</v>
       </c>
       <c r="G213" t="n">
-        <v>1.019569042072825</v>
+        <v>1.019569042072923</v>
       </c>
       <c r="H213" t="n">
-        <v>0.3686863678471702</v>
+        <v>0.3686863678472056</v>
       </c>
       <c r="I213" t="n">
-        <v>-0.9459966362855516</v>
+        <v>-0.9459966362856437</v>
       </c>
       <c r="J213" t="n">
         <v>107</v>
       </c>
       <c r="K213" t="n">
-        <v>28.5030836523805</v>
+        <v>28.50308365238055</v>
       </c>
       <c r="L213" t="n">
         <v>34</v>
@@ -12590,10 +12590,10 @@
         <v>75</v>
       </c>
       <c r="N213" t="n">
-        <v>59.88222492315435</v>
+        <v>59.88222492316017</v>
       </c>
       <c r="O213" t="n">
-        <v>3.587703543595891</v>
+        <v>3.587703543595886</v>
       </c>
       <c r="P213" t="inlineStr">
         <is>
@@ -12626,13 +12626,13 @@
         <v>504</v>
       </c>
       <c r="G214" t="n">
-        <v>1.847369849450984</v>
+        <v>1.847369849451163</v>
       </c>
       <c r="H214" t="n">
-        <v>1.891913563781396</v>
+        <v>1.89191356378158</v>
       </c>
       <c r="I214" t="n">
-        <v>-0.9459966362855516</v>
+        <v>-0.9459966362856437</v>
       </c>
       <c r="J214" t="n">
         <v>245</v>
@@ -12647,10 +12647,10 @@
         <v>61</v>
       </c>
       <c r="N214" t="n">
-        <v>282.17752557644</v>
+        <v>282.1775255764675</v>
       </c>
       <c r="O214" t="n">
-        <v>6.500604747406698</v>
+        <v>6.500604747406688</v>
       </c>
       <c r="P214" t="inlineStr">
         <is>
@@ -12683,13 +12683,13 @@
         <v>1516</v>
       </c>
       <c r="G215" t="n">
-        <v>1.322318213752582</v>
+        <v>1.32231821375271</v>
       </c>
       <c r="H215" t="n">
-        <v>0.3081694338688012</v>
+        <v>0.3081694338688308</v>
       </c>
       <c r="I215" t="n">
-        <v>-0.9459966362855516</v>
+        <v>-0.9459966362856437</v>
       </c>
       <c r="J215" t="n">
         <v>560</v>
@@ -12704,10 +12704,10 @@
         <v>284</v>
       </c>
       <c r="N215" t="n">
-        <v>144.9145632957893</v>
+        <v>144.9145632958033</v>
       </c>
       <c r="O215" t="n">
-        <v>4.653030393701058</v>
+        <v>4.653030393701052</v>
       </c>
       <c r="P215" t="inlineStr">
         <is>
@@ -12740,13 +12740,13 @@
         <v>1516</v>
       </c>
       <c r="G216" t="n">
-        <v>0.9824015127830024</v>
+        <v>0.9824015127830974</v>
       </c>
       <c r="H216" t="n">
-        <v>0.2224539263881965</v>
+        <v>0.2224539263882177</v>
       </c>
       <c r="I216" t="n">
-        <v>-0.9459966362855516</v>
+        <v>-0.9459966362856437</v>
       </c>
       <c r="J216" t="n">
         <v>198</v>
@@ -12761,10 +12761,10 @@
         <v>121</v>
       </c>
       <c r="N216" t="n">
-        <v>76.35556064811738</v>
+        <v>76.35556064812479</v>
       </c>
       <c r="O216" t="n">
-        <v>3.456916837608132</v>
+        <v>3.456916837608127</v>
       </c>
       <c r="P216" t="inlineStr">
         <is>
@@ -12797,13 +12797,13 @@
         <v>2325</v>
       </c>
       <c r="G217" t="n">
-        <v>0.8664223058255067</v>
+        <v>0.8664223058255904</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.2217474946195737</v>
+        <v>-0.2217474946195957</v>
       </c>
       <c r="I217" t="n">
-        <v>-0.9459966362855516</v>
+        <v>-0.9459966362856437</v>
       </c>
       <c r="J217" t="n">
         <v>270</v>
@@ -12818,10 +12818,10 @@
         <v>84</v>
       </c>
       <c r="N217" t="n">
-        <v>61.14914092977389</v>
+        <v>61.1491409297798</v>
       </c>
       <c r="O217" t="n">
-        <v>3.048804199214461</v>
+        <v>3.048804199214457</v>
       </c>
       <c r="P217" t="inlineStr">
         <is>
@@ -12854,19 +12854,19 @@
         <v>2979</v>
       </c>
       <c r="G218" t="n">
-        <v>3.004063695593993</v>
+        <v>3.004063695594237</v>
       </c>
       <c r="H218" t="n">
-        <v>2.44489733126576</v>
+        <v>2.444897331265997</v>
       </c>
       <c r="I218" t="n">
-        <v>-0.9459966362855516</v>
+        <v>-0.9459966362856437</v>
       </c>
       <c r="J218" t="n">
         <v>352</v>
       </c>
       <c r="K218" t="n">
-        <v>43.8815134332649</v>
+        <v>43.88151343326399</v>
       </c>
       <c r="L218" t="n">
         <v>88</v>
@@ -12875,10 +12875,10 @@
         <v>266</v>
       </c>
       <c r="N218" t="n">
-        <v>592.4439175416867</v>
+        <v>592.4439175417447</v>
       </c>
       <c r="O218" t="n">
-        <v>10.57082896903074</v>
+        <v>10.57082896903056</v>
       </c>
       <c r="P218" t="inlineStr">
         <is>
@@ -12911,13 +12911,13 @@
         <v>2979</v>
       </c>
       <c r="G219" t="n">
-        <v>2.476417182413281</v>
+        <v>2.47641718241352</v>
       </c>
       <c r="H219" t="n">
-        <v>2.112228593142579</v>
+        <v>2.112228593142785</v>
       </c>
       <c r="I219" t="n">
-        <v>-0.9459966362855516</v>
+        <v>-0.9459966362856437</v>
       </c>
       <c r="J219" t="n">
         <v>194</v>
@@ -12932,10 +12932,10 @@
         <v>159</v>
       </c>
       <c r="N219" t="n">
-        <v>356.8598387585387</v>
+        <v>356.8598387585737</v>
       </c>
       <c r="O219" t="n">
-        <v>8.714123648461342</v>
+        <v>8.714123648461332</v>
       </c>
       <c r="P219" t="inlineStr">
         <is>
@@ -12968,13 +12968,13 @@
         <v>530</v>
       </c>
       <c r="G220" t="n">
-        <v>1.068328541562231</v>
+        <v>1.068328541562334</v>
       </c>
       <c r="H220" t="n">
-        <v>0.9253799460549964</v>
+        <v>0.9253799460550859</v>
       </c>
       <c r="I220" t="n">
-        <v>-0.7477217792995814</v>
+        <v>-0.7477217792996541</v>
       </c>
       <c r="J220" t="n">
         <v>399</v>
@@ -12989,10 +12989,10 @@
         <v>359</v>
       </c>
       <c r="N220" t="n">
-        <v>144.2325869889657</v>
+        <v>144.2325869889797</v>
       </c>
       <c r="O220" t="n">
-        <v>4.110762437259796</v>
+        <v>4.110762437259805</v>
       </c>
       <c r="P220" t="inlineStr">
         <is>
@@ -13025,19 +13025,19 @@
         <v>530</v>
       </c>
       <c r="G221" t="n">
-        <v>0.8815095117834395</v>
+        <v>0.8815095117835247</v>
       </c>
       <c r="H221" t="n">
-        <v>0.286667888490126</v>
+        <v>0.2866678884901535</v>
       </c>
       <c r="I221" t="n">
-        <v>-0.7477217792995814</v>
+        <v>-0.7477217792996541</v>
       </c>
       <c r="J221" t="n">
         <v>321</v>
       </c>
       <c r="K221" t="n">
-        <v>30.43261498057154</v>
+        <v>30.43261498057157</v>
       </c>
       <c r="L221" t="n">
         <v>37</v>
@@ -13046,10 +13046,10 @@
         <v>286</v>
       </c>
       <c r="N221" t="n">
-        <v>61.49508559096478</v>
+        <v>61.49508559097071</v>
       </c>
       <c r="O221" t="n">
-        <v>3.391911802550583</v>
+        <v>3.391911802550591</v>
       </c>
       <c r="P221" t="inlineStr">
         <is>
@@ -13082,13 +13082,13 @@
         <v>588</v>
       </c>
       <c r="G222" t="n">
-        <v>0.8508612915055487</v>
+        <v>0.8508612915056305</v>
       </c>
       <c r="H222" t="n">
-        <v>0.1594619485801084</v>
+        <v>0.1594619485801231</v>
       </c>
       <c r="I222" t="n">
-        <v>-0.7477217792995814</v>
+        <v>-0.7477217792996541</v>
       </c>
       <c r="J222" t="n">
         <v>58</v>
@@ -13103,10 +13103,10 @@
         <v>26</v>
       </c>
       <c r="N222" t="n">
-        <v>11.60756692006587</v>
+        <v>11.60756692006699</v>
       </c>
       <c r="O222" t="n">
-        <v>3.273982207125767</v>
+        <v>3.273982207125774</v>
       </c>
       <c r="P222" t="inlineStr">
         <is>
@@ -13139,13 +13139,13 @@
         <v>706</v>
       </c>
       <c r="G223" t="n">
-        <v>0.8080932524226692</v>
+        <v>0.8080932524227475</v>
       </c>
       <c r="H223" t="n">
-        <v>0.208113237389926</v>
+        <v>0.2081132373899461</v>
       </c>
       <c r="I223" t="n">
-        <v>-0.7477217792995814</v>
+        <v>-0.7477217792996541</v>
       </c>
       <c r="J223" t="n">
         <v>176</v>
@@ -13160,10 +13160,10 @@
         <v>41</v>
       </c>
       <c r="N223" t="n">
-        <v>77.56455062667068</v>
+        <v>77.5645506266782</v>
       </c>
       <c r="O223" t="n">
-        <v>3.109417429777339</v>
+        <v>3.109417429777348</v>
       </c>
       <c r="P223" t="inlineStr">
         <is>
@@ -13196,13 +13196,13 @@
         <v>1598</v>
       </c>
       <c r="G224" t="n">
-        <v>1.094927854233898</v>
+        <v>1.094927854234005</v>
       </c>
       <c r="H224" t="n">
-        <v>0.08871397198113497</v>
+        <v>0.08871397198114331</v>
       </c>
       <c r="I224" t="n">
-        <v>-0.7477217792995814</v>
+        <v>-0.7477217792996541</v>
       </c>
       <c r="J224" t="n">
         <v>386</v>
@@ -13217,10 +13217,10 @@
         <v>182</v>
       </c>
       <c r="N224" t="n">
-        <v>95.65446455624041</v>
+        <v>95.65446455624965</v>
       </c>
       <c r="O224" t="n">
-        <v>4.213112464553574</v>
+        <v>4.213112464553586</v>
       </c>
       <c r="P224" t="inlineStr">
         <is>
@@ -13253,13 +13253,13 @@
         <v>1809</v>
       </c>
       <c r="G225" t="n">
-        <v>0.9211731861909582</v>
+        <v>0.9211731861910475</v>
       </c>
       <c r="H225" t="n">
-        <v>0.2414678310337747</v>
+        <v>0.241467831033798</v>
       </c>
       <c r="I225" t="n">
-        <v>-0.7477217792995814</v>
+        <v>-0.7477217792996541</v>
       </c>
       <c r="J225" t="n">
         <v>597</v>
@@ -13274,10 +13274,10 @@
         <v>58</v>
       </c>
       <c r="N225" t="n">
-        <v>197.5857214384397</v>
+        <v>197.5857214384588</v>
       </c>
       <c r="O225" t="n">
-        <v>3.544531466385178</v>
+        <v>3.544531466385187</v>
       </c>
       <c r="P225" t="inlineStr">
         <is>
@@ -13310,13 +13310,13 @@
         <v>2571</v>
       </c>
       <c r="G226" t="n">
-        <v>1.111158029314871</v>
+        <v>1.111158029314978</v>
       </c>
       <c r="H226" t="n">
-        <v>0.5475065717702354</v>
+        <v>0.5475065717702884</v>
       </c>
       <c r="I226" t="n">
-        <v>-0.7477217792995814</v>
+        <v>-0.7477217792996541</v>
       </c>
       <c r="J226" t="n">
         <v>182</v>
@@ -13331,10 +13331,10 @@
         <v>108</v>
       </c>
       <c r="N226" t="n">
-        <v>130.7562570936479</v>
+        <v>130.7562570936607</v>
       </c>
       <c r="O226" t="n">
-        <v>4.275563659553429</v>
+        <v>4.275563659553435</v>
       </c>
       <c r="P226" t="inlineStr">
         <is>
@@ -13367,13 +13367,13 @@
         <v>2998</v>
       </c>
       <c r="G227" t="n">
-        <v>0.8365544287551308</v>
+        <v>0.8365544287552117</v>
       </c>
       <c r="H227" t="n">
-        <v>0.1082241252757107</v>
+        <v>0.108224125275721</v>
       </c>
       <c r="I227" t="n">
-        <v>-0.7477217792995814</v>
+        <v>-0.7477217792996541</v>
       </c>
       <c r="J227" t="n">
         <v>152</v>
@@ -13388,10 +13388,10 @@
         <v>123</v>
       </c>
       <c r="N227" t="n">
-        <v>59.79053764291649</v>
+        <v>59.790537642924</v>
       </c>
       <c r="O227" t="n">
-        <v>3.218931619500871</v>
+        <v>3.218931619500879</v>
       </c>
       <c r="P227" t="inlineStr">
         <is>
@@ -13424,13 +13424,13 @@
         <v>903</v>
       </c>
       <c r="G228" t="n">
-        <v>1.758273613757242</v>
+        <v>1.758273613757413</v>
       </c>
       <c r="H228" t="n">
-        <v>1.818608907370823</v>
+        <v>1.818608907371001</v>
       </c>
       <c r="I228" t="n">
-        <v>-1.238150252587611</v>
+        <v>-1.238150252587731</v>
       </c>
       <c r="J228" t="n">
         <v>410</v>
@@ -13445,10 +13445,10 @@
         <v>326</v>
       </c>
       <c r="N228" t="n">
-        <v>576.4144372916649</v>
+        <v>576.414437291721</v>
       </c>
       <c r="O228" t="n">
-        <v>3.007984075721045</v>
+        <v>3.007984075721044</v>
       </c>
       <c r="P228" t="inlineStr">
         <is>
@@ -13481,13 +13481,13 @@
         <v>903</v>
       </c>
       <c r="G229" t="n">
-        <v>1.41195702580686</v>
+        <v>1.411957025806996</v>
       </c>
       <c r="H229" t="n">
-        <v>1.197457528383846</v>
+        <v>1.197457528383962</v>
       </c>
       <c r="I229" t="n">
-        <v>-1.238150252587611</v>
+        <v>-1.238150252587731</v>
       </c>
       <c r="J229" t="n">
         <v>239</v>
@@ -13502,10 +13502,10 @@
         <v>193</v>
       </c>
       <c r="N229" t="n">
-        <v>192.609318690354</v>
+        <v>192.6093186903728</v>
       </c>
       <c r="O229" t="n">
-        <v>2.415519527790553</v>
+        <v>2.415519527790551</v>
       </c>
       <c r="P229" t="inlineStr">
         <is>
@@ -13538,13 +13538,13 @@
         <v>2307</v>
       </c>
       <c r="G230" t="n">
-        <v>1.734601440200218</v>
+        <v>1.734601440200386</v>
       </c>
       <c r="H230" t="n">
-        <v>0.5818191923642382</v>
+        <v>0.5818191923642942</v>
       </c>
       <c r="I230" t="n">
-        <v>-1.238150252587611</v>
+        <v>-1.238150252587731</v>
       </c>
       <c r="J230" t="n">
         <v>250</v>
@@ -13559,10 +13559,10 @@
         <v>209</v>
       </c>
       <c r="N230" t="n">
-        <v>147.524517482696</v>
+        <v>147.5245174827103</v>
       </c>
       <c r="O230" t="n">
-        <v>2.967486669321892</v>
+        <v>2.967486669321891</v>
       </c>
       <c r="P230" t="inlineStr">
         <is>
@@ -13595,13 +13595,13 @@
         <v>2451</v>
       </c>
       <c r="G231" t="n">
-        <v>1.977196925465047</v>
+        <v>1.977196925465239</v>
       </c>
       <c r="H231" t="n">
-        <v>0.7481930151382349</v>
+        <v>0.7481930151383076</v>
       </c>
       <c r="I231" t="n">
-        <v>-1.238150252587611</v>
+        <v>-1.238150252587731</v>
       </c>
       <c r="J231" t="n">
         <v>144</v>
@@ -13616,10 +13616,10 @@
         <v>86</v>
       </c>
       <c r="N231" t="n">
-        <v>143.323922002428</v>
+        <v>143.323922002442</v>
       </c>
       <c r="O231" t="n">
-        <v>3.382509309034425</v>
+        <v>3.382509309034424</v>
       </c>
       <c r="P231" t="inlineStr">
         <is>
@@ -13652,13 +13652,13 @@
         <v>2610</v>
       </c>
       <c r="G232" t="n">
-        <v>1.451033364117721</v>
+        <v>1.451033364117861</v>
       </c>
       <c r="H232" t="n">
-        <v>0.4314792207115559</v>
+        <v>0.4314792207115975</v>
       </c>
       <c r="I232" t="n">
-        <v>-1.238150252587611</v>
+        <v>-1.238150252587731</v>
       </c>
       <c r="J232" t="n">
         <v>159</v>
@@ -13673,10 +13673,10 @@
         <v>37</v>
       </c>
       <c r="N232" t="n">
-        <v>147.4887490673794</v>
+        <v>147.4887490673938</v>
       </c>
       <c r="O232" t="n">
-        <v>2.48236976228016</v>
+        <v>2.482369762280158</v>
       </c>
       <c r="P232" t="inlineStr">
         <is>
@@ -13709,13 +13709,13 @@
         <v>481</v>
       </c>
       <c r="G233" t="n">
-        <v>1.933965604035609</v>
+        <v>1.933965604035795</v>
       </c>
       <c r="H233" t="n">
-        <v>1.898217905164861</v>
+        <v>1.898217905165044</v>
       </c>
       <c r="I233" t="n">
-        <v>-0.9376698366114709</v>
+        <v>-0.9376698366115621</v>
       </c>
       <c r="J233" t="n">
         <v>208</v>
@@ -13730,10 +13730,10 @@
         <v>113</v>
       </c>
       <c r="N233" t="n">
-        <v>266.4267339786612</v>
+        <v>266.4267339786871</v>
       </c>
       <c r="O233" t="n">
-        <v>4.881010449805618</v>
+        <v>4.881010449805623</v>
       </c>
       <c r="P233" t="inlineStr">
         <is>
@@ -13766,13 +13766,13 @@
         <v>1129</v>
       </c>
       <c r="G234" t="n">
-        <v>2.089898768859585</v>
+        <v>2.089898768859788</v>
       </c>
       <c r="H234" t="n">
-        <v>1.769638743478443</v>
+        <v>1.769638743478614</v>
       </c>
       <c r="I234" t="n">
-        <v>-0.9376698366114709</v>
+        <v>-0.9376698366115621</v>
       </c>
       <c r="J234" t="n">
         <v>398</v>
@@ -13787,10 +13787,10 @@
         <v>310</v>
       </c>
       <c r="N234" t="n">
-        <v>148.6350556412691</v>
+        <v>148.6350556412835</v>
       </c>
       <c r="O234" t="n">
-        <v>5.27456005864503</v>
+        <v>5.274560058645037</v>
       </c>
       <c r="P234" t="inlineStr">
         <is>
@@ -13823,13 +13823,13 @@
         <v>1545</v>
       </c>
       <c r="G235" t="n">
-        <v>1.314071291095926</v>
+        <v>1.314071291096054</v>
       </c>
       <c r="H235" t="n">
-        <v>0.2810825031473965</v>
+        <v>0.2810825031474235</v>
       </c>
       <c r="I235" t="n">
-        <v>-0.9376698366114709</v>
+        <v>-0.9376698366115621</v>
       </c>
       <c r="J235" t="n">
         <v>416</v>
@@ -13844,10 +13844,10 @@
         <v>151</v>
       </c>
       <c r="N235" t="n">
-        <v>153.5527736622805</v>
+        <v>153.5527736622954</v>
       </c>
       <c r="O235" t="n">
-        <v>3.316499368057365</v>
+        <v>3.31649936805737</v>
       </c>
       <c r="P235" t="inlineStr">
         <is>
@@ -13880,13 +13880,13 @@
         <v>176</v>
       </c>
       <c r="G236" t="n">
-        <v>2.174498550225713</v>
+        <v>2.174498550225924</v>
       </c>
       <c r="H236" t="n">
-        <v>2.607333862900226</v>
+        <v>2.607333862900479</v>
       </c>
       <c r="I236" t="n">
-        <v>-1.063021346330655</v>
+        <v>-1.063021346330758</v>
       </c>
       <c r="J236" t="n">
         <v>164</v>
@@ -13901,10 +13901,10 @@
         <v>118</v>
       </c>
       <c r="N236" t="n">
-        <v>401.2335715999622</v>
+        <v>401.2335716000008</v>
       </c>
       <c r="O236" t="n">
-        <v>4.465806757249023</v>
+        <v>4.465806757249021</v>
       </c>
       <c r="P236" t="inlineStr">
         <is>
@@ -13937,19 +13937,19 @@
         <v>535</v>
       </c>
       <c r="G237" t="n">
-        <v>2.496450211030708</v>
+        <v>2.496450211030973</v>
       </c>
       <c r="H237" t="n">
-        <v>2.705191170417633</v>
+        <v>2.705191170417896</v>
       </c>
       <c r="I237" t="n">
-        <v>-1.063021346330655</v>
+        <v>-1.063021346330758</v>
       </c>
       <c r="J237" t="n">
         <v>523</v>
       </c>
       <c r="K237" t="n">
-        <v>148.1575964759259</v>
+        <v>148.1575964759324</v>
       </c>
       <c r="L237" t="n">
         <v>223</v>
@@ -13958,10 +13958,10 @@
         <v>302</v>
       </c>
       <c r="N237" t="n">
-        <v>1167.424199239752</v>
+        <v>1167.424199239865</v>
       </c>
       <c r="O237" t="n">
-        <v>5.127004669835009</v>
+        <v>5.127004669835054</v>
       </c>
       <c r="P237" t="inlineStr">
         <is>
@@ -13994,13 +13994,13 @@
         <v>896</v>
       </c>
       <c r="G238" t="n">
-        <v>3.43138843585429</v>
+        <v>3.431388435854624</v>
       </c>
       <c r="H238" t="n">
-        <v>3.020554515671269</v>
+        <v>3.020554515671562</v>
       </c>
       <c r="I238" t="n">
-        <v>-1.063021346330655</v>
+        <v>-1.063021346330758</v>
       </c>
       <c r="J238" t="n">
         <v>361</v>
@@ -14015,10 +14015,10 @@
         <v>167</v>
       </c>
       <c r="N238" t="n">
-        <v>605.3787910687258</v>
+        <v>605.3787910687849</v>
       </c>
       <c r="O238" t="n">
-        <v>7.047104106826662</v>
+        <v>7.04710410682666</v>
       </c>
       <c r="P238" t="inlineStr">
         <is>
@@ -14051,13 +14051,13 @@
         <v>1682</v>
       </c>
       <c r="G239" t="n">
-        <v>1.328161220017832</v>
+        <v>1.32816122001796</v>
       </c>
       <c r="H239" t="n">
-        <v>1.399177058299634</v>
+        <v>1.39917705829977</v>
       </c>
       <c r="I239" t="n">
-        <v>-0.9001774732099594</v>
+        <v>-0.9001774732100473</v>
       </c>
       <c r="J239" t="n">
         <v>311</v>
@@ -14072,10 +14072,10 @@
         <v>102</v>
       </c>
       <c r="N239" t="n">
-        <v>415.9491766670136</v>
+        <v>415.9491766670542</v>
       </c>
       <c r="O239" t="n">
-        <v>5.08910997324254</v>
+        <v>5.089109973242532</v>
       </c>
       <c r="P239" t="inlineStr">
         <is>
@@ -14108,13 +14108,13 @@
         <v>2827</v>
       </c>
       <c r="G240" t="n">
-        <v>1.989101282922879</v>
+        <v>1.989101282923073</v>
       </c>
       <c r="H240" t="n">
-        <v>1.333647224300566</v>
+        <v>1.333647224300695</v>
       </c>
       <c r="I240" t="n">
-        <v>-0.9001774732099594</v>
+        <v>-0.9001774732100473</v>
       </c>
       <c r="J240" t="n">
         <v>485</v>
@@ -14129,10 +14129,10 @@
         <v>314</v>
       </c>
       <c r="N240" t="n">
-        <v>290.0847749881013</v>
+        <v>290.0847749881297</v>
       </c>
       <c r="O240" t="n">
-        <v>7.621631338232004</v>
+        <v>7.621631338231994</v>
       </c>
       <c r="P240" t="inlineStr">
         <is>
@@ -14165,13 +14165,13 @@
         <v>632</v>
       </c>
       <c r="G241" t="n">
-        <v>2.253562240694873</v>
+        <v>2.253562240695091</v>
       </c>
       <c r="H241" t="n">
-        <v>1.449494175619518</v>
+        <v>1.449494175619659</v>
       </c>
       <c r="I241" t="n">
-        <v>-0.9360807186056211</v>
+        <v>-0.9360807186057124</v>
       </c>
       <c r="J241" t="n">
         <v>414</v>
@@ -14186,10 +14186,10 @@
         <v>325</v>
       </c>
       <c r="N241" t="n">
-        <v>445.1652342146872</v>
+        <v>445.1652342147306</v>
       </c>
       <c r="O241" t="n">
-        <v>13.68030611907349</v>
+        <v>13.68030611907346</v>
       </c>
       <c r="P241" t="inlineStr">
         <is>
@@ -14222,13 +14222,13 @@
         <v>2537</v>
       </c>
       <c r="G242" t="n">
-        <v>0.6841274132962513</v>
+        <v>0.6841274132963173</v>
       </c>
       <c r="H242" t="n">
-        <v>0.4074904500488024</v>
+        <v>0.4074904500488418</v>
       </c>
       <c r="I242" t="n">
-        <v>-0.9360807186056211</v>
+        <v>-0.9360807186057124</v>
       </c>
       <c r="J242" t="n">
         <v>358</v>
@@ -14243,10 +14243,10 @@
         <v>286</v>
       </c>
       <c r="N242" t="n">
-        <v>150.3174478352972</v>
+        <v>150.3174478353118</v>
       </c>
       <c r="O242" t="n">
-        <v>4.153012625671618</v>
+        <v>4.153012625671606</v>
       </c>
       <c r="P242" t="inlineStr">
         <is>
@@ -14279,19 +14279,19 @@
         <v>2989</v>
       </c>
       <c r="G243" t="n">
-        <v>2.01084136198758</v>
+        <v>2.010841361987766</v>
       </c>
       <c r="H243" t="n">
-        <v>1.860193797343678</v>
+        <v>1.860193797343859</v>
       </c>
       <c r="I243" t="n">
-        <v>-0.9360807186056211</v>
+        <v>-0.9360807186057124</v>
       </c>
       <c r="J243" t="n">
         <v>452</v>
       </c>
       <c r="K243" t="n">
-        <v>67.36217292330866</v>
+        <v>67.36217292330821</v>
       </c>
       <c r="L243" t="n">
         <v>70</v>
@@ -14300,10 +14300,10 @@
         <v>384</v>
       </c>
       <c r="N243" t="n">
-        <v>772.2062159312443</v>
+        <v>772.2062159313195</v>
       </c>
       <c r="O243" t="n">
-        <v>12.20686293554624</v>
+        <v>12.20686293554615</v>
       </c>
       <c r="P243" t="inlineStr">
         <is>
@@ -14336,13 +14336,13 @@
         <v>2989</v>
       </c>
       <c r="G244" t="n">
-        <v>1.641002379659344</v>
+        <v>1.641002379659503</v>
       </c>
       <c r="H244" t="n">
-        <v>1.771730403532025</v>
+        <v>1.771730403532197</v>
       </c>
       <c r="I244" t="n">
-        <v>-0.9360807186056211</v>
+        <v>-0.9360807186057124</v>
       </c>
       <c r="J244" t="n">
         <v>294</v>
@@ -14357,10 +14357,10 @@
         <v>259</v>
       </c>
       <c r="N244" t="n">
-        <v>514.0696711598077</v>
+        <v>514.0696711598579</v>
       </c>
       <c r="O244" t="n">
-        <v>9.961746114873556</v>
+        <v>9.961746114873531</v>
       </c>
       <c r="P244" t="inlineStr">
         <is>
@@ -14393,13 +14393,13 @@
         <v>2989</v>
       </c>
       <c r="G245" t="n">
-        <v>1.48112095301638</v>
+        <v>1.481120953016524</v>
       </c>
       <c r="H245" t="n">
-        <v>1.512607906096264</v>
+        <v>1.512607906096411</v>
       </c>
       <c r="I245" t="n">
-        <v>-0.9360807186056211</v>
+        <v>-0.9360807186057124</v>
       </c>
       <c r="J245" t="n">
         <v>197</v>
@@ -14414,10 +14414,10 @@
         <v>108</v>
       </c>
       <c r="N245" t="n">
-        <v>336.7016905896962</v>
+        <v>336.7016905897291</v>
       </c>
       <c r="O245" t="n">
-        <v>8.991181903363019</v>
+        <v>8.991181903362998</v>
       </c>
       <c r="P245" t="inlineStr">
         <is>
@@ -14450,13 +14450,13 @@
         <v>1953</v>
       </c>
       <c r="G246" t="n">
-        <v>1.055434841306637</v>
+        <v>1.055434841306739</v>
       </c>
       <c r="H246" t="n">
-        <v>0.3964291679608006</v>
+        <v>0.3964291679608392</v>
       </c>
       <c r="I246" t="n">
-        <v>-0.9089497443626365</v>
+        <v>-0.9089497443627251</v>
       </c>
       <c r="J246" t="n">
         <v>495</v>
@@ -14471,10 +14471,10 @@
         <v>383</v>
       </c>
       <c r="N246" t="n">
-        <v>358.6900631263104</v>
+        <v>358.6900631263453</v>
       </c>
       <c r="O246" t="n">
-        <v>3.722315768955659</v>
+        <v>3.722315768955657</v>
       </c>
       <c r="P246" t="inlineStr">
         <is>
@@ -14507,13 +14507,13 @@
         <v>2845</v>
       </c>
       <c r="G247" t="n">
-        <v>1.411826835451925</v>
+        <v>1.411826835452062</v>
       </c>
       <c r="H247" t="n">
-        <v>0.2278844397183884</v>
+        <v>0.2278844397184103</v>
       </c>
       <c r="I247" t="n">
-        <v>-0.9089497443626365</v>
+        <v>-0.9089497443627251</v>
       </c>
       <c r="J247" t="n">
         <v>371</v>
@@ -14528,10 +14528,10 @@
         <v>86</v>
       </c>
       <c r="N247" t="n">
-        <v>132.8722861363096</v>
+        <v>132.8722861363226</v>
       </c>
       <c r="O247" t="n">
-        <v>4.979241812911356</v>
+        <v>4.979241812911354</v>
       </c>
       <c r="P247" t="inlineStr">
         <is>
@@ -14564,19 +14564,19 @@
         <v>167</v>
       </c>
       <c r="G248" t="n">
-        <v>2.568017171863975</v>
+        <v>2.568017171864212</v>
       </c>
       <c r="H248" t="n">
-        <v>2.448267417240992</v>
+        <v>2.44826741724123</v>
       </c>
       <c r="I248" t="n">
-        <v>-1.05865850063178</v>
+        <v>-1.058658500631884</v>
       </c>
       <c r="J248" t="n">
         <v>167</v>
       </c>
       <c r="K248" t="n">
-        <v>46.62929780766725</v>
+        <v>46.62929780766597</v>
       </c>
       <c r="L248" t="n">
         <v>35</v>
@@ -14585,10 +14585,10 @@
         <v>134</v>
       </c>
       <c r="N248" t="n">
-        <v>329.2461766594425</v>
+        <v>329.2461766594724</v>
       </c>
       <c r="O248" t="n">
-        <v>7.493713399005467</v>
+        <v>7.493713399005425</v>
       </c>
       <c r="P248" t="inlineStr">
         <is>
@@ -14621,13 +14621,13 @@
         <v>2534</v>
       </c>
       <c r="G249" t="n">
-        <v>1.769968515789788</v>
+        <v>1.76996851578996</v>
       </c>
       <c r="H249" t="n">
-        <v>0.379123491094584</v>
+        <v>0.3791234910946205</v>
       </c>
       <c r="I249" t="n">
-        <v>-1.05865850063178</v>
+        <v>-1.058658500631884</v>
       </c>
       <c r="J249" t="n">
         <v>581</v>
@@ -14642,10 +14642,10 @@
         <v>307</v>
       </c>
       <c r="N249" t="n">
-        <v>253.3181871786085</v>
+        <v>253.3181871786332</v>
       </c>
       <c r="O249" t="n">
-        <v>5.164933057267856</v>
+        <v>5.16493305726785</v>
       </c>
       <c r="P249" t="inlineStr">
         <is>
@@ -14678,13 +14678,13 @@
         <v>2857</v>
       </c>
       <c r="G250" t="n">
-        <v>1.984060872070469</v>
+        <v>1.984060872070661</v>
       </c>
       <c r="H250" t="n">
-        <v>1.608298183856919</v>
+        <v>1.608298183857074</v>
       </c>
       <c r="I250" t="n">
-        <v>-1.05865850063178</v>
+        <v>-1.058658500631884</v>
       </c>
       <c r="J250" t="n">
         <v>323</v>
@@ -14699,10 +14699,10 @@
         <v>132</v>
       </c>
       <c r="N250" t="n">
-        <v>302.7682268604137</v>
+        <v>302.7682268604433</v>
       </c>
       <c r="O250" t="n">
-        <v>5.789674502326297</v>
+        <v>5.78967450232629</v>
       </c>
       <c r="P250" t="inlineStr">
         <is>
@@ -14735,19 +14735,19 @@
         <v>300</v>
       </c>
       <c r="G251" t="n">
-        <v>0.551640385065555</v>
+        <v>0.5516403850656086</v>
       </c>
       <c r="H251" t="n">
-        <v>0.1099619646421114</v>
+        <v>0.1099619646421221</v>
       </c>
       <c r="I251" t="n">
-        <v>-0.6652637998149494</v>
+        <v>-0.6652637998150143</v>
       </c>
       <c r="J251" t="n">
         <v>240</v>
       </c>
       <c r="K251" t="n">
-        <v>61.74791053167128</v>
+        <v>61.74791053167125</v>
       </c>
       <c r="L251" t="n">
         <v>46</v>
@@ -14756,10 +14756,10 @@
         <v>196</v>
       </c>
       <c r="N251" t="n">
-        <v>45.05434209860863</v>
+        <v>45.05434209861302</v>
       </c>
       <c r="O251" t="n">
-        <v>3.400769520897837</v>
+        <v>3.400769520897836</v>
       </c>
       <c r="P251" t="inlineStr">
         <is>
@@ -14792,13 +14792,13 @@
         <v>583</v>
       </c>
       <c r="G252" t="n">
-        <v>0.4390741826487108</v>
+        <v>0.4390741826487535</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.1937186337567693</v>
+        <v>-0.1937186337567883</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.6652637998149494</v>
+        <v>-0.6652637998150143</v>
       </c>
       <c r="J252" t="n">
         <v>283</v>
@@ -14813,7 +14813,7 @@
         <v>43</v>
       </c>
       <c r="N252" t="n">
-        <v>40.75634585240596</v>
+        <v>40.75634585240991</v>
       </c>
       <c r="O252" t="n">
         <v>2.706817952763592</v>
@@ -14849,13 +14849,13 @@
         <v>1139</v>
       </c>
       <c r="G253" t="n">
-        <v>0.4733221084059341</v>
+        <v>0.47332210840598</v>
       </c>
       <c r="H253" t="n">
-        <v>-0.2336524688154325</v>
+        <v>-0.2336524688154555</v>
       </c>
       <c r="I253" t="n">
-        <v>-0.6652637998149494</v>
+        <v>-0.6652637998150143</v>
       </c>
       <c r="J253" t="n">
         <v>82</v>
@@ -14870,10 +14870,10 @@
         <v>49</v>
       </c>
       <c r="N253" t="n">
-        <v>13.46914001667933</v>
+        <v>13.46914001668063</v>
       </c>
       <c r="O253" t="n">
-        <v>2.917950613138514</v>
+        <v>2.917950613138513</v>
       </c>
       <c r="P253" t="inlineStr">
         <is>
@@ -14906,13 +14906,13 @@
         <v>1973</v>
       </c>
       <c r="G254" t="n">
-        <v>0.504735358989028</v>
+        <v>0.504735358989077</v>
       </c>
       <c r="H254" t="n">
-        <v>-0.2618676929866144</v>
+        <v>-0.2618676929866401</v>
       </c>
       <c r="I254" t="n">
-        <v>-0.6652637998149494</v>
+        <v>-0.6652637998150143</v>
       </c>
       <c r="J254" t="n">
         <v>526</v>
@@ -14927,10 +14927,10 @@
         <v>111</v>
       </c>
       <c r="N254" t="n">
-        <v>96.32801482923776</v>
+        <v>96.32801482924714</v>
       </c>
       <c r="O254" t="n">
-        <v>3.111607981285367</v>
+        <v>3.111607981285366</v>
       </c>
       <c r="P254" t="inlineStr">
         <is>
@@ -14963,13 +14963,13 @@
         <v>2196</v>
       </c>
       <c r="G255" t="n">
-        <v>0.7766027592544682</v>
+        <v>0.7766027592545433</v>
       </c>
       <c r="H255" t="n">
-        <v>0.3213278041946385</v>
+        <v>0.3213278041946697</v>
       </c>
       <c r="I255" t="n">
-        <v>-0.6652637998149494</v>
+        <v>-0.6652637998150143</v>
       </c>
       <c r="J255" t="n">
         <v>223</v>
@@ -14984,10 +14984,10 @@
         <v>133</v>
       </c>
       <c r="N255" t="n">
-        <v>100.7196160166994</v>
+        <v>100.7196160167092</v>
       </c>
       <c r="O255" t="n">
-        <v>4.787624447046065</v>
+        <v>4.787624447046061</v>
       </c>
       <c r="P255" t="inlineStr">
         <is>
@@ -15020,13 +15020,13 @@
         <v>2412</v>
       </c>
       <c r="G256" t="n">
-        <v>1.703060447937687</v>
+        <v>1.703060447937852</v>
       </c>
       <c r="H256" t="n">
-        <v>1.097377949996086</v>
+        <v>1.097377949996192</v>
       </c>
       <c r="I256" t="n">
-        <v>-0.6652637998149494</v>
+        <v>-0.6652637998150143</v>
       </c>
       <c r="J256" t="n">
         <v>439</v>
@@ -15041,10 +15041,10 @@
         <v>182</v>
       </c>
       <c r="N256" t="n">
-        <v>281.5022048210192</v>
+        <v>281.5022048210467</v>
       </c>
       <c r="O256" t="n">
-        <v>10.4990791471963</v>
+        <v>10.49907914719629</v>
       </c>
       <c r="P256" t="inlineStr">
         <is>
@@ -15077,13 +15077,13 @@
         <v>2574</v>
       </c>
       <c r="G257" t="n">
-        <v>0.4209255576046367</v>
+        <v>0.4209255576046773</v>
       </c>
       <c r="H257" t="n">
-        <v>0.04465575825090463</v>
+        <v>0.04465575825090876</v>
       </c>
       <c r="I257" t="n">
-        <v>-0.6652637998149494</v>
+        <v>-0.6652637998150143</v>
       </c>
       <c r="J257" t="n">
         <v>162</v>
@@ -15098,10 +15098,10 @@
         <v>126</v>
       </c>
       <c r="N257" t="n">
-        <v>78.17993081464843</v>
+        <v>78.17993081465605</v>
       </c>
       <c r="O257" t="n">
-        <v>2.594934753913392</v>
+        <v>2.59493475391339</v>
       </c>
       <c r="P257" t="inlineStr">
         <is>
@@ -15134,13 +15134,13 @@
         <v>2666</v>
       </c>
       <c r="G258" t="n">
-        <v>0.5369125948596138</v>
+        <v>0.5369125948596657</v>
       </c>
       <c r="H258" t="n">
-        <v>0.04503093074473197</v>
+        <v>0.04503093074473606</v>
       </c>
       <c r="I258" t="n">
-        <v>-0.6652637998149494</v>
+        <v>-0.6652637998150143</v>
       </c>
       <c r="J258" t="n">
         <v>254</v>
@@ -15155,10 +15155,10 @@
         <v>70</v>
       </c>
       <c r="N258" t="n">
-        <v>113.0715642997054</v>
+        <v>113.0715642997164</v>
       </c>
       <c r="O258" t="n">
-        <v>3.309975189303368</v>
+        <v>3.309975189303365</v>
       </c>
       <c r="P258" t="inlineStr">
         <is>
@@ -15191,13 +15191,13 @@
         <v>2991</v>
       </c>
       <c r="G259" t="n">
-        <v>0.9263714540842374</v>
+        <v>0.9263714540843275</v>
       </c>
       <c r="H259" t="n">
-        <v>3.493792377249193</v>
+        <v>3.493792377249533</v>
       </c>
       <c r="I259" t="n">
-        <v>-0.6652637998149494</v>
+        <v>-0.6652637998150143</v>
       </c>
       <c r="J259" t="n">
         <v>130</v>
@@ -15212,10 +15212,10 @@
         <v>82</v>
       </c>
       <c r="N259" t="n">
-        <v>411.2082465678886</v>
+        <v>411.2082465679272</v>
       </c>
       <c r="O259" t="n">
-        <v>5.710923078456457</v>
+        <v>5.710923078456456</v>
       </c>
       <c r="P259" t="inlineStr">
         <is>
@@ -15248,13 +15248,13 @@
         <v>2457</v>
       </c>
       <c r="G260" t="n">
-        <v>2.160695219794844</v>
+        <v>2.160695219795054</v>
       </c>
       <c r="H260" t="n">
-        <v>1.509687191337795</v>
+        <v>1.509687191337942</v>
       </c>
       <c r="I260" t="n">
-        <v>-1.203816776337943</v>
+        <v>-1.20381677633806</v>
       </c>
       <c r="J260" t="n">
         <v>199</v>
@@ -15269,10 +15269,10 @@
         <v>89</v>
       </c>
       <c r="N260" t="n">
-        <v>262.4580847638313</v>
+        <v>262.4580847638569</v>
       </c>
       <c r="O260" t="n">
-        <v>4.692822008563489</v>
+        <v>4.692822008563487</v>
       </c>
       <c r="P260" t="inlineStr">
         <is>
@@ -15305,13 +15305,13 @@
         <v>2730</v>
       </c>
       <c r="G261" t="n">
-        <v>1.096123098244418</v>
+        <v>1.096123098244524</v>
       </c>
       <c r="H261" t="n">
-        <v>0.9770696656024374</v>
+        <v>0.9770696656025322</v>
       </c>
       <c r="I261" t="n">
-        <v>-0.5925374168878903</v>
+        <v>-0.592537416887948</v>
       </c>
       <c r="J261" t="n">
         <v>335</v>
@@ -15326,10 +15326,10 @@
         <v>299</v>
       </c>
       <c r="N261" t="n">
-        <v>191.866270260819</v>
+        <v>191.8662702608377</v>
       </c>
       <c r="O261" t="n">
-        <v>8.359011193114155</v>
+        <v>8.359011193114151</v>
       </c>
       <c r="P261" t="inlineStr">
         <is>
@@ -15362,13 +15362,13 @@
         <v>2730</v>
       </c>
       <c r="G262" t="n">
-        <v>0.6030558997534187</v>
+        <v>0.6030558997534774</v>
       </c>
       <c r="H262" t="n">
-        <v>0.130076132731776</v>
+        <v>0.1300761327317886</v>
       </c>
       <c r="I262" t="n">
-        <v>-0.5925374168878903</v>
+        <v>-0.592537416887948</v>
       </c>
       <c r="J262" t="n">
         <v>167</v>
@@ -15383,10 +15383,10 @@
         <v>103</v>
       </c>
       <c r="N262" t="n">
-        <v>65.00632925258563</v>
+        <v>65.00632925259195</v>
       </c>
       <c r="O262" t="n">
-        <v>4.598891332721742</v>
+        <v>4.598891332721741</v>
       </c>
       <c r="P262" t="inlineStr">
         <is>
@@ -15419,13 +15419,13 @@
         <v>2929</v>
       </c>
       <c r="G263" t="n">
-        <v>0.8201079538632237</v>
+        <v>0.8201079538633036</v>
       </c>
       <c r="H263" t="n">
-        <v>4.029604882678317</v>
+        <v>4.029604882678711</v>
       </c>
       <c r="I263" t="n">
-        <v>-0.5925374168878903</v>
+        <v>-0.592537416887948</v>
       </c>
       <c r="J263" t="n">
         <v>66</v>
@@ -15440,7 +15440,7 @@
         <v>37</v>
       </c>
       <c r="N263" t="n">
-        <v>272.1313508002813</v>
+        <v>272.1313508003079</v>
       </c>
       <c r="O263" t="n">
         <v>6.254125633228846</v>
@@ -15476,13 +15476,13 @@
         <v>2989</v>
       </c>
       <c r="G264" t="n">
-        <v>1.000731980698497</v>
+        <v>1.000731980698593</v>
       </c>
       <c r="H264" t="n">
-        <v>4.035119476506266</v>
+        <v>4.035119476506659</v>
       </c>
       <c r="I264" t="n">
-        <v>-0.5925374168878903</v>
+        <v>-0.592537416887948</v>
       </c>
       <c r="J264" t="n">
         <v>126</v>
@@ -15497,10 +15497,10 @@
         <v>33</v>
       </c>
       <c r="N264" t="n">
-        <v>516.7293335672633</v>
+        <v>516.7293335673095</v>
       </c>
       <c r="O264" t="n">
-        <v>7.631560580525915</v>
+        <v>7.631560580525905</v>
       </c>
       <c r="P264" t="inlineStr">
         <is>
@@ -15533,13 +15533,13 @@
         <v>198</v>
       </c>
       <c r="G265" t="n">
-        <v>1.1787400095245</v>
+        <v>1.178740009524614</v>
       </c>
       <c r="H265" t="n">
-        <v>0.4646444913566573</v>
+        <v>0.4646444913567023</v>
       </c>
       <c r="I265" t="n">
-        <v>-0.7755432268680714</v>
+        <v>-0.7755432268681473</v>
       </c>
       <c r="J265" t="n">
         <v>164</v>
@@ -15554,10 +15554,10 @@
         <v>40</v>
       </c>
       <c r="N265" t="n">
-        <v>82.90022275472184</v>
+        <v>82.90022275472995</v>
       </c>
       <c r="O265" t="n">
-        <v>5.736708559139067</v>
+        <v>5.73670855913906</v>
       </c>
       <c r="P265" t="inlineStr">
         <is>
@@ -15590,19 +15590,19 @@
         <v>375</v>
       </c>
       <c r="G266" t="n">
-        <v>0.7619743228554103</v>
+        <v>0.7619743228554843</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.03225510675820582</v>
+        <v>-0.03225510675820931</v>
       </c>
       <c r="I266" t="n">
-        <v>-0.7755432268680714</v>
+        <v>-0.7755432268681473</v>
       </c>
       <c r="J266" t="n">
         <v>177</v>
       </c>
       <c r="K266" t="n">
-        <v>36.51417069395561</v>
+        <v>36.51417069395563</v>
       </c>
       <c r="L266" t="n">
         <v>36</v>
@@ -15611,10 +15611,10 @@
         <v>143</v>
       </c>
       <c r="N266" t="n">
-        <v>61.78188175551691</v>
+        <v>61.78188175552297</v>
       </c>
       <c r="O266" t="n">
-        <v>3.708387417452782</v>
+        <v>3.708387417452778</v>
       </c>
       <c r="P266" t="inlineStr">
         <is>
@@ -15647,13 +15647,13 @@
         <v>512</v>
       </c>
       <c r="G267" t="n">
-        <v>1.91013963631422</v>
+        <v>1.910139636314405</v>
       </c>
       <c r="H267" t="n">
-        <v>1.476791869058361</v>
+        <v>1.476791869058504</v>
       </c>
       <c r="I267" t="n">
-        <v>-1.166678346131566</v>
+        <v>-1.166678346131679</v>
       </c>
       <c r="J267" t="n">
         <v>164</v>
@@ -15668,10 +15668,10 @@
         <v>98</v>
       </c>
       <c r="N267" t="n">
-        <v>228.4010768871238</v>
+        <v>228.401076887146</v>
       </c>
       <c r="O267" t="n">
-        <v>3.41190898481298</v>
+        <v>3.411908984812977</v>
       </c>
       <c r="P267" t="inlineStr">
         <is>
@@ -15704,13 +15704,13 @@
         <v>944</v>
       </c>
       <c r="G268" t="n">
-        <v>2.416364890440352</v>
+        <v>2.416364890440587</v>
       </c>
       <c r="H268" t="n">
-        <v>1.91201366412775</v>
+        <v>1.912013664127936</v>
       </c>
       <c r="I268" t="n">
-        <v>-1.166678346131566</v>
+        <v>-1.166678346131679</v>
       </c>
       <c r="J268" t="n">
         <v>432</v>
@@ -15725,10 +15725,10 @@
         <v>290</v>
       </c>
       <c r="N268" t="n">
-        <v>497.4349145339156</v>
+        <v>497.434914533964</v>
       </c>
       <c r="O268" t="n">
-        <v>4.316133189188402</v>
+        <v>4.316133189188401</v>
       </c>
       <c r="P268" t="inlineStr">
         <is>
@@ -15761,13 +15761,13 @@
         <v>1460</v>
       </c>
       <c r="G269" t="n">
-        <v>1.60815230412637</v>
+        <v>1.608152304126526</v>
       </c>
       <c r="H269" t="n">
-        <v>0.4717176762731377</v>
+        <v>0.4717176762731831</v>
       </c>
       <c r="I269" t="n">
-        <v>-1.166678346131566</v>
+        <v>-1.166678346131679</v>
       </c>
       <c r="J269" t="n">
         <v>516</v>
@@ -15782,10 +15782,10 @@
         <v>74</v>
       </c>
       <c r="N269" t="n">
-        <v>114.1055453476872</v>
+        <v>114.1055453476982</v>
       </c>
       <c r="O269" t="n">
-        <v>2.87249643485952</v>
+        <v>2.872496434859519</v>
       </c>
       <c r="P269" t="inlineStr">
         <is>
@@ -15818,13 +15818,13 @@
         <v>2401</v>
       </c>
       <c r="G270" t="n">
-        <v>2.002127117947878</v>
+        <v>2.002127117948072</v>
       </c>
       <c r="H270" t="n">
-        <v>1.821446614717139</v>
+        <v>1.821446614717316</v>
       </c>
       <c r="I270" t="n">
-        <v>-1.166678346131566</v>
+        <v>-1.166678346131679</v>
       </c>
       <c r="J270" t="n">
         <v>392</v>
@@ -15839,10 +15839,10 @@
         <v>301</v>
       </c>
       <c r="N270" t="n">
-        <v>549.0297161688485</v>
+        <v>549.029716168902</v>
       </c>
       <c r="O270" t="n">
-        <v>3.576217870461677</v>
+        <v>3.576217870461674</v>
       </c>
       <c r="P270" t="inlineStr">
         <is>
@@ -15875,19 +15875,19 @@
         <v>2907</v>
       </c>
       <c r="G271" t="n">
-        <v>2.924460496958289</v>
+        <v>2.924460496958574</v>
       </c>
       <c r="H271" t="n">
-        <v>2.202812936608072</v>
+        <v>2.202812936608286</v>
       </c>
       <c r="I271" t="n">
-        <v>-1.166678346131566</v>
+        <v>-1.166678346131679</v>
       </c>
       <c r="J271" t="n">
         <v>506</v>
       </c>
       <c r="K271" t="n">
-        <v>43.795561029689</v>
+        <v>43.79556102968945</v>
       </c>
       <c r="L271" t="n">
         <v>327</v>
@@ -15896,10 +15896,10 @@
         <v>181</v>
       </c>
       <c r="N271" t="n">
-        <v>620.272746478091</v>
+        <v>620.2727464781515</v>
       </c>
       <c r="O271" t="n">
-        <v>5.223698234206595</v>
+        <v>5.223698234206593</v>
       </c>
       <c r="P271" t="inlineStr">
         <is>
@@ -15932,13 +15932,13 @@
         <v>945</v>
       </c>
       <c r="G272" t="n">
-        <v>2.731989690570186</v>
+        <v>2.731989690570452</v>
       </c>
       <c r="H272" t="n">
-        <v>2.158912066785043</v>
+        <v>2.158912066785253</v>
       </c>
       <c r="I272" t="n">
-        <v>-1.083774142790242</v>
+        <v>-1.083774142790348</v>
       </c>
       <c r="J272" t="n">
         <v>392</v>
@@ -15953,10 +15953,10 @@
         <v>317</v>
       </c>
       <c r="N272" t="n">
-        <v>457.3723499981281</v>
+        <v>457.3723499981728</v>
       </c>
       <c r="O272" t="n">
-        <v>6.775721116495053</v>
+        <v>6.775721116495048</v>
       </c>
       <c r="P272" t="inlineStr">
         <is>
@@ -15989,13 +15989,13 @@
         <v>1540</v>
       </c>
       <c r="G273" t="n">
-        <v>1.206122293900269</v>
+        <v>1.206122293900386</v>
       </c>
       <c r="H273" t="n">
-        <v>0.5541191259489813</v>
+        <v>0.554119125949035</v>
       </c>
       <c r="I273" t="n">
-        <v>-1.083774142790242</v>
+        <v>-1.083774142790348</v>
       </c>
       <c r="J273" t="n">
         <v>595</v>
@@ -16010,10 +16010,10 @@
         <v>159</v>
       </c>
       <c r="N273" t="n">
-        <v>272.3493678148797</v>
+        <v>272.3493678149062</v>
       </c>
       <c r="O273" t="n">
-        <v>2.991354002565756</v>
+        <v>2.991354002565753</v>
       </c>
       <c r="P273" t="inlineStr">
         <is>
@@ -16046,13 +16046,13 @@
         <v>2373</v>
       </c>
       <c r="G274" t="n">
-        <v>1.308393770984262</v>
+        <v>1.308393770984389</v>
       </c>
       <c r="H274" t="n">
-        <v>1.814258715799343</v>
+        <v>1.814258715799519</v>
       </c>
       <c r="I274" t="n">
-        <v>-1.083774142790242</v>
+        <v>-1.083774142790348</v>
       </c>
       <c r="J274" t="n">
         <v>365</v>
@@ -16067,10 +16067,10 @@
         <v>265</v>
       </c>
       <c r="N274" t="n">
-        <v>465.0623948146254</v>
+        <v>465.0623948146708</v>
       </c>
       <c r="O274" t="n">
-        <v>3.245001741166309</v>
+        <v>3.245001741166304</v>
       </c>
       <c r="P274" t="inlineStr">
         <is>
@@ -16103,13 +16103,13 @@
         <v>2988</v>
       </c>
       <c r="G275" t="n">
-        <v>1.045050632409075</v>
+        <v>1.045050632409176</v>
       </c>
       <c r="H275" t="n">
-        <v>0.295753978425898</v>
+        <v>0.2957539784259265</v>
       </c>
       <c r="I275" t="n">
-        <v>-1.083774142790242</v>
+        <v>-1.083774142790348</v>
       </c>
       <c r="J275" t="n">
         <v>131</v>
@@ -16124,10 +16124,10 @@
         <v>56</v>
       </c>
       <c r="N275" t="n">
-        <v>110.1092520058217</v>
+        <v>110.1092520058334</v>
       </c>
       <c r="O275" t="n">
-        <v>2.591873484098993</v>
+        <v>2.591873484098989</v>
       </c>
       <c r="P275" t="inlineStr">
         <is>
